--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9286673865446262</v>
+        <v>0.9286673865446273</v>
       </c>
       <c r="D2">
-        <v>0.942545731745436</v>
+        <v>0.9425457317454371</v>
       </c>
       <c r="E2">
-        <v>0.9450408183512369</v>
+        <v>0.9450408183512379</v>
       </c>
       <c r="F2">
-        <v>0.9360340085500658</v>
+        <v>0.936034008550067</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.032789463822575</v>
       </c>
       <c r="J2">
-        <v>0.9532131604487657</v>
+        <v>0.9532131604487668</v>
       </c>
       <c r="K2">
-        <v>0.9548680979418336</v>
+        <v>0.9548680979418348</v>
       </c>
       <c r="L2">
-        <v>0.9573229098340289</v>
+        <v>0.95732290983403</v>
       </c>
       <c r="M2">
-        <v>0.9484627856179698</v>
+        <v>0.948462785617971</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9432232216668057</v>
+        <v>0.9432232216668052</v>
       </c>
       <c r="D3">
-        <v>0.955505962925194</v>
+        <v>0.9555059629251933</v>
       </c>
       <c r="E3">
-        <v>0.9574732267931769</v>
+        <v>0.9574732267931767</v>
       </c>
       <c r="F3">
-        <v>0.950637892036443</v>
+        <v>0.9506378920364426</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03594459058356</v>
       </c>
       <c r="J3">
-        <v>0.9653911752870098</v>
+        <v>0.9653911752870091</v>
       </c>
       <c r="K3">
-        <v>0.9667416919222354</v>
+        <v>0.9667416919222347</v>
       </c>
       <c r="L3">
-        <v>0.9686808038278765</v>
+        <v>0.9686808038278761</v>
       </c>
       <c r="M3">
-        <v>0.9619439192771102</v>
+        <v>0.9619439192771096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9520307558887081</v>
+        <v>0.9520307558887063</v>
       </c>
       <c r="D4">
-        <v>0.9633573981724433</v>
+        <v>0.9633573981724413</v>
       </c>
       <c r="E4">
-        <v>0.9650087712219318</v>
+        <v>0.9650087712219304</v>
       </c>
       <c r="F4">
-        <v>0.9594926474133715</v>
+        <v>0.9594926474133694</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.037811284563401</v>
       </c>
       <c r="J4">
-        <v>0.9727465471897071</v>
+        <v>0.9727465471897052</v>
       </c>
       <c r="K4">
-        <v>0.9739191547458735</v>
+        <v>0.9739191547458715</v>
       </c>
       <c r="L4">
-        <v>0.9755486976493316</v>
+        <v>0.9755486976493303</v>
       </c>
       <c r="M4">
-        <v>0.9701058625525891</v>
+        <v>0.9701058625525872</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.955604113894851</v>
+        <v>0.9556041138948512</v>
       </c>
       <c r="D5">
-        <v>0.9665448057530402</v>
+        <v>0.9665448057530401</v>
       </c>
       <c r="E5">
-        <v>0.9680688051578163</v>
+        <v>0.9680688051578167</v>
       </c>
       <c r="F5">
-        <v>0.9630893162757128</v>
+        <v>0.9630893162757134</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.038557950785415</v>
       </c>
       <c r="J5">
-        <v>0.9757273740155986</v>
+        <v>0.9757273740155988</v>
       </c>
       <c r="K5">
         <v>0.976829283652092</v>
       </c>
       <c r="L5">
-        <v>0.9783338058223199</v>
+        <v>0.9783338058223202</v>
       </c>
       <c r="M5">
-        <v>0.9734182421641618</v>
+        <v>0.9734182421641623</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9561969430898464</v>
+        <v>0.9561969430898467</v>
       </c>
       <c r="D6">
-        <v>0.967073712284355</v>
+        <v>0.9670737122843555</v>
       </c>
       <c r="E6">
-        <v>0.968576625273084</v>
+        <v>0.9685766252730842</v>
       </c>
       <c r="F6">
-        <v>0.9636862522653143</v>
+        <v>0.9636862522653141</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.038681181817318</v>
       </c>
       <c r="J6">
-        <v>0.976221698421643</v>
+        <v>0.9762216984216433</v>
       </c>
       <c r="K6">
-        <v>0.9773119657650372</v>
+        <v>0.9773119657650375</v>
       </c>
       <c r="L6">
-        <v>0.9787957801960586</v>
+        <v>0.9787957801960588</v>
       </c>
       <c r="M6">
         <v>0.9739678256480909</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.952078991550032</v>
+        <v>0.9520789915500328</v>
       </c>
       <c r="D7">
-        <v>0.96340041657246</v>
+        <v>0.9634004165724609</v>
       </c>
       <c r="E7">
-        <v>0.9650500671598378</v>
+        <v>0.9650500671598384</v>
       </c>
       <c r="F7">
-        <v>0.9595411814289397</v>
+        <v>0.9595411814289408</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.037821406783117</v>
       </c>
       <c r="J7">
-        <v>0.9727867980597261</v>
+        <v>0.9727867980597269</v>
       </c>
       <c r="K7">
-        <v>0.9739584454078962</v>
+        <v>0.9739584454078971</v>
       </c>
       <c r="L7">
-        <v>0.9755862984177501</v>
+        <v>0.975586298417751</v>
       </c>
       <c r="M7">
-        <v>0.9701505717805672</v>
+        <v>0.9701505717805681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9337245198521499</v>
+        <v>0.9337245198521508</v>
       </c>
       <c r="D8">
-        <v>0.9470462676112635</v>
+        <v>0.9470462676112643</v>
       </c>
       <c r="E8">
-        <v>0.9493571841612055</v>
+        <v>0.9493571841612062</v>
       </c>
       <c r="F8">
-        <v>0.9411037659747207</v>
+        <v>0.9411037659747218</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033894493353392</v>
       </c>
       <c r="J8">
-        <v>0.9574469542350781</v>
+        <v>0.9574469542350789</v>
       </c>
       <c r="K8">
-        <v>0.9589947459165142</v>
+        <v>0.958994745916515</v>
       </c>
       <c r="L8">
-        <v>0.9612698406447545</v>
+        <v>0.9612698406447553</v>
       </c>
       <c r="M8">
-        <v>0.9531453940057014</v>
+        <v>0.9531453940057024</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8956823442191056</v>
+        <v>0.8956823442191051</v>
       </c>
       <c r="D9">
-        <v>0.913253019827032</v>
+        <v>0.9132530198270314</v>
       </c>
       <c r="E9">
-        <v>0.9169686230355251</v>
+        <v>0.916968623035525</v>
       </c>
       <c r="F9">
-        <v>0.9030640507276828</v>
+        <v>0.9030640507276827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025410755510895</v>
+        <v>1.025410755510894</v>
       </c>
       <c r="J9">
-        <v>0.9255449924166309</v>
+        <v>0.9255449924166305</v>
       </c>
       <c r="K9">
-        <v>0.9279299730101219</v>
+        <v>0.9279299730101215</v>
       </c>
       <c r="L9">
-        <v>0.9315696369580513</v>
+        <v>0.9315696369580511</v>
       </c>
       <c r="M9">
-        <v>0.9179534909852655</v>
+        <v>0.9179534909852651</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.8643820491741283</v>
       </c>
       <c r="D10">
-        <v>0.8855650518310687</v>
+        <v>0.8855650518310685</v>
       </c>
       <c r="E10">
-        <v>0.8904675576520221</v>
+        <v>0.890467557652022</v>
       </c>
       <c r="F10">
-        <v>0.8719194543666569</v>
+        <v>0.871919454366657</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.018246315791575</v>
       </c>
       <c r="J10">
-        <v>0.8992425609985278</v>
+        <v>0.8992425609985281</v>
       </c>
       <c r="K10">
         <v>0.9023613593719484</v>
       </c>
       <c r="L10">
-        <v>0.9071426503198228</v>
+        <v>0.9071426503198227</v>
       </c>
       <c r="M10">
-        <v>0.8890628786871515</v>
+        <v>0.8890628786871514</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8485845888601443</v>
+        <v>0.8485845888601473</v>
       </c>
       <c r="D11">
-        <v>0.8716354331144098</v>
+        <v>0.8716354331144125</v>
       </c>
       <c r="E11">
-        <v>0.8771469733729792</v>
+        <v>0.8771469733729816</v>
       </c>
       <c r="F11">
-        <v>0.8562485562036533</v>
+        <v>0.8562485562036557</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.014608911615397</v>
       </c>
       <c r="J11">
-        <v>0.8859640635832706</v>
+        <v>0.8859640635832733</v>
       </c>
       <c r="K11">
-        <v>0.889465384727617</v>
+        <v>0.8894653847276197</v>
       </c>
       <c r="L11">
-        <v>0.8948282540643379</v>
+        <v>0.89482825406434</v>
       </c>
       <c r="M11">
-        <v>0.8745074388466145</v>
+        <v>0.8745074388466171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8422549645803284</v>
+        <v>0.8422549645803268</v>
       </c>
       <c r="D12">
-        <v>0.8660632641034144</v>
+        <v>0.8660632641034126</v>
       </c>
       <c r="E12">
-        <v>0.8718206600913012</v>
+        <v>0.8718206600913</v>
       </c>
       <c r="F12">
-        <v>0.8499783374653199</v>
+        <v>0.8499783374653184</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.013151478159056</v>
       </c>
       <c r="J12">
-        <v>0.8806446521782019</v>
+        <v>0.8806446521782003</v>
       </c>
       <c r="K12">
-        <v>0.8843012217754572</v>
+        <v>0.8843012217754554</v>
       </c>
       <c r="L12">
-        <v>0.889898027741323</v>
+        <v>0.8898980277413215</v>
       </c>
       <c r="M12">
-        <v>0.8686808086941615</v>
+        <v>0.86868080869416</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8436364268594742</v>
+        <v>0.8436364268594766</v>
       </c>
       <c r="D13">
-        <v>0.8672789535573392</v>
+        <v>0.8672789535573414</v>
       </c>
       <c r="E13">
-        <v>0.872982601992717</v>
+        <v>0.8729826019927196</v>
       </c>
       <c r="F13">
-        <v>0.8513464143418322</v>
+        <v>0.851346414341835</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013469499968993</v>
+        <v>1.013469499968994</v>
       </c>
       <c r="J13">
-        <v>0.8818055576424922</v>
+        <v>0.8818055576424948</v>
       </c>
       <c r="K13">
-        <v>0.8854281522352612</v>
+        <v>0.8854281522352636</v>
       </c>
       <c r="L13">
-        <v>0.8909738578652806</v>
+        <v>0.890973857865283</v>
       </c>
       <c r="M13">
-        <v>0.8699522198508424</v>
+        <v>0.869952219850845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.848071790014256</v>
+        <v>0.8480717900142561</v>
       </c>
       <c r="D14">
-        <v>0.8711838024973421</v>
+        <v>0.8711838024973422</v>
       </c>
       <c r="E14">
-        <v>0.8767152221633469</v>
+        <v>0.8767152221633475</v>
       </c>
       <c r="F14">
-        <v>0.8557403865272418</v>
+        <v>0.8557403865272423</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.014490813222349</v>
       </c>
       <c r="J14">
-        <v>0.8855330780454617</v>
+        <v>0.885533078045462</v>
       </c>
       <c r="K14">
-        <v>0.8890469363513613</v>
+        <v>0.8890469363513617</v>
       </c>
       <c r="L14">
-        <v>0.894428739364607</v>
+        <v>0.8944287393646075</v>
       </c>
       <c r="M14">
-        <v>0.8740352731311288</v>
+        <v>0.8740352731311291</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.850738404060158</v>
+        <v>0.8507384040601563</v>
       </c>
       <c r="D15">
-        <v>0.8735327102569508</v>
+        <v>0.8735327102569492</v>
       </c>
       <c r="E15">
-        <v>0.878960829543352</v>
+        <v>0.8789608295433506</v>
       </c>
       <c r="F15">
-        <v>0.8583832833096267</v>
+        <v>0.8583832833096244</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015104960421918</v>
       </c>
       <c r="J15">
-        <v>0.8877743007600485</v>
+        <v>0.8877743007600468</v>
       </c>
       <c r="K15">
-        <v>0.8912230439066294</v>
+        <v>0.8912230439066278</v>
       </c>
       <c r="L15">
-        <v>0.8965064264815854</v>
+        <v>0.8965064264815841</v>
       </c>
       <c r="M15">
-        <v>0.8764908125443682</v>
+        <v>0.8764908125443663</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8653740698575643</v>
+        <v>0.865374069857562</v>
       </c>
       <c r="D16">
-        <v>0.8864408215228997</v>
+        <v>0.886440821522898</v>
       </c>
       <c r="E16">
-        <v>0.891305302289681</v>
+        <v>0.8913053022896792</v>
       </c>
       <c r="F16">
-        <v>0.8729045756467462</v>
+        <v>0.8729045756467438</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.018474533534055</v>
       </c>
       <c r="J16">
-        <v>0.9000764314770925</v>
+        <v>0.9000764314770907</v>
       </c>
       <c r="K16">
-        <v>0.9031714593285767</v>
+        <v>0.9031714593285746</v>
       </c>
       <c r="L16">
-        <v>0.9079163428790429</v>
+        <v>0.9079163428790409</v>
       </c>
       <c r="M16">
-        <v>0.8899775153991507</v>
+        <v>0.8899775153991485</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8738851699491892</v>
+        <v>0.8738851699491883</v>
       </c>
       <c r="D17">
-        <v>0.8939594241254964</v>
+        <v>0.8939594241254957</v>
       </c>
       <c r="E17">
-        <v>0.8984987486964597</v>
+        <v>0.8984987486964594</v>
       </c>
       <c r="F17">
-        <v>0.8813616641867626</v>
+        <v>0.8813616641867617</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.020430485358877</v>
       </c>
       <c r="J17">
-        <v>0.9072303905625977</v>
+        <v>0.907230390562597</v>
       </c>
       <c r="K17">
-        <v>0.910122777934211</v>
+        <v>0.9101227779342104</v>
       </c>
       <c r="L17">
-        <v>0.9145558810009757</v>
+        <v>0.9145558810009755</v>
       </c>
       <c r="M17">
-        <v>0.8978275261155831</v>
+        <v>0.8978275261155823</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8786438031968208</v>
+        <v>0.878643803196819</v>
       </c>
       <c r="D18">
-        <v>0.8981668823099832</v>
+        <v>0.8981668823099814</v>
       </c>
       <c r="E18">
-        <v>0.90252526082744</v>
+        <v>0.9025252608274383</v>
       </c>
       <c r="F18">
-        <v>0.8860941929301457</v>
+        <v>0.8860941929301442</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021521959184523</v>
       </c>
       <c r="J18">
-        <v>0.9112298178452777</v>
+        <v>0.911229817845276</v>
       </c>
       <c r="K18">
-        <v>0.9140099614827101</v>
+        <v>0.9140099614827084</v>
       </c>
       <c r="L18">
-        <v>0.9182692102244777</v>
+        <v>0.9182692102244758</v>
       </c>
       <c r="M18">
-        <v>0.9022186923922146</v>
+        <v>0.9022186923922132</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8802342490625048</v>
+        <v>0.8802342490625061</v>
       </c>
       <c r="D19">
-        <v>0.8995736985414079</v>
+        <v>0.8995736985414089</v>
       </c>
       <c r="E19">
-        <v>0.903871738143329</v>
+        <v>0.90387173814333</v>
       </c>
       <c r="F19">
-        <v>0.887676577417859</v>
+        <v>0.8876765774178599</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02188632858162</v>
       </c>
       <c r="J19">
-        <v>0.9125664196612472</v>
+        <v>0.9125664196612483</v>
       </c>
       <c r="K19">
-        <v>0.9153092242487392</v>
+        <v>0.9153092242487404</v>
       </c>
       <c r="L19">
-        <v>0.919510443433912</v>
+        <v>0.9195104434339131</v>
       </c>
       <c r="M19">
-        <v>0.9036866575475507</v>
+        <v>0.9036866575475515</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.872993981422828</v>
+        <v>0.8729939814228286</v>
       </c>
       <c r="D20">
-        <v>0.8931717537387832</v>
+        <v>0.8931717537387834</v>
       </c>
       <c r="E20">
-        <v>0.8977450337953691</v>
+        <v>0.8977450337953695</v>
       </c>
       <c r="F20">
-        <v>0.880475693036305</v>
+        <v>0.8804756930363054</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.020225885099727</v>
       </c>
       <c r="J20">
-        <v>0.9064813431988475</v>
+        <v>0.906481343198848</v>
       </c>
       <c r="K20">
-        <v>0.9093948371656956</v>
+        <v>0.9093948371656958</v>
       </c>
       <c r="L20">
-        <v>0.9138605370066326</v>
+        <v>0.9138605370066329</v>
       </c>
       <c r="M20">
-        <v>0.8970053255576024</v>
+        <v>0.8970053255576025</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8467798098276943</v>
+        <v>0.8467798098276911</v>
       </c>
       <c r="D21">
-        <v>0.8700460870875394</v>
+        <v>0.8700460870875364</v>
       </c>
       <c r="E21">
-        <v>0.8756276226308629</v>
+        <v>0.8756276226308598</v>
       </c>
       <c r="F21">
-        <v>0.8544602132135877</v>
+        <v>0.8544602132135847</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.014193281403843</v>
       </c>
       <c r="J21">
-        <v>0.8844472449970632</v>
+        <v>0.8844472449970601</v>
       </c>
       <c r="K21">
-        <v>0.8879927222368447</v>
+        <v>0.8879927222368419</v>
       </c>
       <c r="L21">
-        <v>0.8934222429069151</v>
+        <v>0.8934222429069121</v>
       </c>
       <c r="M21">
-        <v>0.8728457577455699</v>
+        <v>0.8728457577455669</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.827494968279988</v>
+        <v>0.8274949682799868</v>
       </c>
       <c r="D22">
-        <v>0.8530908223436673</v>
+        <v>0.8530908223436663</v>
       </c>
       <c r="E22">
-        <v>0.8594255458668706</v>
+        <v>0.8594255458668695</v>
       </c>
       <c r="F22">
-        <v>0.8353758765292254</v>
+        <v>0.8353758765292244</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.009758309367814</v>
       </c>
       <c r="J22">
-        <v>0.8682447587261372</v>
+        <v>0.8682447587261359</v>
       </c>
       <c r="K22">
-        <v>0.8722673440133617</v>
+        <v>0.8722673440133605</v>
       </c>
       <c r="L22">
-        <v>0.87841155912048</v>
+        <v>0.8784115591204791</v>
       </c>
       <c r="M22">
-        <v>0.8551064443029717</v>
+        <v>0.8551064443029706</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8380490993629593</v>
+        <v>0.8380490993629606</v>
       </c>
       <c r="D23">
-        <v>0.8623636853113207</v>
+        <v>0.862363685311322</v>
       </c>
       <c r="E23">
-        <v>0.8682850196996361</v>
+        <v>0.8682850196996375</v>
       </c>
       <c r="F23">
-        <v>0.8458146615394473</v>
+        <v>0.845814661539449</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.012183609529884</v>
       </c>
       <c r="J23">
-        <v>0.877110578294797</v>
+        <v>0.8771105782947983</v>
       </c>
       <c r="K23">
-        <v>0.8808708907220867</v>
+        <v>0.8808708907220877</v>
       </c>
       <c r="L23">
-        <v>0.8866234162520512</v>
+        <v>0.8866234162520525</v>
       </c>
       <c r="M23">
-        <v>0.8648109435620112</v>
+        <v>0.8648109435620126</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8733972986390478</v>
+        <v>0.8733972986390512</v>
       </c>
       <c r="D24">
-        <v>0.8935282110641249</v>
+        <v>0.8935282110641282</v>
       </c>
       <c r="E24">
-        <v>0.8980861215329656</v>
+        <v>0.8980861215329686</v>
       </c>
       <c r="F24">
-        <v>0.8808766362911051</v>
+        <v>0.880876636291109</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020318486063558</v>
+        <v>1.020318486063559</v>
       </c>
       <c r="J24">
-        <v>0.9068203342583302</v>
+        <v>0.9068203342583335</v>
       </c>
       <c r="K24">
-        <v>0.9097242728967114</v>
+        <v>0.9097242728967146</v>
       </c>
       <c r="L24">
-        <v>0.9141752192517997</v>
+        <v>0.9141752192518028</v>
       </c>
       <c r="M24">
-        <v>0.8973774148234172</v>
+        <v>0.8973774148234208</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1298,7 +1298,7 @@
         <v>0.9063646352869646</v>
       </c>
       <c r="D25">
-        <v>0.9227273758788971</v>
+        <v>0.9227273758788969</v>
       </c>
       <c r="E25">
         <v>0.9260441743872849</v>
@@ -1313,16 +1313,16 @@
         <v>1.027827042617892</v>
       </c>
       <c r="J25">
-        <v>0.9345135943784859</v>
+        <v>0.9345135943784857</v>
       </c>
       <c r="K25">
-        <v>0.9366566981224838</v>
+        <v>0.9366566981224835</v>
       </c>
       <c r="L25">
         <v>0.9399104010398156</v>
       </c>
       <c r="M25">
-        <v>0.9278274108586059</v>
+        <v>0.927827410858606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9286673865446273</v>
+        <v>0.9286673865446262</v>
       </c>
       <c r="D2">
-        <v>0.9425457317454371</v>
+        <v>0.942545731745436</v>
       </c>
       <c r="E2">
-        <v>0.9450408183512379</v>
+        <v>0.9450408183512369</v>
       </c>
       <c r="F2">
-        <v>0.936034008550067</v>
+        <v>0.9360340085500658</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.032789463822575</v>
       </c>
       <c r="J2">
-        <v>0.9532131604487668</v>
+        <v>0.9532131604487657</v>
       </c>
       <c r="K2">
-        <v>0.9548680979418348</v>
+        <v>0.9548680979418336</v>
       </c>
       <c r="L2">
-        <v>0.95732290983403</v>
+        <v>0.9573229098340289</v>
       </c>
       <c r="M2">
-        <v>0.948462785617971</v>
+        <v>0.9484627856179698</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9432232216668052</v>
+        <v>0.9432232216668057</v>
       </c>
       <c r="D3">
-        <v>0.9555059629251933</v>
+        <v>0.955505962925194</v>
       </c>
       <c r="E3">
-        <v>0.9574732267931767</v>
+        <v>0.9574732267931769</v>
       </c>
       <c r="F3">
-        <v>0.9506378920364426</v>
+        <v>0.950637892036443</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03594459058356</v>
       </c>
       <c r="J3">
-        <v>0.9653911752870091</v>
+        <v>0.9653911752870098</v>
       </c>
       <c r="K3">
-        <v>0.9667416919222347</v>
+        <v>0.9667416919222354</v>
       </c>
       <c r="L3">
-        <v>0.9686808038278761</v>
+        <v>0.9686808038278765</v>
       </c>
       <c r="M3">
-        <v>0.9619439192771096</v>
+        <v>0.9619439192771102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9520307558887063</v>
+        <v>0.9520307558887081</v>
       </c>
       <c r="D4">
-        <v>0.9633573981724413</v>
+        <v>0.9633573981724433</v>
       </c>
       <c r="E4">
-        <v>0.9650087712219304</v>
+        <v>0.9650087712219318</v>
       </c>
       <c r="F4">
-        <v>0.9594926474133694</v>
+        <v>0.9594926474133715</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.037811284563401</v>
       </c>
       <c r="J4">
-        <v>0.9727465471897052</v>
+        <v>0.9727465471897071</v>
       </c>
       <c r="K4">
-        <v>0.9739191547458715</v>
+        <v>0.9739191547458735</v>
       </c>
       <c r="L4">
-        <v>0.9755486976493303</v>
+        <v>0.9755486976493316</v>
       </c>
       <c r="M4">
-        <v>0.9701058625525872</v>
+        <v>0.9701058625525891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9556041138948512</v>
+        <v>0.955604113894851</v>
       </c>
       <c r="D5">
-        <v>0.9665448057530401</v>
+        <v>0.9665448057530402</v>
       </c>
       <c r="E5">
-        <v>0.9680688051578167</v>
+        <v>0.9680688051578163</v>
       </c>
       <c r="F5">
-        <v>0.9630893162757134</v>
+        <v>0.9630893162757128</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.038557950785415</v>
       </c>
       <c r="J5">
-        <v>0.9757273740155988</v>
+        <v>0.9757273740155986</v>
       </c>
       <c r="K5">
         <v>0.976829283652092</v>
       </c>
       <c r="L5">
-        <v>0.9783338058223202</v>
+        <v>0.9783338058223199</v>
       </c>
       <c r="M5">
-        <v>0.9734182421641623</v>
+        <v>0.9734182421641618</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9561969430898467</v>
+        <v>0.9561969430898464</v>
       </c>
       <c r="D6">
-        <v>0.9670737122843555</v>
+        <v>0.967073712284355</v>
       </c>
       <c r="E6">
-        <v>0.9685766252730842</v>
+        <v>0.968576625273084</v>
       </c>
       <c r="F6">
-        <v>0.9636862522653141</v>
+        <v>0.9636862522653143</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.038681181817318</v>
       </c>
       <c r="J6">
-        <v>0.9762216984216433</v>
+        <v>0.976221698421643</v>
       </c>
       <c r="K6">
-        <v>0.9773119657650375</v>
+        <v>0.9773119657650372</v>
       </c>
       <c r="L6">
-        <v>0.9787957801960588</v>
+        <v>0.9787957801960586</v>
       </c>
       <c r="M6">
         <v>0.9739678256480909</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9520789915500328</v>
+        <v>0.952078991550032</v>
       </c>
       <c r="D7">
-        <v>0.9634004165724609</v>
+        <v>0.96340041657246</v>
       </c>
       <c r="E7">
-        <v>0.9650500671598384</v>
+        <v>0.9650500671598378</v>
       </c>
       <c r="F7">
-        <v>0.9595411814289408</v>
+        <v>0.9595411814289397</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.037821406783117</v>
       </c>
       <c r="J7">
-        <v>0.9727867980597269</v>
+        <v>0.9727867980597261</v>
       </c>
       <c r="K7">
-        <v>0.9739584454078971</v>
+        <v>0.9739584454078962</v>
       </c>
       <c r="L7">
-        <v>0.975586298417751</v>
+        <v>0.9755862984177501</v>
       </c>
       <c r="M7">
-        <v>0.9701505717805681</v>
+        <v>0.9701505717805672</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9337245198521508</v>
+        <v>0.9337245198521499</v>
       </c>
       <c r="D8">
-        <v>0.9470462676112643</v>
+        <v>0.9470462676112635</v>
       </c>
       <c r="E8">
-        <v>0.9493571841612062</v>
+        <v>0.9493571841612055</v>
       </c>
       <c r="F8">
-        <v>0.9411037659747218</v>
+        <v>0.9411037659747207</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033894493353392</v>
       </c>
       <c r="J8">
-        <v>0.9574469542350789</v>
+        <v>0.9574469542350781</v>
       </c>
       <c r="K8">
-        <v>0.958994745916515</v>
+        <v>0.9589947459165142</v>
       </c>
       <c r="L8">
-        <v>0.9612698406447553</v>
+        <v>0.9612698406447545</v>
       </c>
       <c r="M8">
-        <v>0.9531453940057024</v>
+        <v>0.9531453940057014</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8956823442191051</v>
+        <v>0.8956823442191056</v>
       </c>
       <c r="D9">
-        <v>0.9132530198270314</v>
+        <v>0.913253019827032</v>
       </c>
       <c r="E9">
-        <v>0.916968623035525</v>
+        <v>0.9169686230355251</v>
       </c>
       <c r="F9">
-        <v>0.9030640507276827</v>
+        <v>0.9030640507276828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025410755510894</v>
+        <v>1.025410755510895</v>
       </c>
       <c r="J9">
-        <v>0.9255449924166305</v>
+        <v>0.9255449924166309</v>
       </c>
       <c r="K9">
-        <v>0.9279299730101215</v>
+        <v>0.9279299730101219</v>
       </c>
       <c r="L9">
-        <v>0.9315696369580511</v>
+        <v>0.9315696369580513</v>
       </c>
       <c r="M9">
-        <v>0.9179534909852651</v>
+        <v>0.9179534909852655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.8643820491741283</v>
       </c>
       <c r="D10">
-        <v>0.8855650518310685</v>
+        <v>0.8855650518310687</v>
       </c>
       <c r="E10">
-        <v>0.890467557652022</v>
+        <v>0.8904675576520221</v>
       </c>
       <c r="F10">
-        <v>0.871919454366657</v>
+        <v>0.8719194543666569</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.018246315791575</v>
       </c>
       <c r="J10">
-        <v>0.8992425609985281</v>
+        <v>0.8992425609985278</v>
       </c>
       <c r="K10">
         <v>0.9023613593719484</v>
       </c>
       <c r="L10">
-        <v>0.9071426503198227</v>
+        <v>0.9071426503198228</v>
       </c>
       <c r="M10">
-        <v>0.8890628786871514</v>
+        <v>0.8890628786871515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8485845888601473</v>
+        <v>0.8485845888601443</v>
       </c>
       <c r="D11">
-        <v>0.8716354331144125</v>
+        <v>0.8716354331144098</v>
       </c>
       <c r="E11">
-        <v>0.8771469733729816</v>
+        <v>0.8771469733729792</v>
       </c>
       <c r="F11">
-        <v>0.8562485562036557</v>
+        <v>0.8562485562036533</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.014608911615397</v>
       </c>
       <c r="J11">
-        <v>0.8859640635832733</v>
+        <v>0.8859640635832706</v>
       </c>
       <c r="K11">
-        <v>0.8894653847276197</v>
+        <v>0.889465384727617</v>
       </c>
       <c r="L11">
-        <v>0.89482825406434</v>
+        <v>0.8948282540643379</v>
       </c>
       <c r="M11">
-        <v>0.8745074388466171</v>
+        <v>0.8745074388466145</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8422549645803268</v>
+        <v>0.8422549645803284</v>
       </c>
       <c r="D12">
-        <v>0.8660632641034126</v>
+        <v>0.8660632641034144</v>
       </c>
       <c r="E12">
-        <v>0.8718206600913</v>
+        <v>0.8718206600913012</v>
       </c>
       <c r="F12">
-        <v>0.8499783374653184</v>
+        <v>0.8499783374653199</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.013151478159056</v>
       </c>
       <c r="J12">
-        <v>0.8806446521782003</v>
+        <v>0.8806446521782019</v>
       </c>
       <c r="K12">
-        <v>0.8843012217754554</v>
+        <v>0.8843012217754572</v>
       </c>
       <c r="L12">
-        <v>0.8898980277413215</v>
+        <v>0.889898027741323</v>
       </c>
       <c r="M12">
-        <v>0.86868080869416</v>
+        <v>0.8686808086941615</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8436364268594766</v>
+        <v>0.8436364268594742</v>
       </c>
       <c r="D13">
-        <v>0.8672789535573414</v>
+        <v>0.8672789535573392</v>
       </c>
       <c r="E13">
-        <v>0.8729826019927196</v>
+        <v>0.872982601992717</v>
       </c>
       <c r="F13">
-        <v>0.851346414341835</v>
+        <v>0.8513464143418322</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013469499968994</v>
+        <v>1.013469499968993</v>
       </c>
       <c r="J13">
-        <v>0.8818055576424948</v>
+        <v>0.8818055576424922</v>
       </c>
       <c r="K13">
-        <v>0.8854281522352636</v>
+        <v>0.8854281522352612</v>
       </c>
       <c r="L13">
-        <v>0.890973857865283</v>
+        <v>0.8909738578652806</v>
       </c>
       <c r="M13">
-        <v>0.869952219850845</v>
+        <v>0.8699522198508424</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8480717900142561</v>
+        <v>0.848071790014256</v>
       </c>
       <c r="D14">
-        <v>0.8711838024973422</v>
+        <v>0.8711838024973421</v>
       </c>
       <c r="E14">
-        <v>0.8767152221633475</v>
+        <v>0.8767152221633469</v>
       </c>
       <c r="F14">
-        <v>0.8557403865272423</v>
+        <v>0.8557403865272418</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.014490813222349</v>
       </c>
       <c r="J14">
-        <v>0.885533078045462</v>
+        <v>0.8855330780454617</v>
       </c>
       <c r="K14">
-        <v>0.8890469363513617</v>
+        <v>0.8890469363513613</v>
       </c>
       <c r="L14">
-        <v>0.8944287393646075</v>
+        <v>0.894428739364607</v>
       </c>
       <c r="M14">
-        <v>0.8740352731311291</v>
+        <v>0.8740352731311288</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8507384040601563</v>
+        <v>0.850738404060158</v>
       </c>
       <c r="D15">
-        <v>0.8735327102569492</v>
+        <v>0.8735327102569508</v>
       </c>
       <c r="E15">
-        <v>0.8789608295433506</v>
+        <v>0.878960829543352</v>
       </c>
       <c r="F15">
-        <v>0.8583832833096244</v>
+        <v>0.8583832833096267</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015104960421918</v>
       </c>
       <c r="J15">
-        <v>0.8877743007600468</v>
+        <v>0.8877743007600485</v>
       </c>
       <c r="K15">
-        <v>0.8912230439066278</v>
+        <v>0.8912230439066294</v>
       </c>
       <c r="L15">
-        <v>0.8965064264815841</v>
+        <v>0.8965064264815854</v>
       </c>
       <c r="M15">
-        <v>0.8764908125443663</v>
+        <v>0.8764908125443682</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.865374069857562</v>
+        <v>0.8653740698575643</v>
       </c>
       <c r="D16">
-        <v>0.886440821522898</v>
+        <v>0.8864408215228997</v>
       </c>
       <c r="E16">
-        <v>0.8913053022896792</v>
+        <v>0.891305302289681</v>
       </c>
       <c r="F16">
-        <v>0.8729045756467438</v>
+        <v>0.8729045756467462</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.018474533534055</v>
       </c>
       <c r="J16">
-        <v>0.9000764314770907</v>
+        <v>0.9000764314770925</v>
       </c>
       <c r="K16">
-        <v>0.9031714593285746</v>
+        <v>0.9031714593285767</v>
       </c>
       <c r="L16">
-        <v>0.9079163428790409</v>
+        <v>0.9079163428790429</v>
       </c>
       <c r="M16">
-        <v>0.8899775153991485</v>
+        <v>0.8899775153991507</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8738851699491883</v>
+        <v>0.8738851699491892</v>
       </c>
       <c r="D17">
-        <v>0.8939594241254957</v>
+        <v>0.8939594241254964</v>
       </c>
       <c r="E17">
-        <v>0.8984987486964594</v>
+        <v>0.8984987486964597</v>
       </c>
       <c r="F17">
-        <v>0.8813616641867617</v>
+        <v>0.8813616641867626</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.020430485358877</v>
       </c>
       <c r="J17">
-        <v>0.907230390562597</v>
+        <v>0.9072303905625977</v>
       </c>
       <c r="K17">
-        <v>0.9101227779342104</v>
+        <v>0.910122777934211</v>
       </c>
       <c r="L17">
-        <v>0.9145558810009755</v>
+        <v>0.9145558810009757</v>
       </c>
       <c r="M17">
-        <v>0.8978275261155823</v>
+        <v>0.8978275261155831</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.878643803196819</v>
+        <v>0.8786438031968208</v>
       </c>
       <c r="D18">
-        <v>0.8981668823099814</v>
+        <v>0.8981668823099832</v>
       </c>
       <c r="E18">
-        <v>0.9025252608274383</v>
+        <v>0.90252526082744</v>
       </c>
       <c r="F18">
-        <v>0.8860941929301442</v>
+        <v>0.8860941929301457</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021521959184523</v>
       </c>
       <c r="J18">
-        <v>0.911229817845276</v>
+        <v>0.9112298178452777</v>
       </c>
       <c r="K18">
-        <v>0.9140099614827084</v>
+        <v>0.9140099614827101</v>
       </c>
       <c r="L18">
-        <v>0.9182692102244758</v>
+        <v>0.9182692102244777</v>
       </c>
       <c r="M18">
-        <v>0.9022186923922132</v>
+        <v>0.9022186923922146</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8802342490625061</v>
+        <v>0.8802342490625048</v>
       </c>
       <c r="D19">
-        <v>0.8995736985414089</v>
+        <v>0.8995736985414079</v>
       </c>
       <c r="E19">
-        <v>0.90387173814333</v>
+        <v>0.903871738143329</v>
       </c>
       <c r="F19">
-        <v>0.8876765774178599</v>
+        <v>0.887676577417859</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02188632858162</v>
       </c>
       <c r="J19">
-        <v>0.9125664196612483</v>
+        <v>0.9125664196612472</v>
       </c>
       <c r="K19">
-        <v>0.9153092242487404</v>
+        <v>0.9153092242487392</v>
       </c>
       <c r="L19">
-        <v>0.9195104434339131</v>
+        <v>0.919510443433912</v>
       </c>
       <c r="M19">
-        <v>0.9036866575475515</v>
+        <v>0.9036866575475507</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8729939814228286</v>
+        <v>0.872993981422828</v>
       </c>
       <c r="D20">
-        <v>0.8931717537387834</v>
+        <v>0.8931717537387832</v>
       </c>
       <c r="E20">
-        <v>0.8977450337953695</v>
+        <v>0.8977450337953691</v>
       </c>
       <c r="F20">
-        <v>0.8804756930363054</v>
+        <v>0.880475693036305</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.020225885099727</v>
       </c>
       <c r="J20">
-        <v>0.906481343198848</v>
+        <v>0.9064813431988475</v>
       </c>
       <c r="K20">
-        <v>0.9093948371656958</v>
+        <v>0.9093948371656956</v>
       </c>
       <c r="L20">
-        <v>0.9138605370066329</v>
+        <v>0.9138605370066326</v>
       </c>
       <c r="M20">
-        <v>0.8970053255576025</v>
+        <v>0.8970053255576024</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8467798098276911</v>
+        <v>0.8467798098276943</v>
       </c>
       <c r="D21">
-        <v>0.8700460870875364</v>
+        <v>0.8700460870875394</v>
       </c>
       <c r="E21">
-        <v>0.8756276226308598</v>
+        <v>0.8756276226308629</v>
       </c>
       <c r="F21">
-        <v>0.8544602132135847</v>
+        <v>0.8544602132135877</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.014193281403843</v>
       </c>
       <c r="J21">
-        <v>0.8844472449970601</v>
+        <v>0.8844472449970632</v>
       </c>
       <c r="K21">
-        <v>0.8879927222368419</v>
+        <v>0.8879927222368447</v>
       </c>
       <c r="L21">
-        <v>0.8934222429069121</v>
+        <v>0.8934222429069151</v>
       </c>
       <c r="M21">
-        <v>0.8728457577455669</v>
+        <v>0.8728457577455699</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8274949682799868</v>
+        <v>0.827494968279988</v>
       </c>
       <c r="D22">
-        <v>0.8530908223436663</v>
+        <v>0.8530908223436673</v>
       </c>
       <c r="E22">
-        <v>0.8594255458668695</v>
+        <v>0.8594255458668706</v>
       </c>
       <c r="F22">
-        <v>0.8353758765292244</v>
+        <v>0.8353758765292254</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.009758309367814</v>
       </c>
       <c r="J22">
-        <v>0.8682447587261359</v>
+        <v>0.8682447587261372</v>
       </c>
       <c r="K22">
-        <v>0.8722673440133605</v>
+        <v>0.8722673440133617</v>
       </c>
       <c r="L22">
-        <v>0.8784115591204791</v>
+        <v>0.87841155912048</v>
       </c>
       <c r="M22">
-        <v>0.8551064443029706</v>
+        <v>0.8551064443029717</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8380490993629606</v>
+        <v>0.8380490993629593</v>
       </c>
       <c r="D23">
-        <v>0.862363685311322</v>
+        <v>0.8623636853113207</v>
       </c>
       <c r="E23">
-        <v>0.8682850196996375</v>
+        <v>0.8682850196996361</v>
       </c>
       <c r="F23">
-        <v>0.845814661539449</v>
+        <v>0.8458146615394473</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.012183609529884</v>
       </c>
       <c r="J23">
-        <v>0.8771105782947983</v>
+        <v>0.877110578294797</v>
       </c>
       <c r="K23">
-        <v>0.8808708907220877</v>
+        <v>0.8808708907220867</v>
       </c>
       <c r="L23">
-        <v>0.8866234162520525</v>
+        <v>0.8866234162520512</v>
       </c>
       <c r="M23">
-        <v>0.8648109435620126</v>
+        <v>0.8648109435620112</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8733972986390512</v>
+        <v>0.8733972986390478</v>
       </c>
       <c r="D24">
-        <v>0.8935282110641282</v>
+        <v>0.8935282110641249</v>
       </c>
       <c r="E24">
-        <v>0.8980861215329686</v>
+        <v>0.8980861215329656</v>
       </c>
       <c r="F24">
-        <v>0.880876636291109</v>
+        <v>0.8808766362911051</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020318486063559</v>
+        <v>1.020318486063558</v>
       </c>
       <c r="J24">
-        <v>0.9068203342583335</v>
+        <v>0.9068203342583302</v>
       </c>
       <c r="K24">
-        <v>0.9097242728967146</v>
+        <v>0.9097242728967114</v>
       </c>
       <c r="L24">
-        <v>0.9141752192518028</v>
+        <v>0.9141752192517997</v>
       </c>
       <c r="M24">
-        <v>0.8973774148234208</v>
+        <v>0.8973774148234172</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1298,7 +1298,7 @@
         <v>0.9063646352869646</v>
       </c>
       <c r="D25">
-        <v>0.9227273758788969</v>
+        <v>0.9227273758788971</v>
       </c>
       <c r="E25">
         <v>0.9260441743872849</v>
@@ -1313,16 +1313,16 @@
         <v>1.027827042617892</v>
       </c>
       <c r="J25">
-        <v>0.9345135943784857</v>
+        <v>0.9345135943784859</v>
       </c>
       <c r="K25">
-        <v>0.9366566981224835</v>
+        <v>0.9366566981224838</v>
       </c>
       <c r="L25">
         <v>0.9399104010398156</v>
       </c>
       <c r="M25">
-        <v>0.927827410858606</v>
+        <v>0.9278274108586059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9286673865446262</v>
+        <v>0.9287241048119236</v>
       </c>
       <c r="D2">
-        <v>0.942545731745436</v>
+        <v>0.9425982764668371</v>
       </c>
       <c r="E2">
-        <v>0.9450408183512369</v>
+        <v>0.9450906375647996</v>
       </c>
       <c r="F2">
-        <v>0.9360340085500658</v>
+        <v>0.936088750583979</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032789463822575</v>
+        <v>1.032797870103443</v>
       </c>
       <c r="J2">
-        <v>0.9532131604487657</v>
+        <v>0.9532677948544553</v>
       </c>
       <c r="K2">
-        <v>0.9548680979418336</v>
+        <v>0.954919791685041</v>
       </c>
       <c r="L2">
-        <v>0.9573229098340289</v>
+        <v>0.9573719276634193</v>
       </c>
       <c r="M2">
-        <v>0.9484627856179698</v>
+        <v>0.9485166251501183</v>
+      </c>
+      <c r="N2">
+        <v>0.9709101469497735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9432232216668057</v>
+        <v>0.9432674661138588</v>
       </c>
       <c r="D3">
-        <v>0.955505962925194</v>
+        <v>0.9555470628664866</v>
       </c>
       <c r="E3">
-        <v>0.9574732267931769</v>
+        <v>0.9575122054110763</v>
       </c>
       <c r="F3">
-        <v>0.950637892036443</v>
+        <v>0.9506805869408147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03594459058356</v>
+        <v>1.035951092394256</v>
       </c>
       <c r="J3">
-        <v>0.9653911752870098</v>
+        <v>0.9654340035856094</v>
       </c>
       <c r="K3">
-        <v>0.9667416919222354</v>
+        <v>0.9667822022135315</v>
       </c>
       <c r="L3">
-        <v>0.9686808038278765</v>
+        <v>0.9687192261324732</v>
       </c>
       <c r="M3">
-        <v>0.9619439192771102</v>
+        <v>0.9619859936699842</v>
+      </c>
+      <c r="N3">
+        <v>0.979132545195493</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9520307558887081</v>
+        <v>0.9520678580051591</v>
       </c>
       <c r="D4">
-        <v>0.9633573981724433</v>
+        <v>0.9633919222383762</v>
       </c>
       <c r="E4">
-        <v>0.9650087712219318</v>
+        <v>0.9650415227740526</v>
       </c>
       <c r="F4">
-        <v>0.9594926474133715</v>
+        <v>0.9595284498015234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037811284563401</v>
+        <v>1.037816711022728</v>
       </c>
       <c r="J4">
-        <v>0.9727465471897071</v>
+        <v>0.9727825642791308</v>
       </c>
       <c r="K4">
-        <v>0.9739191547458735</v>
+        <v>0.9739532214636613</v>
       </c>
       <c r="L4">
-        <v>0.9755486976493316</v>
+        <v>0.9755810171934388</v>
       </c>
       <c r="M4">
-        <v>0.9701058625525891</v>
+        <v>0.970141185847998</v>
+      </c>
+      <c r="N4">
+        <v>0.9840984489152208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.955604113894851</v>
+        <v>0.9556383968399847</v>
       </c>
       <c r="D5">
-        <v>0.9665448057530402</v>
+        <v>0.9665767296861847</v>
       </c>
       <c r="E5">
-        <v>0.9680688051578163</v>
+        <v>0.968099094872658</v>
       </c>
       <c r="F5">
-        <v>0.9630893162757128</v>
+        <v>0.963122399344248</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038557950785415</v>
+        <v>1.038562955789518</v>
       </c>
       <c r="J5">
-        <v>0.9757273740155986</v>
+        <v>0.9757606920883263</v>
       </c>
       <c r="K5">
-        <v>0.976829283652092</v>
+        <v>0.9768607987992675</v>
       </c>
       <c r="L5">
-        <v>0.9783338058223199</v>
+        <v>0.9783637092006966</v>
       </c>
       <c r="M5">
-        <v>0.9734182421641618</v>
+        <v>0.9734508977930778</v>
+      </c>
+      <c r="N5">
+        <v>0.9861108109098006</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9561969430898464</v>
+        <v>0.9562307625033257</v>
       </c>
       <c r="D6">
-        <v>0.967073712284355</v>
+        <v>0.9671052084549548</v>
       </c>
       <c r="E6">
-        <v>0.968576625273084</v>
+        <v>0.9686065099985888</v>
       </c>
       <c r="F6">
-        <v>0.9636862522653143</v>
+        <v>0.9637188882914519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038681181817318</v>
+        <v>1.038686117685925</v>
       </c>
       <c r="J6">
-        <v>0.976221698421643</v>
+        <v>0.9762545721409334</v>
       </c>
       <c r="K6">
-        <v>0.9773119657650372</v>
+        <v>0.9773430609313529</v>
       </c>
       <c r="L6">
-        <v>0.9787957801960586</v>
+        <v>0.9788252859059521</v>
       </c>
       <c r="M6">
-        <v>0.9739678256480909</v>
+        <v>0.9740000424980325</v>
+      </c>
+      <c r="N6">
+        <v>0.9864445227596393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.952078991550032</v>
+        <v>0.9521160553193676</v>
       </c>
       <c r="D7">
-        <v>0.96340041657246</v>
+        <v>0.9634349052879275</v>
       </c>
       <c r="E7">
-        <v>0.9650500671598378</v>
+        <v>0.9650827852402322</v>
       </c>
       <c r="F7">
-        <v>0.9595411814289397</v>
+        <v>0.959576946823262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037821406783117</v>
+        <v>1.037826827498387</v>
       </c>
       <c r="J7">
-        <v>0.9727867980597261</v>
+        <v>0.9728227784767616</v>
       </c>
       <c r="K7">
-        <v>0.9739584454078962</v>
+        <v>0.9739924774498951</v>
       </c>
       <c r="L7">
-        <v>0.9755862984177501</v>
+        <v>0.9756185851244774</v>
       </c>
       <c r="M7">
-        <v>0.9701505717805672</v>
+        <v>0.9701858588007457</v>
+      </c>
+      <c r="N7">
+        <v>0.9841256228462105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9337245198521499</v>
+        <v>0.9337768029136126</v>
       </c>
       <c r="D8">
-        <v>0.9470462676112635</v>
+        <v>0.947094748799889</v>
       </c>
       <c r="E8">
-        <v>0.9493571841612055</v>
+        <v>0.9494031539727312</v>
       </c>
       <c r="F8">
-        <v>0.9411037659747207</v>
+        <v>0.9411542232348928</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033894493353392</v>
+        <v>1.033902218629303</v>
       </c>
       <c r="J8">
-        <v>0.9574469542350781</v>
+        <v>0.9574974036228363</v>
       </c>
       <c r="K8">
-        <v>0.9589947459165142</v>
+        <v>0.9590424732976995</v>
       </c>
       <c r="L8">
-        <v>0.9612698406447545</v>
+        <v>0.9613151001312402</v>
       </c>
       <c r="M8">
-        <v>0.9531453940057014</v>
+        <v>0.9531950540004457</v>
+      </c>
+      <c r="N8">
+        <v>0.9737687815068662</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8956823442191056</v>
+        <v>0.8957712029022591</v>
       </c>
       <c r="D9">
-        <v>0.913253019827032</v>
+        <v>0.9133348247421619</v>
       </c>
       <c r="E9">
-        <v>0.9169686230355251</v>
+        <v>0.9170461706140733</v>
       </c>
       <c r="F9">
-        <v>0.9030640507276828</v>
+        <v>0.9031498758951632</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025410755510895</v>
+        <v>1.025424219215884</v>
       </c>
       <c r="J9">
-        <v>0.9255449924166309</v>
+        <v>0.9256295601195654</v>
       </c>
       <c r="K9">
-        <v>0.9279299730101219</v>
+        <v>0.9280100972249492</v>
       </c>
       <c r="L9">
-        <v>0.9315696369580513</v>
+        <v>0.9316456082628292</v>
       </c>
       <c r="M9">
-        <v>0.9179534909852655</v>
+        <v>0.9180374997931156</v>
+      </c>
+      <c r="N9">
+        <v>0.9522294123074855</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8643820491741283</v>
+        <v>0.8645083495315172</v>
       </c>
       <c r="D10">
-        <v>0.8855650518310687</v>
+        <v>0.8856805563393375</v>
       </c>
       <c r="E10">
-        <v>0.8904675576520221</v>
+        <v>0.8905770553856726</v>
       </c>
       <c r="F10">
-        <v>0.8719194543666569</v>
+        <v>0.872041535927478</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018246315791575</v>
+        <v>1.018265912392661</v>
       </c>
       <c r="J10">
-        <v>0.8992425609985278</v>
+        <v>0.8993612306429514</v>
       </c>
       <c r="K10">
-        <v>0.9023613593719484</v>
+        <v>0.9024739872088393</v>
       </c>
       <c r="L10">
-        <v>0.9071426503198228</v>
+        <v>0.9072494612192729</v>
       </c>
       <c r="M10">
-        <v>0.8890628786871515</v>
+        <v>0.8891817894859919</v>
+      </c>
+      <c r="N10">
+        <v>0.9344758450540017</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8485845888601443</v>
+        <v>0.8487334474862074</v>
       </c>
       <c r="D11">
-        <v>0.8716354331144098</v>
+        <v>0.8717710629599221</v>
       </c>
       <c r="E11">
-        <v>0.8771469733729792</v>
+        <v>0.877275555979509</v>
       </c>
       <c r="F11">
-        <v>0.8562485562036533</v>
+        <v>0.8563924937744044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014608911615397</v>
+        <v>1.014632305891642</v>
       </c>
       <c r="J11">
-        <v>0.8859640635832706</v>
+        <v>0.886102946018874</v>
       </c>
       <c r="K11">
-        <v>0.889465384727617</v>
+        <v>0.8895973253110354</v>
       </c>
       <c r="L11">
-        <v>0.8948282540643379</v>
+        <v>0.8949533985187041</v>
       </c>
       <c r="M11">
-        <v>0.8745074388466145</v>
+        <v>0.874647266172603</v>
+      </c>
+      <c r="N11">
+        <v>0.925516704520815</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8422549645803284</v>
+        <v>0.8424137505386315</v>
       </c>
       <c r="D12">
-        <v>0.8660632641034144</v>
+        <v>0.866207712511212</v>
       </c>
       <c r="E12">
-        <v>0.8718206600913012</v>
+        <v>0.8719576059595846</v>
       </c>
       <c r="F12">
-        <v>0.8499783374653199</v>
+        <v>0.8501318946423809</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013151478159056</v>
+        <v>1.013176564151262</v>
       </c>
       <c r="J12">
-        <v>0.8806446521782019</v>
+        <v>0.8807923612538986</v>
       </c>
       <c r="K12">
-        <v>0.8843012217754572</v>
+        <v>0.8844416054302625</v>
       </c>
       <c r="L12">
-        <v>0.889898027741323</v>
+        <v>0.8900311890107497</v>
       </c>
       <c r="M12">
-        <v>0.8686808086941615</v>
+        <v>0.8688298170870489</v>
+      </c>
+      <c r="N12">
+        <v>0.9219285375986854</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8436364268594742</v>
+        <v>0.8437929979508385</v>
       </c>
       <c r="D13">
-        <v>0.8672789535573392</v>
+        <v>0.8674214363918816</v>
       </c>
       <c r="E13">
-        <v>0.872982601992717</v>
+        <v>0.8731176837445672</v>
       </c>
       <c r="F13">
-        <v>0.8513464143418322</v>
+        <v>0.8514978252643836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013469499968993</v>
+        <v>1.013494207527486</v>
       </c>
       <c r="J13">
-        <v>0.8818055576424922</v>
+        <v>0.8819513008234554</v>
       </c>
       <c r="K13">
-        <v>0.8854281522352612</v>
+        <v>0.8855666549594048</v>
       </c>
       <c r="L13">
-        <v>0.8909738578652806</v>
+        <v>0.8911052330765302</v>
       </c>
       <c r="M13">
-        <v>0.8699522198508424</v>
+        <v>0.8700991810707783</v>
+      </c>
+      <c r="N13">
+        <v>0.9227115688234471</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.848071790014256</v>
+        <v>0.8482214323666643</v>
       </c>
       <c r="D14">
-        <v>0.8711838024973421</v>
+        <v>0.8713201293500769</v>
       </c>
       <c r="E14">
-        <v>0.8767152221633469</v>
+        <v>0.8768444657795111</v>
       </c>
       <c r="F14">
-        <v>0.8557403865272418</v>
+        <v>0.8558850835098935</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014490813222349</v>
+        <v>1.014514340626621</v>
       </c>
       <c r="J14">
-        <v>0.8855330780454617</v>
+        <v>0.8856726587590573</v>
       </c>
       <c r="K14">
-        <v>0.8890469363513613</v>
+        <v>0.8891795446696289</v>
       </c>
       <c r="L14">
-        <v>0.894428739364607</v>
+        <v>0.8945545178048451</v>
       </c>
       <c r="M14">
-        <v>0.8740352731311288</v>
+        <v>0.8741758257763639</v>
+      </c>
+      <c r="N14">
+        <v>0.9252259659724157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.850738404060158</v>
+        <v>0.8508840087724122</v>
       </c>
       <c r="D15">
-        <v>0.8735327102569508</v>
+        <v>0.8736654447074943</v>
       </c>
       <c r="E15">
-        <v>0.878960829543352</v>
+        <v>0.8790866663131947</v>
       </c>
       <c r="F15">
-        <v>0.8583832833096267</v>
+        <v>0.8585240679626343</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015104960421918</v>
+        <v>1.015127802780941</v>
       </c>
       <c r="J15">
-        <v>0.8877743007600485</v>
+        <v>0.887910281321631</v>
       </c>
       <c r="K15">
-        <v>0.8912230439066294</v>
+        <v>0.8913522099228584</v>
       </c>
       <c r="L15">
-        <v>0.8965064264815854</v>
+        <v>0.896628936674346</v>
       </c>
       <c r="M15">
-        <v>0.8764908125443682</v>
+        <v>0.8766276275020478</v>
+      </c>
+      <c r="N15">
+        <v>0.9267379106206616</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8653740698575643</v>
+        <v>0.865499047608601</v>
       </c>
       <c r="D16">
-        <v>0.8864408215228997</v>
+        <v>0.8865551421293999</v>
       </c>
       <c r="E16">
-        <v>0.891305302289681</v>
+        <v>0.8914136774053758</v>
       </c>
       <c r="F16">
-        <v>0.8729045756467462</v>
+        <v>0.8730253759659033</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018474533534055</v>
+        <v>1.018493909661367</v>
       </c>
       <c r="J16">
-        <v>0.9000764314770925</v>
+        <v>0.9001939088275914</v>
       </c>
       <c r="K16">
-        <v>0.9031714593285767</v>
+        <v>0.9032829489773506</v>
       </c>
       <c r="L16">
-        <v>0.9079163428790429</v>
+        <v>0.9080220734975908</v>
       </c>
       <c r="M16">
-        <v>0.8899775153991507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8900951973868417</v>
+      </c>
+      <c r="N16">
+        <v>0.9350385604918148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8738851699491892</v>
+        <v>0.8739992031839576</v>
       </c>
       <c r="D17">
-        <v>0.8939594241254964</v>
+        <v>0.8940639303238035</v>
       </c>
       <c r="E17">
-        <v>0.8984987486964597</v>
+        <v>0.8985978178549187</v>
       </c>
       <c r="F17">
-        <v>0.8813616641867626</v>
+        <v>0.8814718634107684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020430485358877</v>
+        <v>1.020448047212095</v>
       </c>
       <c r="J17">
-        <v>0.9072303905625977</v>
+        <v>0.9073379688116547</v>
       </c>
       <c r="K17">
-        <v>0.910122777934211</v>
+        <v>0.9102248224029565</v>
       </c>
       <c r="L17">
-        <v>0.9145558810009757</v>
+        <v>0.9146526479208813</v>
       </c>
       <c r="M17">
-        <v>0.8978275261155831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8979350286877459</v>
+      </c>
+      <c r="N17">
+        <v>0.9398666175002307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8786438031968208</v>
+        <v>0.8787520113672894</v>
       </c>
       <c r="D18">
-        <v>0.8981668823099832</v>
+        <v>0.8982661517287117</v>
       </c>
       <c r="E18">
-        <v>0.90252526082744</v>
+        <v>0.9026193648469278</v>
       </c>
       <c r="F18">
-        <v>0.8860941929301457</v>
+        <v>0.8861987508330624</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021521959184523</v>
+        <v>1.021538563121684</v>
       </c>
       <c r="J18">
-        <v>0.9112298178452777</v>
+        <v>0.9113321025833598</v>
       </c>
       <c r="K18">
-        <v>0.9140099614827101</v>
+        <v>0.9141069587546631</v>
       </c>
       <c r="L18">
-        <v>0.9182692102244777</v>
+        <v>0.918361187961418</v>
       </c>
       <c r="M18">
-        <v>0.9022186923922146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9023207688508573</v>
+      </c>
+      <c r="N18">
+        <v>0.9425660310975045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8802342490625048</v>
+        <v>0.8803405542294135</v>
       </c>
       <c r="D19">
-        <v>0.8995736985414079</v>
+        <v>0.8996712551044378</v>
       </c>
       <c r="E19">
-        <v>0.903871738143329</v>
+        <v>0.9039642182136427</v>
       </c>
       <c r="F19">
-        <v>0.887676577417859</v>
+        <v>0.8877792925129813</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02188632858162</v>
+        <v>1.021902620786792</v>
       </c>
       <c r="J19">
-        <v>0.9125664196612472</v>
+        <v>0.9126669711650234</v>
       </c>
       <c r="K19">
-        <v>0.9153092242487392</v>
+        <v>0.9154045695000427</v>
       </c>
       <c r="L19">
-        <v>0.919510443433912</v>
+        <v>0.91960085371763</v>
       </c>
       <c r="M19">
-        <v>0.9036866575475507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9037869600583159</v>
+      </c>
+      <c r="N19">
+        <v>0.9434682117008326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.872993981422828</v>
+        <v>0.8731091281816798</v>
       </c>
       <c r="D20">
-        <v>0.8931717537387832</v>
+        <v>0.8932772599454282</v>
       </c>
       <c r="E20">
-        <v>0.8977450337953691</v>
+        <v>0.8978450511187066</v>
       </c>
       <c r="F20">
-        <v>0.880475693036305</v>
+        <v>0.880586970742263</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020225885099727</v>
+        <v>1.020243630692699</v>
       </c>
       <c r="J20">
-        <v>0.9064813431988475</v>
+        <v>0.9065899313546735</v>
       </c>
       <c r="K20">
-        <v>0.9093948371656956</v>
+        <v>0.9094978448382467</v>
       </c>
       <c r="L20">
-        <v>0.9138605370066326</v>
+        <v>0.9139582179502</v>
       </c>
       <c r="M20">
-        <v>0.8970053255576024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8971138647269558</v>
+      </c>
+      <c r="N20">
+        <v>0.9393610695035873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8467798098276943</v>
+        <v>0.8469314424307991</v>
       </c>
       <c r="D21">
-        <v>0.8700460870875394</v>
+        <v>0.8701841833354225</v>
       </c>
       <c r="E21">
-        <v>0.8756276226308629</v>
+        <v>0.8757585442692809</v>
       </c>
       <c r="F21">
-        <v>0.8544602132135877</v>
+        <v>0.854606838718837</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014193281403843</v>
+        <v>1.01421714721802</v>
       </c>
       <c r="J21">
-        <v>0.8844472449970632</v>
+        <v>0.8845885978356285</v>
       </c>
       <c r="K21">
-        <v>0.8879927222368447</v>
+        <v>0.8881270253220193</v>
       </c>
       <c r="L21">
-        <v>0.8934222429069151</v>
+        <v>0.8935496304860326</v>
       </c>
       <c r="M21">
-        <v>0.8728457577455699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.872988151922351</v>
+      </c>
+      <c r="N21">
+        <v>0.9244934896115985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.827494968279988</v>
+        <v>0.8276793046417191</v>
       </c>
       <c r="D22">
-        <v>0.8530908223436673</v>
+        <v>0.8532578703386794</v>
       </c>
       <c r="E22">
-        <v>0.8594255458668706</v>
+        <v>0.8595839255757491</v>
       </c>
       <c r="F22">
-        <v>0.8353758765292254</v>
+        <v>0.8355541934069445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009758309367814</v>
+        <v>1.009787798608885</v>
       </c>
       <c r="J22">
-        <v>0.8682447587261372</v>
+        <v>0.868415015194568</v>
       </c>
       <c r="K22">
-        <v>0.8722673440133617</v>
+        <v>0.8724293182242973</v>
       </c>
       <c r="L22">
-        <v>0.87841155912048</v>
+        <v>0.8785652252180599</v>
       </c>
       <c r="M22">
-        <v>0.8551064443029717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8552790218623603</v>
+      </c>
+      <c r="N22">
+        <v>0.9135666720031104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8380490993629593</v>
+        <v>0.8382148037541959</v>
       </c>
       <c r="D23">
-        <v>0.8623636853113207</v>
+        <v>0.8625142665544566</v>
       </c>
       <c r="E23">
-        <v>0.8682850196996361</v>
+        <v>0.8684277819263043</v>
       </c>
       <c r="F23">
-        <v>0.8458146615394473</v>
+        <v>0.8459749229448446</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012183609529884</v>
+        <v>1.012209881138854</v>
       </c>
       <c r="J23">
-        <v>0.877110578294797</v>
+        <v>0.8772644159785637</v>
       </c>
       <c r="K23">
-        <v>0.8808708907220867</v>
+        <v>0.8810171397614029</v>
       </c>
       <c r="L23">
-        <v>0.8866234162520512</v>
+        <v>0.8867621473704319</v>
       </c>
       <c r="M23">
-        <v>0.8648109435620112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8649663422745839</v>
+      </c>
+      <c r="N23">
+        <v>0.9195449782826617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8733972986390478</v>
+        <v>0.8735119405547741</v>
       </c>
       <c r="D24">
-        <v>0.8935282110641249</v>
+        <v>0.8936332639344856</v>
       </c>
       <c r="E24">
-        <v>0.8980861215329656</v>
+        <v>0.8981857090212506</v>
       </c>
       <c r="F24">
-        <v>0.8808766362911051</v>
+        <v>0.8809874250380306</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020318486063558</v>
+        <v>1.020336148329226</v>
       </c>
       <c r="J24">
-        <v>0.9068203342583302</v>
+        <v>0.9069284646271664</v>
       </c>
       <c r="K24">
-        <v>0.9097242728967114</v>
+        <v>0.9098268439412187</v>
       </c>
       <c r="L24">
-        <v>0.9141752192517997</v>
+        <v>0.9142724858587763</v>
       </c>
       <c r="M24">
-        <v>0.8973774148234172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8974854840524427</v>
+      </c>
+      <c r="N24">
+        <v>0.9395898609079552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9063646352869646</v>
+        <v>0.9064424052933876</v>
       </c>
       <c r="D25">
-        <v>0.9227273758788971</v>
+        <v>0.9227991222615604</v>
       </c>
       <c r="E25">
-        <v>0.9260441743872849</v>
+        <v>0.9261121882847577</v>
       </c>
       <c r="F25">
-        <v>0.9137237816641023</v>
+        <v>0.9137988773546586</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027827042617892</v>
+        <v>1.027838737920925</v>
       </c>
       <c r="J25">
-        <v>0.9345135943784859</v>
+        <v>0.9345879099360244</v>
       </c>
       <c r="K25">
-        <v>0.9366566981224838</v>
+        <v>0.9367270733904309</v>
       </c>
       <c r="L25">
-        <v>0.9399104010398156</v>
+        <v>0.9399771272873052</v>
       </c>
       <c r="M25">
-        <v>0.9278274108586059</v>
+        <v>0.927901034075324</v>
+      </c>
+      <c r="N25">
+        <v>0.9582844310180523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9287241048119236</v>
+        <v>1.003404343314183</v>
       </c>
       <c r="D2">
-        <v>0.9425982764668371</v>
+        <v>1.01820580142794</v>
       </c>
       <c r="E2">
-        <v>0.9450906375647996</v>
+        <v>1.015586831344101</v>
       </c>
       <c r="F2">
-        <v>0.936088750583979</v>
+        <v>1.024503997719044</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032797870103443</v>
+        <v>1.043883261652296</v>
       </c>
       <c r="J2">
-        <v>0.9532677948544553</v>
+        <v>1.025483705661544</v>
       </c>
       <c r="K2">
-        <v>0.954919791685041</v>
+        <v>1.029417195937347</v>
       </c>
       <c r="L2">
-        <v>0.9573719276634193</v>
+        <v>1.026833205145048</v>
       </c>
       <c r="M2">
-        <v>0.9485166251501183</v>
+        <v>1.035632190429391</v>
       </c>
       <c r="N2">
-        <v>0.9709101469497735</v>
+        <v>1.026940010148209</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9432674661138588</v>
+        <v>1.022249102142301</v>
       </c>
       <c r="D3">
-        <v>0.9555470628664866</v>
+        <v>1.03614996570805</v>
       </c>
       <c r="E3">
-        <v>0.9575122054110763</v>
+        <v>1.032321888621905</v>
       </c>
       <c r="F3">
-        <v>0.9506805869408147</v>
+        <v>1.041888215971768</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035951092394256</v>
+        <v>1.046859438474248</v>
       </c>
       <c r="J3">
-        <v>0.9654340035856094</v>
+        <v>1.04215107801027</v>
       </c>
       <c r="K3">
-        <v>0.9667822022135315</v>
+        <v>1.046340286622104</v>
       </c>
       <c r="L3">
-        <v>0.9687192261324732</v>
+        <v>1.042557256030925</v>
       </c>
       <c r="M3">
-        <v>0.9619859936699842</v>
+        <v>1.052011778732576</v>
       </c>
       <c r="N3">
-        <v>0.979132545195493</v>
+        <v>1.043631052077444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9520678580051591</v>
+        <v>1.033627503997626</v>
       </c>
       <c r="D4">
-        <v>0.9633919222383762</v>
+        <v>1.046992579835314</v>
       </c>
       <c r="E4">
-        <v>0.9650415227740526</v>
+        <v>1.042433158592784</v>
       </c>
       <c r="F4">
-        <v>0.9595284498015234</v>
+        <v>1.052392271337662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037816711022728</v>
+        <v>1.048636964784629</v>
       </c>
       <c r="J4">
-        <v>0.9727825642791308</v>
+        <v>1.052208448789543</v>
       </c>
       <c r="K4">
-        <v>0.9739532214636613</v>
+        <v>1.056555092009059</v>
       </c>
       <c r="L4">
-        <v>0.9755810171934388</v>
+        <v>1.052045068263479</v>
       </c>
       <c r="M4">
-        <v>0.970141185847998</v>
+        <v>1.061896960226167</v>
       </c>
       <c r="N4">
-        <v>0.9840984489152208</v>
+        <v>1.05370270547682</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9556383968399847</v>
+        <v>1.038241176135794</v>
       </c>
       <c r="D5">
-        <v>0.9665767296861847</v>
+        <v>1.051390584087168</v>
       </c>
       <c r="E5">
-        <v>0.968099094872658</v>
+        <v>1.046534248693138</v>
       </c>
       <c r="F5">
-        <v>0.963122399344248</v>
+        <v>1.056652792305593</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038562955789518</v>
+        <v>1.049352750628033</v>
       </c>
       <c r="J5">
-        <v>0.9757606920883263</v>
+        <v>1.05628471631845</v>
       </c>
       <c r="K5">
-        <v>0.9768607987992675</v>
+        <v>1.060695883626436</v>
       </c>
       <c r="L5">
-        <v>0.9783637092006966</v>
+        <v>1.055890350659514</v>
       </c>
       <c r="M5">
-        <v>0.9734508977930778</v>
+        <v>1.06590368649437</v>
       </c>
       <c r="N5">
-        <v>0.9861108109098006</v>
+        <v>1.057784761773172</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9562307625033257</v>
+        <v>1.039006509564653</v>
       </c>
       <c r="D6">
-        <v>0.9671052084549548</v>
+        <v>1.052120226359835</v>
       </c>
       <c r="E6">
-        <v>0.9686065099985888</v>
+        <v>1.047214614310551</v>
       </c>
       <c r="F6">
-        <v>0.9637188882914519</v>
+        <v>1.05735961383313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038686117685925</v>
+        <v>1.049471188346157</v>
       </c>
       <c r="J6">
-        <v>0.9762545721409334</v>
+        <v>1.056960793507215</v>
       </c>
       <c r="K6">
-        <v>0.9773430609313529</v>
+        <v>1.06138270383246</v>
       </c>
       <c r="L6">
-        <v>0.9788252859059521</v>
+        <v>1.056528107500315</v>
       </c>
       <c r="M6">
-        <v>0.9740000424980325</v>
+        <v>1.066568241708021</v>
       </c>
       <c r="N6">
-        <v>0.9864445227596393</v>
+        <v>1.058461799069093</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9521160553193676</v>
+        <v>1.033689789930722</v>
       </c>
       <c r="D7">
-        <v>0.9634349052879275</v>
+        <v>1.047051948280672</v>
       </c>
       <c r="E7">
-        <v>0.9650827852402322</v>
+        <v>1.042488520161899</v>
       </c>
       <c r="F7">
-        <v>0.959576946823262</v>
+        <v>1.052449784649157</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037826827498387</v>
+        <v>1.048646648217723</v>
       </c>
       <c r="J7">
-        <v>0.9728227784767616</v>
+        <v>1.052263486888481</v>
       </c>
       <c r="K7">
-        <v>0.9739924774498951</v>
+        <v>1.056610998506472</v>
       </c>
       <c r="L7">
-        <v>0.9756185851244774</v>
+        <v>1.052096988218696</v>
       </c>
       <c r="M7">
-        <v>0.9701858588007457</v>
+        <v>1.061951058510413</v>
       </c>
       <c r="N7">
-        <v>0.9841256228462105</v>
+        <v>1.053757821736172</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9337768029136126</v>
+        <v>1.009959140178846</v>
       </c>
       <c r="D8">
-        <v>0.947094748799889</v>
+        <v>1.024445373942264</v>
       </c>
       <c r="E8">
-        <v>0.9494031539727312</v>
+        <v>1.021406073087976</v>
       </c>
       <c r="F8">
-        <v>0.9411542232348928</v>
+        <v>1.030548837334557</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033902218629303</v>
+        <v>1.044922492861067</v>
       </c>
       <c r="J8">
-        <v>0.9574974036228363</v>
+        <v>1.03128234111053</v>
       </c>
       <c r="K8">
-        <v>0.9590424732976995</v>
+        <v>1.035304093111605</v>
       </c>
       <c r="L8">
-        <v>0.9613151001312402</v>
+        <v>1.032303686829424</v>
       </c>
       <c r="M8">
-        <v>0.9531950540004457</v>
+        <v>1.041330313557979</v>
       </c>
       <c r="N8">
-        <v>0.9737687815068662</v>
+        <v>1.032746880324645</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8957712029022591</v>
+        <v>0.9603073557295831</v>
       </c>
       <c r="D9">
-        <v>0.9133348247421619</v>
+        <v>0.9772405893389979</v>
       </c>
       <c r="E9">
-        <v>0.9170461706140733</v>
+        <v>0.977383352699897</v>
       </c>
       <c r="F9">
-        <v>0.9031498758951632</v>
+        <v>0.9848229893610798</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025424219215884</v>
+        <v>1.036975391974817</v>
       </c>
       <c r="J9">
-        <v>0.9256295601195654</v>
+        <v>0.9873440618271382</v>
       </c>
       <c r="K9">
-        <v>0.9280100972249492</v>
+        <v>0.9907140403873437</v>
       </c>
       <c r="L9">
-        <v>0.9316456082628292</v>
+        <v>0.9908543463886111</v>
       </c>
       <c r="M9">
-        <v>0.9180374997931156</v>
+        <v>0.9981671978776411</v>
       </c>
       <c r="N9">
-        <v>0.9522294123074855</v>
+        <v>0.9887462036448799</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8645083495315172</v>
+        <v>0.9184019235254427</v>
       </c>
       <c r="D10">
-        <v>0.8856805563393375</v>
+        <v>0.9375243656471255</v>
       </c>
       <c r="E10">
-        <v>0.8905770553856726</v>
+        <v>0.9403593009522359</v>
       </c>
       <c r="F10">
-        <v>0.872041535927478</v>
+        <v>0.9463725617092646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018265912392661</v>
+        <v>1.030197210439477</v>
       </c>
       <c r="J10">
-        <v>0.8993612306429514</v>
+        <v>0.9502738012636762</v>
       </c>
       <c r="K10">
-        <v>0.9024739872088393</v>
+        <v>0.9531213400413816</v>
       </c>
       <c r="L10">
-        <v>0.9072494612192729</v>
+        <v>0.955895884949318</v>
       </c>
       <c r="M10">
-        <v>0.8891817894859919</v>
+        <v>0.961782632681795</v>
       </c>
       <c r="N10">
-        <v>0.9344758450540017</v>
+        <v>0.9516232990593991</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8487334474862074</v>
+        <v>0.8965792773907104</v>
       </c>
       <c r="D11">
-        <v>0.8717710629599221</v>
+        <v>0.9168959836894939</v>
       </c>
       <c r="E11">
-        <v>0.877275555979509</v>
+        <v>0.9211399143533602</v>
       </c>
       <c r="F11">
-        <v>0.8563924937744044</v>
+        <v>0.9264146136848759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014632305891642</v>
+        <v>1.026667060084477</v>
       </c>
       <c r="J11">
-        <v>0.886102946018874</v>
+        <v>0.9309912381983091</v>
       </c>
       <c r="K11">
-        <v>0.8895973253110354</v>
+        <v>0.9335759228544316</v>
       </c>
       <c r="L11">
-        <v>0.8949533985187041</v>
+        <v>0.9377197743773412</v>
       </c>
       <c r="M11">
-        <v>0.874647266172603</v>
+        <v>0.9428717954942674</v>
       </c>
       <c r="N11">
-        <v>0.925516704520815</v>
+        <v>0.9323133525427383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8424137505386315</v>
+        <v>0.88764720321256</v>
       </c>
       <c r="D12">
-        <v>0.866207712511212</v>
+        <v>0.9084647389168841</v>
       </c>
       <c r="E12">
-        <v>0.8719576059595846</v>
+        <v>0.9132873483285413</v>
       </c>
       <c r="F12">
-        <v>0.8501318946423809</v>
+        <v>0.9182606049011618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013176564151262</v>
+        <v>1.025224699363538</v>
       </c>
       <c r="J12">
-        <v>0.8807923612538986</v>
+        <v>0.923105300560184</v>
       </c>
       <c r="K12">
-        <v>0.8844416054302625</v>
+        <v>0.92558416223589</v>
       </c>
       <c r="L12">
-        <v>0.8900311890107497</v>
+        <v>0.9302883920357594</v>
       </c>
       <c r="M12">
-        <v>0.8688298170870489</v>
+        <v>0.9351413194611474</v>
       </c>
       <c r="N12">
-        <v>0.9219285375986854</v>
+        <v>0.9244162159686374</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8437929979508385</v>
+        <v>0.8896074988599428</v>
       </c>
       <c r="D13">
-        <v>0.8674214363918816</v>
+        <v>0.9103144937203039</v>
       </c>
       <c r="E13">
-        <v>0.8731176837445672</v>
+        <v>0.9150099923644334</v>
       </c>
       <c r="F13">
-        <v>0.8514978252643836</v>
+        <v>0.9200493630773001</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013494207527486</v>
+        <v>1.025541077350365</v>
       </c>
       <c r="J13">
-        <v>0.8819513008234554</v>
+        <v>0.9248356404236665</v>
       </c>
       <c r="K13">
-        <v>0.8855666549594048</v>
+        <v>0.9273376396165839</v>
       </c>
       <c r="L13">
-        <v>0.8911052330765302</v>
+        <v>0.9319188810716368</v>
       </c>
       <c r="M13">
-        <v>0.8700991810707783</v>
+        <v>0.9368373672439667</v>
       </c>
       <c r="N13">
-        <v>0.9227115688234471</v>
+        <v>0.9261490131131989</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8482214323666643</v>
+        <v>0.8958601959034077</v>
       </c>
       <c r="D14">
-        <v>0.8713201293500769</v>
+        <v>0.9162169541867393</v>
       </c>
       <c r="E14">
-        <v>0.8768444657795111</v>
+        <v>0.9205074253275443</v>
       </c>
       <c r="F14">
-        <v>0.8558850835098935</v>
+        <v>0.925757838450183</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014514340626621</v>
+        <v>1.026550871661084</v>
       </c>
       <c r="J14">
-        <v>0.8856726587590573</v>
+        <v>0.9303562233813937</v>
       </c>
       <c r="K14">
-        <v>0.8891795446696289</v>
+        <v>0.9329323510016079</v>
       </c>
       <c r="L14">
-        <v>0.8945545178048451</v>
+        <v>0.9371213151823544</v>
       </c>
       <c r="M14">
-        <v>0.8741758257763639</v>
+        <v>0.942249222085887</v>
       </c>
       <c r="N14">
-        <v>0.9252259659724157</v>
+        <v>0.931677435931946</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8508840087724122</v>
+        <v>0.899591333935378</v>
       </c>
       <c r="D15">
-        <v>0.8736654447074943</v>
+        <v>0.9197407718623462</v>
       </c>
       <c r="E15">
-        <v>0.8790866663131947</v>
+        <v>0.9237898400721352</v>
       </c>
       <c r="F15">
-        <v>0.8585240679626343</v>
+        <v>0.9291663033455224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015127802780941</v>
+        <v>1.027153863445325</v>
       </c>
       <c r="J15">
-        <v>0.887910281321631</v>
+        <v>0.9336514373006962</v>
       </c>
       <c r="K15">
-        <v>0.8913522099228584</v>
+        <v>0.9362720372132072</v>
       </c>
       <c r="L15">
-        <v>0.896628936674346</v>
+        <v>0.9402269218568726</v>
       </c>
       <c r="M15">
-        <v>0.8766276275020478</v>
+        <v>0.9454800186714506</v>
       </c>
       <c r="N15">
-        <v>0.9267379106206616</v>
+        <v>0.9349773294329796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.865499047608601</v>
+        <v>0.9197537196745803</v>
       </c>
       <c r="D16">
-        <v>0.8865551421293999</v>
+        <v>0.9388034851556054</v>
       </c>
       <c r="E16">
-        <v>0.8914136774053758</v>
+        <v>0.9415513359977353</v>
       </c>
       <c r="F16">
-        <v>0.8730253759659033</v>
+        <v>0.9476104433248025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018493909661367</v>
+        <v>1.03041605070972</v>
       </c>
       <c r="J16">
-        <v>0.9001939088275914</v>
+        <v>0.9514688856186018</v>
       </c>
       <c r="K16">
-        <v>0.9032829489773506</v>
+        <v>0.9543329100591097</v>
       </c>
       <c r="L16">
-        <v>0.9080220734975908</v>
+        <v>0.9570226038954719</v>
       </c>
       <c r="M16">
-        <v>0.8900951973868417</v>
+        <v>0.9629550468989738</v>
       </c>
       <c r="N16">
-        <v>0.9350385604918148</v>
+        <v>0.9528200805711867</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8739992031839576</v>
+        <v>0.9312774817927093</v>
       </c>
       <c r="D17">
-        <v>0.8940639303238035</v>
+        <v>0.9497135252275116</v>
       </c>
       <c r="E17">
-        <v>0.8985978178549187</v>
+        <v>0.9517197745043913</v>
       </c>
       <c r="F17">
-        <v>0.8814718634107684</v>
+        <v>0.9581701673330139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020448047212095</v>
+        <v>1.032281729931941</v>
       </c>
       <c r="J17">
-        <v>0.9073379688116547</v>
+        <v>0.9616591703844681</v>
       </c>
       <c r="K17">
-        <v>0.9102248224029565</v>
+        <v>0.9646647086067959</v>
       </c>
       <c r="L17">
-        <v>0.9146526479208813</v>
+        <v>0.9666308188199242</v>
       </c>
       <c r="M17">
-        <v>0.8979350286877459</v>
+        <v>0.9729536531875831</v>
       </c>
       <c r="N17">
-        <v>0.9398666175002307</v>
+        <v>0.9630248367102625</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8787520113672894</v>
+        <v>0.9376685464079545</v>
       </c>
       <c r="D18">
-        <v>0.8982661517287117</v>
+        <v>0.9557685814105455</v>
       </c>
       <c r="E18">
-        <v>0.9026193648469278</v>
+        <v>0.9573640725118777</v>
       </c>
       <c r="F18">
-        <v>0.8861987508330624</v>
+        <v>0.9640318196905568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021538563121684</v>
+        <v>1.033316214431707</v>
       </c>
       <c r="J18">
-        <v>0.9113321025833598</v>
+        <v>0.9673123516482732</v>
       </c>
       <c r="K18">
-        <v>0.9141069587546631</v>
+        <v>0.9703971350761192</v>
       </c>
       <c r="L18">
-        <v>0.918361187961418</v>
+        <v>0.9719617100206778</v>
       </c>
       <c r="M18">
-        <v>0.9023207688508573</v>
+        <v>0.9785017029343085</v>
       </c>
       <c r="N18">
-        <v>0.9425660310975045</v>
+        <v>0.9686860461398913</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8803405542294135</v>
+        <v>0.9397971606439651</v>
       </c>
       <c r="D19">
-        <v>0.8996712551044378</v>
+        <v>0.9577859528373274</v>
       </c>
       <c r="E19">
-        <v>0.9039642182136427</v>
+        <v>0.9592447102943338</v>
       </c>
       <c r="F19">
-        <v>0.8877792925129813</v>
+        <v>0.965984904422967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021902620786792</v>
+        <v>1.033660673769764</v>
       </c>
       <c r="J19">
-        <v>0.9126669711650234</v>
+        <v>0.9691954301959217</v>
       </c>
       <c r="K19">
-        <v>0.9154045695000427</v>
+        <v>0.9723067292044658</v>
       </c>
       <c r="L19">
-        <v>0.91960085371763</v>
+        <v>0.9737375232747625</v>
       </c>
       <c r="M19">
-        <v>0.9037869600583159</v>
+        <v>0.9803499446168217</v>
       </c>
       <c r="N19">
-        <v>0.9434682117008326</v>
+        <v>0.9705717988750696</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8731091281816798</v>
+        <v>0.9300766657145266</v>
       </c>
       <c r="D20">
-        <v>0.8932772599454282</v>
+        <v>0.9485761831445385</v>
       </c>
       <c r="E20">
-        <v>0.8978450511187066</v>
+        <v>0.9506596494215976</v>
       </c>
       <c r="F20">
-        <v>0.880586970742263</v>
+        <v>0.9570692311770467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020243630692699</v>
+        <v>1.032087330021701</v>
       </c>
       <c r="J20">
-        <v>0.9065899313546735</v>
+        <v>0.9605971173948062</v>
       </c>
       <c r="K20">
-        <v>0.9094978448382467</v>
+        <v>0.9635878272604782</v>
       </c>
       <c r="L20">
-        <v>0.9139582179502</v>
+        <v>0.9656293610521309</v>
       </c>
       <c r="M20">
-        <v>0.8971138647269558</v>
+        <v>0.971911444810204</v>
       </c>
       <c r="N20">
-        <v>0.9393610695035873</v>
+        <v>0.9619612754835362</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8469314424307991</v>
+        <v>0.8940450661271525</v>
       </c>
       <c r="D21">
-        <v>0.8701841833354225</v>
+        <v>0.914503131272719</v>
       </c>
       <c r="E21">
-        <v>0.8757585442692809</v>
+        <v>0.9189111166923205</v>
       </c>
       <c r="F21">
-        <v>0.854606838718837</v>
+        <v>0.9241002400628161</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01421714721802</v>
+        <v>1.026257636374512</v>
       </c>
       <c r="J21">
-        <v>0.8845885978356285</v>
+        <v>0.9287534137047438</v>
       </c>
       <c r="K21">
-        <v>0.8881270253220193</v>
+        <v>0.931307970767262</v>
       </c>
       <c r="L21">
-        <v>0.8935496304860326</v>
+        <v>0.9356108099525373</v>
       </c>
       <c r="M21">
-        <v>0.872988151922351</v>
+        <v>0.9406778745114122</v>
       </c>
       <c r="N21">
-        <v>0.9244934896115985</v>
+        <v>0.9300723500817099</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8276793046417191</v>
+        <v>0.8662460361203602</v>
       </c>
       <c r="D22">
-        <v>0.8532578703386794</v>
+        <v>0.8882943849859852</v>
       </c>
       <c r="E22">
-        <v>0.8595839255757491</v>
+        <v>0.8945091826614456</v>
       </c>
       <c r="F22">
-        <v>0.8355541934069445</v>
+        <v>0.8987622129102256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009787798608885</v>
+        <v>1.021778675083251</v>
       </c>
       <c r="J22">
-        <v>0.868415015194568</v>
+        <v>0.9042295279488546</v>
       </c>
       <c r="K22">
-        <v>0.8724293182242973</v>
+        <v>0.9064589662530709</v>
       </c>
       <c r="L22">
-        <v>0.8785652252180599</v>
+        <v>0.9125063413072386</v>
       </c>
       <c r="M22">
-        <v>0.8552790218623603</v>
+        <v>0.9166466074292626</v>
       </c>
       <c r="N22">
-        <v>0.9135666720031104</v>
+        <v>0.9055136375951184</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8382148037541959</v>
+        <v>0.8816382861892561</v>
       </c>
       <c r="D23">
-        <v>0.8625142665544566</v>
+        <v>0.9027969073173144</v>
       </c>
       <c r="E23">
-        <v>0.8684277819263043</v>
+        <v>0.9080095573999258</v>
       </c>
       <c r="F23">
-        <v>0.8459749229448446</v>
+        <v>0.9127803030334202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012209881138854</v>
+        <v>1.024255586928783</v>
       </c>
       <c r="J23">
-        <v>0.8772644159785637</v>
+        <v>0.9178026180809334</v>
       </c>
       <c r="K23">
-        <v>0.8810171397614029</v>
+        <v>0.920210860656448</v>
       </c>
       <c r="L23">
-        <v>0.8867621473704319</v>
+        <v>0.9252921157046355</v>
       </c>
       <c r="M23">
-        <v>0.8649663422745839</v>
+        <v>0.9299443763055389</v>
       </c>
       <c r="N23">
-        <v>0.9195449782826617</v>
+        <v>0.91910600307204</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8735119405547741</v>
+        <v>0.9306202670837626</v>
       </c>
       <c r="D24">
-        <v>0.8936332639344856</v>
+        <v>0.949091036728502</v>
       </c>
       <c r="E24">
-        <v>0.8981857090212506</v>
+        <v>0.9511395457588937</v>
       </c>
       <c r="F24">
-        <v>0.8809874250380306</v>
+        <v>0.9575676013285019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020336148329226</v>
+        <v>1.03217533439771</v>
       </c>
       <c r="J24">
-        <v>0.9069284646271664</v>
+        <v>0.9610778965850267</v>
       </c>
       <c r="K24">
-        <v>0.9098268439412187</v>
+        <v>0.9640753167670584</v>
       </c>
       <c r="L24">
-        <v>0.9142724858587763</v>
+        <v>0.966082707574267</v>
       </c>
       <c r="M24">
-        <v>0.8974854840524427</v>
+        <v>0.9723832368414905</v>
       </c>
       <c r="N24">
-        <v>0.9395898609079552</v>
+        <v>0.9624427374353529</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9064424052933876</v>
+        <v>0.9743474115667362</v>
       </c>
       <c r="D25">
-        <v>0.9227991222615604</v>
+        <v>0.9905741018303198</v>
       </c>
       <c r="E25">
-        <v>0.9261121882847577</v>
+        <v>0.9898170571046948</v>
       </c>
       <c r="F25">
-        <v>0.9137988773546586</v>
+        <v>0.9977369054233154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027838737920925</v>
+        <v>1.039236988538627</v>
       </c>
       <c r="J25">
-        <v>0.9345879099360244</v>
+        <v>0.9997700396569185</v>
       </c>
       <c r="K25">
-        <v>0.9367270733904309</v>
+        <v>1.003320526568986</v>
       </c>
       <c r="L25">
-        <v>0.9399771272873052</v>
+        <v>1.00257553408261</v>
       </c>
       <c r="M25">
-        <v>0.927901034075324</v>
+        <v>1.01037045490171</v>
       </c>
       <c r="N25">
-        <v>0.9582844310180523</v>
+        <v>1.001189827788457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003404343314183</v>
+        <v>0.9880260939244733</v>
       </c>
       <c r="D2">
-        <v>1.01820580142794</v>
+        <v>1.003245105235458</v>
       </c>
       <c r="E2">
-        <v>1.015586831344101</v>
+        <v>1.004042888615078</v>
       </c>
       <c r="F2">
-        <v>1.024503997719044</v>
+        <v>1.01197968357938</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043883261652296</v>
+        <v>1.045765536479738</v>
       </c>
       <c r="J2">
-        <v>1.025483705661544</v>
+        <v>1.010570937448536</v>
       </c>
       <c r="K2">
-        <v>1.029417195937347</v>
+        <v>1.014659414967732</v>
       </c>
       <c r="L2">
-        <v>1.026833205145048</v>
+        <v>1.015446185469122</v>
       </c>
       <c r="M2">
-        <v>1.035632190429391</v>
+        <v>1.023274607630376</v>
       </c>
       <c r="N2">
-        <v>1.026940010148209</v>
+        <v>1.005758146898111</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022249102142301</v>
+        <v>0.996666999996618</v>
       </c>
       <c r="D3">
-        <v>1.03614996570805</v>
+        <v>1.010829186907429</v>
       </c>
       <c r="E3">
-        <v>1.032321888621905</v>
+        <v>1.011457095503238</v>
       </c>
       <c r="F3">
-        <v>1.041888215971768</v>
+        <v>1.019734995236377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046859438474248</v>
+        <v>1.046328513327577</v>
       </c>
       <c r="J3">
-        <v>1.04215107801027</v>
+        <v>1.017248940189535</v>
       </c>
       <c r="K3">
-        <v>1.046340286622104</v>
+        <v>1.021325356261627</v>
       </c>
       <c r="L3">
-        <v>1.042557256030925</v>
+        <v>1.02194544978915</v>
       </c>
       <c r="M3">
-        <v>1.052011778732576</v>
+        <v>1.030121439787655</v>
       </c>
       <c r="N3">
-        <v>1.043631052077444</v>
+        <v>1.008165066392581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033627503997626</v>
+        <v>1.002075803840625</v>
       </c>
       <c r="D4">
-        <v>1.046992579835314</v>
+        <v>1.015582295797889</v>
       </c>
       <c r="E4">
-        <v>1.042433158592784</v>
+        <v>1.016104083538359</v>
       </c>
       <c r="F4">
-        <v>1.052392271337662</v>
+        <v>1.024593880429322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048636964784629</v>
+        <v>1.046662474747892</v>
       </c>
       <c r="J4">
-        <v>1.052208448789543</v>
+        <v>1.021426558983168</v>
       </c>
       <c r="K4">
-        <v>1.056555092009059</v>
+        <v>1.025496224667963</v>
       </c>
       <c r="L4">
-        <v>1.052045068263479</v>
+        <v>1.026011955429639</v>
       </c>
       <c r="M4">
-        <v>1.061896960226167</v>
+        <v>1.034404270780987</v>
       </c>
       <c r="N4">
-        <v>1.05370270547682</v>
+        <v>1.009668305007685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038241176135794</v>
+        <v>1.004308776784228</v>
       </c>
       <c r="D5">
-        <v>1.051390584087168</v>
+        <v>1.01754583690344</v>
       </c>
       <c r="E5">
-        <v>1.046534248693138</v>
+        <v>1.018023855532917</v>
       </c>
       <c r="F5">
-        <v>1.056652792305593</v>
+        <v>1.026600710725959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049352750628033</v>
+        <v>1.046795783068185</v>
       </c>
       <c r="J5">
-        <v>1.05628471631845</v>
+        <v>1.023150551317999</v>
       </c>
       <c r="K5">
-        <v>1.060695883626436</v>
+        <v>1.027217603028738</v>
       </c>
       <c r="L5">
-        <v>1.055890350659514</v>
+        <v>1.027690236861167</v>
       </c>
       <c r="M5">
-        <v>1.06590368649437</v>
+        <v>1.036171522852359</v>
       </c>
       <c r="N5">
-        <v>1.057784761773172</v>
+        <v>1.010288019168109</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039006509564653</v>
+        <v>1.004681381158102</v>
       </c>
       <c r="D6">
-        <v>1.052120226359835</v>
+        <v>1.017873553398733</v>
       </c>
       <c r="E6">
-        <v>1.047214614310551</v>
+        <v>1.018344270717741</v>
       </c>
       <c r="F6">
-        <v>1.05735961383313</v>
+        <v>1.026935627154503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049471188346157</v>
+        <v>1.046817755048694</v>
       </c>
       <c r="J6">
-        <v>1.056960793507215</v>
+        <v>1.023438181052137</v>
       </c>
       <c r="K6">
-        <v>1.06138270383246</v>
+        <v>1.027504806225379</v>
       </c>
       <c r="L6">
-        <v>1.056528107500315</v>
+        <v>1.027970247888809</v>
       </c>
       <c r="M6">
-        <v>1.066568241708021</v>
+        <v>1.036466358966156</v>
       </c>
       <c r="N6">
-        <v>1.058461799069093</v>
+        <v>1.01039137361004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033689789930722</v>
+        <v>1.002105798110623</v>
       </c>
       <c r="D7">
-        <v>1.047051948280672</v>
+        <v>1.015608666097025</v>
       </c>
       <c r="E7">
-        <v>1.042488520161899</v>
+        <v>1.016129865757434</v>
       </c>
       <c r="F7">
-        <v>1.052449784649157</v>
+        <v>1.024620833764861</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048646648217723</v>
+        <v>1.046664283662072</v>
       </c>
       <c r="J7">
-        <v>1.052263486888481</v>
+        <v>1.021449719289528</v>
       </c>
       <c r="K7">
-        <v>1.056610998506472</v>
+        <v>1.025519349201754</v>
       </c>
       <c r="L7">
-        <v>1.052096988218696</v>
+        <v>1.026034501118718</v>
       </c>
       <c r="M7">
-        <v>1.061951058510413</v>
+        <v>1.034428012950128</v>
       </c>
       <c r="N7">
-        <v>1.053757821736172</v>
+        <v>1.009676632870509</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009959140178846</v>
+        <v>0.9909858714922651</v>
       </c>
       <c r="D8">
-        <v>1.024445373942264</v>
+        <v>1.005841569522133</v>
       </c>
       <c r="E8">
-        <v>1.021406073087976</v>
+        <v>1.006581114590835</v>
       </c>
       <c r="F8">
-        <v>1.030548837334557</v>
+        <v>1.014635069750855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044922492861067</v>
+        <v>1.045962183568933</v>
       </c>
       <c r="J8">
-        <v>1.03128234111053</v>
+        <v>1.012858825393566</v>
       </c>
       <c r="K8">
-        <v>1.035304093111605</v>
+        <v>1.016942990203423</v>
       </c>
       <c r="L8">
-        <v>1.032303686829424</v>
+        <v>1.017672672372543</v>
       </c>
       <c r="M8">
-        <v>1.041330313557979</v>
+        <v>1.025620382748613</v>
       </c>
       <c r="N8">
-        <v>1.032746880324645</v>
+        <v>1.006583259861916</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9603073557295831</v>
+        <v>0.9698521828440018</v>
       </c>
       <c r="D9">
-        <v>0.9772405893389979</v>
+        <v>0.9873337290047489</v>
       </c>
       <c r="E9">
-        <v>0.977383352699897</v>
+        <v>0.9884904756095056</v>
       </c>
       <c r="F9">
-        <v>0.9848229893610798</v>
+        <v>0.9957023367145971</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036975391974817</v>
+        <v>1.044484095532693</v>
       </c>
       <c r="J9">
-        <v>0.9873440618271382</v>
+        <v>0.9965163743502391</v>
       </c>
       <c r="K9">
-        <v>0.9907140403873437</v>
+        <v>1.000635705748918</v>
       </c>
       <c r="L9">
-        <v>0.9908543463886111</v>
+        <v>1.001773088379225</v>
       </c>
       <c r="M9">
-        <v>0.9981671978776411</v>
+        <v>1.008865527476315</v>
       </c>
       <c r="N9">
-        <v>0.9887462036448799</v>
+        <v>1.00068036454746</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9184019235254427</v>
+        <v>0.954499139863852</v>
       </c>
       <c r="D10">
-        <v>0.9375243656471255</v>
+        <v>0.9739373707177233</v>
       </c>
       <c r="E10">
-        <v>0.9403593009522359</v>
+        <v>0.9753995285356457</v>
       </c>
       <c r="F10">
-        <v>0.9463725617092646</v>
+        <v>0.9819943928942941</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030197210439477</v>
+        <v>1.043322725116822</v>
       </c>
       <c r="J10">
-        <v>0.9502738012636762</v>
+        <v>0.9846420365787506</v>
       </c>
       <c r="K10">
-        <v>0.9531213400413816</v>
+        <v>0.9887936970264063</v>
       </c>
       <c r="L10">
-        <v>0.955895884949318</v>
+        <v>0.9902276265531367</v>
       </c>
       <c r="M10">
-        <v>0.961782632681795</v>
+        <v>0.9966965364594111</v>
       </c>
       <c r="N10">
-        <v>0.9516232990593991</v>
+        <v>0.9963818074969515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8965792773907104</v>
+        <v>0.947488768191446</v>
       </c>
       <c r="D11">
-        <v>0.9168959836894939</v>
+        <v>0.9678352292428433</v>
       </c>
       <c r="E11">
-        <v>0.9211399143533602</v>
+        <v>0.9694376084112296</v>
       </c>
       <c r="F11">
-        <v>0.9264146136848759</v>
+        <v>0.9757501799651447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026667060084477</v>
+        <v>1.042774291324364</v>
       </c>
       <c r="J11">
-        <v>0.9309912381983091</v>
+        <v>0.979221870616102</v>
       </c>
       <c r="K11">
-        <v>0.9335759228544316</v>
+        <v>0.983390333103238</v>
       </c>
       <c r="L11">
-        <v>0.9377197743773412</v>
+        <v>0.9849598565717093</v>
       </c>
       <c r="M11">
-        <v>0.9428717954942674</v>
+        <v>0.9911443749394779</v>
       </c>
       <c r="N11">
-        <v>0.9323133525427383</v>
+        <v>0.9944181970202015</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.88764720321256</v>
+        <v>0.9448239521162766</v>
       </c>
       <c r="D12">
-        <v>0.9084647389168841</v>
+        <v>0.9655181868320125</v>
       </c>
       <c r="E12">
-        <v>0.9132873483285413</v>
+        <v>0.9671740042315357</v>
       </c>
       <c r="F12">
-        <v>0.9182606049011618</v>
+        <v>0.9733792499829403</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025224699363538</v>
+        <v>1.042563346987203</v>
       </c>
       <c r="J12">
-        <v>0.923105300560184</v>
+        <v>0.9771620269265696</v>
       </c>
       <c r="K12">
-        <v>0.92558416223589</v>
+        <v>0.9813372249580696</v>
       </c>
       <c r="L12">
-        <v>0.9302883920357594</v>
+        <v>0.9829583292380236</v>
       </c>
       <c r="M12">
-        <v>0.9351413194611474</v>
+        <v>0.9890348723046208</v>
       </c>
       <c r="N12">
-        <v>0.9244162159686374</v>
+        <v>0.9936718117516988</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8896074988599428</v>
+        <v>0.9453984324589572</v>
       </c>
       <c r="D13">
-        <v>0.9103144937203039</v>
+        <v>0.9660175745127448</v>
       </c>
       <c r="E13">
-        <v>0.9150099923644334</v>
+        <v>0.9676618651759001</v>
       </c>
       <c r="F13">
-        <v>0.9200493630773001</v>
+        <v>0.9738902479342283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025541077350365</v>
+        <v>1.042608929415601</v>
       </c>
       <c r="J13">
-        <v>0.9248356404236665</v>
+        <v>0.9776060611296141</v>
       </c>
       <c r="K13">
-        <v>0.9273376396165839</v>
+        <v>0.9817797906533572</v>
       </c>
       <c r="L13">
-        <v>0.9319188810716368</v>
+        <v>0.9833897732566681</v>
       </c>
       <c r="M13">
-        <v>0.9368373672439667</v>
+        <v>0.989489586395476</v>
       </c>
       <c r="N13">
-        <v>0.9261490131131989</v>
+        <v>0.9938327130939439</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8958601959034077</v>
+        <v>0.9472697758817942</v>
       </c>
       <c r="D14">
-        <v>0.9162169541867393</v>
+        <v>0.9676447634430009</v>
       </c>
       <c r="E14">
-        <v>0.9205074253275443</v>
+        <v>0.9692515312198772</v>
       </c>
       <c r="F14">
-        <v>0.925757838450183</v>
+        <v>0.9755552828188028</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026550871661084</v>
+        <v>1.042757004586009</v>
       </c>
       <c r="J14">
-        <v>0.9303562233813937</v>
+        <v>0.9790525829618452</v>
       </c>
       <c r="K14">
-        <v>0.9329323510016079</v>
+        <v>0.983221591648487</v>
       </c>
       <c r="L14">
-        <v>0.9371213151823544</v>
+        <v>0.984795353147897</v>
       </c>
       <c r="M14">
-        <v>0.942249222085887</v>
+        <v>0.9909709950882519</v>
       </c>
       <c r="N14">
-        <v>0.931677435931946</v>
+        <v>0.994356858089792</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.899591333935378</v>
+        <v>0.9484144991434633</v>
       </c>
       <c r="D15">
-        <v>0.9197407718623462</v>
+        <v>0.9686404767790434</v>
       </c>
       <c r="E15">
-        <v>0.9237898400721352</v>
+        <v>0.9702243099649739</v>
       </c>
       <c r="F15">
-        <v>0.9291663033455224</v>
+        <v>0.9765741651258094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027153863445325</v>
+        <v>1.042847267676791</v>
       </c>
       <c r="J15">
-        <v>0.9336514373006962</v>
+        <v>0.9799375100803304</v>
       </c>
       <c r="K15">
-        <v>0.9362720372132072</v>
+        <v>0.9841036780654114</v>
       </c>
       <c r="L15">
-        <v>0.9402269218568726</v>
+        <v>0.9856552880132744</v>
       </c>
       <c r="M15">
-        <v>0.9454800186714506</v>
+        <v>0.9918773348213581</v>
       </c>
       <c r="N15">
-        <v>0.9349773294329796</v>
+        <v>0.9946774930933725</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9197537196745803</v>
+        <v>0.9549562365884456</v>
       </c>
       <c r="D16">
-        <v>0.9388034851556054</v>
+        <v>0.9743355780367247</v>
       </c>
       <c r="E16">
-        <v>0.9415513359977353</v>
+        <v>0.9757886105468521</v>
       </c>
       <c r="F16">
-        <v>0.9476104433248025</v>
+        <v>0.982401874891822</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03041605070972</v>
+        <v>1.04335813138143</v>
       </c>
       <c r="J16">
-        <v>0.9514688856186018</v>
+        <v>0.984995502383751</v>
       </c>
       <c r="K16">
-        <v>0.9543329100591097</v>
+        <v>0.9891461127491322</v>
       </c>
       <c r="L16">
-        <v>0.9570226038954719</v>
+        <v>0.9905712058249191</v>
       </c>
       <c r="M16">
-        <v>0.9629550468989738</v>
+        <v>0.9970586720409027</v>
       </c>
       <c r="N16">
-        <v>0.9528200805711867</v>
+        <v>0.996509836056143</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9312774817927093</v>
+        <v>0.9589584661457974</v>
       </c>
       <c r="D17">
-        <v>0.9497135252275116</v>
+        <v>0.9778238786543725</v>
       </c>
       <c r="E17">
-        <v>0.9517197745043913</v>
+        <v>0.9791971005208473</v>
       </c>
       <c r="F17">
-        <v>0.9581701673330139</v>
+        <v>0.9859714143818431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032281729931941</v>
+        <v>1.043666131591263</v>
       </c>
       <c r="J17">
-        <v>0.9616591703844681</v>
+        <v>0.9880905889995747</v>
       </c>
       <c r="K17">
-        <v>0.9646647086067959</v>
+        <v>0.9922322386228088</v>
       </c>
       <c r="L17">
-        <v>0.9666308188199242</v>
+        <v>0.9935799839298576</v>
       </c>
       <c r="M17">
-        <v>0.9729536531875831</v>
+        <v>1.000229969328238</v>
       </c>
       <c r="N17">
-        <v>0.9630248367102625</v>
+        <v>0.9976307457503241</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9376685464079545</v>
+        <v>0.9612584160619656</v>
       </c>
       <c r="D18">
-        <v>0.9557685814105455</v>
+        <v>0.9798298498794735</v>
       </c>
       <c r="E18">
-        <v>0.9573640725118777</v>
+        <v>0.9811572773530897</v>
       </c>
       <c r="F18">
-        <v>0.9640318196905568</v>
+        <v>0.9880240837112078</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033316214431707</v>
+        <v>1.043841416907769</v>
       </c>
       <c r="J18">
-        <v>0.9673123516482732</v>
+        <v>0.9898693847591199</v>
       </c>
       <c r="K18">
-        <v>0.9703971350761192</v>
+        <v>0.9940060725939335</v>
       </c>
       <c r="L18">
-        <v>0.9719617100206778</v>
+        <v>0.9953093854652976</v>
       </c>
       <c r="M18">
-        <v>0.9785017029343085</v>
+        <v>1.002052789456438</v>
       </c>
       <c r="N18">
-        <v>0.9686860461398913</v>
+        <v>0.9982748060009266</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9397971606439651</v>
+        <v>0.9620369685407826</v>
       </c>
       <c r="D19">
-        <v>0.9577859528373274</v>
+        <v>0.9805091102364075</v>
       </c>
       <c r="E19">
-        <v>0.9592447102943338</v>
+        <v>0.9818210472429287</v>
       </c>
       <c r="F19">
-        <v>0.965984904422967</v>
+        <v>0.9887191515508256</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033660673769764</v>
+        <v>1.043900454933677</v>
       </c>
       <c r="J19">
-        <v>0.9691954301959217</v>
+        <v>0.990471541635169</v>
       </c>
       <c r="K19">
-        <v>0.9723067292044658</v>
+        <v>0.9946065805443031</v>
       </c>
       <c r="L19">
-        <v>0.9737375232747625</v>
+        <v>0.9958948552353378</v>
       </c>
       <c r="M19">
-        <v>0.9803499446168217</v>
+        <v>1.00266988406953</v>
       </c>
       <c r="N19">
-        <v>0.9705717988750696</v>
+        <v>0.9984928062996337</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9300766657145266</v>
+        <v>0.9585326744819851</v>
       </c>
       <c r="D20">
-        <v>0.9485761831445385</v>
+        <v>0.9774526197152843</v>
       </c>
       <c r="E20">
-        <v>0.9506596494215976</v>
+        <v>0.9788343250860166</v>
       </c>
       <c r="F20">
-        <v>0.9570692311770467</v>
+        <v>0.9855915106420557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032087330021701</v>
+        <v>1.043633540289405</v>
       </c>
       <c r="J20">
-        <v>0.9605971173948062</v>
+        <v>0.987761289805946</v>
       </c>
       <c r="K20">
-        <v>0.9635878272604782</v>
+        <v>0.9919038729499039</v>
       </c>
       <c r="L20">
-        <v>0.9656293610521309</v>
+        <v>0.9932598453664205</v>
       </c>
       <c r="M20">
-        <v>0.971911444810204</v>
+        <v>0.9998925375197043</v>
       </c>
       <c r="N20">
-        <v>0.9619612754835362</v>
+        <v>0.9975115020091969</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8940450661271525</v>
+        <v>0.9467204485038931</v>
       </c>
       <c r="D21">
-        <v>0.914503131272719</v>
+        <v>0.9671670347022606</v>
       </c>
       <c r="E21">
-        <v>0.9189111166923205</v>
+        <v>0.9687848132786122</v>
       </c>
       <c r="F21">
-        <v>0.9241002400628161</v>
+        <v>0.97506644054378</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026257636374512</v>
+        <v>1.042713603192399</v>
       </c>
       <c r="J21">
-        <v>0.9287534137047438</v>
+        <v>0.9786279451385943</v>
       </c>
       <c r="K21">
-        <v>0.931307970767262</v>
+        <v>0.9827983296830028</v>
       </c>
       <c r="L21">
-        <v>0.9356108099525373</v>
+        <v>0.9843827226461324</v>
       </c>
       <c r="M21">
-        <v>0.9406778745114122</v>
+        <v>0.9905361010326035</v>
       </c>
       <c r="N21">
-        <v>0.9300723500817099</v>
+        <v>0.9942029946221352</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8662460361203602</v>
+        <v>0.9389375570000109</v>
       </c>
       <c r="D22">
-        <v>0.8882943849859852</v>
+        <v>0.960405069696732</v>
       </c>
       <c r="E22">
-        <v>0.8945091826614456</v>
+        <v>0.9621792075670886</v>
       </c>
       <c r="F22">
-        <v>0.8987622129102256</v>
+        <v>0.9681474220316028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021778675083251</v>
+        <v>1.042093122189408</v>
       </c>
       <c r="J22">
-        <v>0.9042295279488546</v>
+        <v>0.9726131733985374</v>
       </c>
       <c r="K22">
-        <v>0.9064589662530709</v>
+        <v>0.976803946325943</v>
       </c>
       <c r="L22">
-        <v>0.9125063413072386</v>
+        <v>0.9785390721551896</v>
       </c>
       <c r="M22">
-        <v>0.9166466074292626</v>
+        <v>0.9843774420650541</v>
       </c>
       <c r="N22">
-        <v>0.9055136375951184</v>
+        <v>0.9920233521098162</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8816382861892561</v>
+        <v>0.9430995996489924</v>
       </c>
       <c r="D23">
-        <v>0.9027969073173144</v>
+        <v>0.964019629423752</v>
       </c>
       <c r="E23">
-        <v>0.9080095573999258</v>
+        <v>0.9657100671712592</v>
       </c>
       <c r="F23">
-        <v>0.9127803030334202</v>
+        <v>0.9718458678451557</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024255586928783</v>
+        <v>1.042426186092958</v>
       </c>
       <c r="J23">
-        <v>0.9178026180809334</v>
+        <v>0.9758293119234547</v>
       </c>
       <c r="K23">
-        <v>0.920210860656448</v>
+        <v>0.9800089724960053</v>
       </c>
       <c r="L23">
-        <v>0.9252921157046355</v>
+        <v>0.981663465907324</v>
       </c>
       <c r="M23">
-        <v>0.9299443763055389</v>
+        <v>0.9876701875160177</v>
       </c>
       <c r="N23">
-        <v>0.91910600307204</v>
+        <v>0.9931888705145046</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9306202670837626</v>
+        <v>0.9587251774977256</v>
       </c>
       <c r="D24">
-        <v>0.949091036728502</v>
+        <v>0.9776204639477354</v>
       </c>
       <c r="E24">
-        <v>0.9511395457588937</v>
+        <v>0.9789983336576497</v>
       </c>
       <c r="F24">
-        <v>0.9575676013285019</v>
+        <v>0.9857632632083047</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03217533439771</v>
+        <v>1.043648280359482</v>
       </c>
       <c r="J24">
-        <v>0.9610778965850267</v>
+        <v>0.9879101675320852</v>
       </c>
       <c r="K24">
-        <v>0.9640753167670584</v>
+        <v>0.9920523280451059</v>
       </c>
       <c r="L24">
-        <v>0.966082707574267</v>
+        <v>0.993404580883625</v>
       </c>
       <c r="M24">
-        <v>0.9723832368414905</v>
+        <v>1.000045091349574</v>
       </c>
       <c r="N24">
-        <v>0.9624427374353529</v>
+        <v>0.9975654131244419</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9743474115667362</v>
+        <v>0.9755197937802103</v>
       </c>
       <c r="D25">
-        <v>0.9905741018303198</v>
+        <v>0.9922897447619077</v>
       </c>
       <c r="E25">
-        <v>0.9898170571046948</v>
+        <v>0.9933342753002342</v>
       </c>
       <c r="F25">
-        <v>0.9977369054233154</v>
+        <v>1.00077305420755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039236988538627</v>
+        <v>1.044896090882968</v>
       </c>
       <c r="J25">
-        <v>0.9997700396569185</v>
+        <v>1.000900064924571</v>
       </c>
       <c r="K25">
-        <v>1.003320526568986</v>
+        <v>1.005008943430248</v>
       </c>
       <c r="L25">
-        <v>1.00257553408261</v>
+        <v>1.006036956956946</v>
       </c>
       <c r="M25">
-        <v>1.01037045490171</v>
+        <v>1.013359381346687</v>
       </c>
       <c r="N25">
-        <v>1.001189827788457</v>
+        <v>1.002265596182665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9880260939244733</v>
+        <v>1.057425199387504</v>
       </c>
       <c r="D2">
-        <v>1.003245105235458</v>
+        <v>1.063537018171536</v>
       </c>
       <c r="E2">
-        <v>1.004042888615078</v>
+        <v>1.062994363749441</v>
       </c>
       <c r="F2">
-        <v>1.01197968357938</v>
+        <v>1.072390465722183</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045765536479738</v>
+        <v>1.028591377447806</v>
       </c>
       <c r="J2">
-        <v>1.010570937448536</v>
+        <v>1.062421689620653</v>
       </c>
       <c r="K2">
-        <v>1.014659414967732</v>
+        <v>1.06625539010739</v>
       </c>
       <c r="L2">
-        <v>1.015446185469122</v>
+        <v>1.065714204136541</v>
       </c>
       <c r="M2">
-        <v>1.023274607630376</v>
+        <v>1.075085106733552</v>
       </c>
       <c r="N2">
-        <v>1.005758146898111</v>
+        <v>1.024306450101033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.996666999996618</v>
+        <v>1.059139243157481</v>
       </c>
       <c r="D3">
-        <v>1.010829186907429</v>
+        <v>1.065086739482378</v>
       </c>
       <c r="E3">
-        <v>1.011457095503238</v>
+        <v>1.064509015793468</v>
       </c>
       <c r="F3">
-        <v>1.019734995236377</v>
+        <v>1.07396563762599</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046328513327577</v>
+        <v>1.028594865478385</v>
       </c>
       <c r="J3">
-        <v>1.017248940189535</v>
+        <v>1.06378452191743</v>
       </c>
       <c r="K3">
-        <v>1.021325356261627</v>
+        <v>1.067618298971018</v>
       </c>
       <c r="L3">
-        <v>1.02194544978915</v>
+        <v>1.067042023848593</v>
       </c>
       <c r="M3">
-        <v>1.030121439787655</v>
+        <v>1.076475145401226</v>
       </c>
       <c r="N3">
-        <v>1.008165066392581</v>
+        <v>1.024781196286917</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002075803840625</v>
+        <v>1.060246551893071</v>
       </c>
       <c r="D4">
-        <v>1.015582295797889</v>
+        <v>1.066087892475023</v>
       </c>
       <c r="E4">
-        <v>1.016104083538359</v>
+        <v>1.065487489949915</v>
       </c>
       <c r="F4">
-        <v>1.024593880429322</v>
+        <v>1.074982864391474</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046662474747892</v>
+        <v>1.028594567344161</v>
       </c>
       <c r="J4">
-        <v>1.021426558983168</v>
+        <v>1.064664250907067</v>
       </c>
       <c r="K4">
-        <v>1.025496224667963</v>
+        <v>1.068498075854485</v>
       </c>
       <c r="L4">
-        <v>1.026011955429639</v>
+        <v>1.067899101861595</v>
       </c>
       <c r="M4">
-        <v>1.034404270780987</v>
+        <v>1.077372084601603</v>
       </c>
       <c r="N4">
-        <v>1.009668305007685</v>
+        <v>1.025087135501995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004308776784228</v>
+        <v>1.060711646808538</v>
       </c>
       <c r="D5">
-        <v>1.01754583690344</v>
+        <v>1.066508398562654</v>
       </c>
       <c r="E5">
-        <v>1.018023855532917</v>
+        <v>1.065898464742028</v>
       </c>
       <c r="F5">
-        <v>1.026600710725959</v>
+        <v>1.075410033333853</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046795783068185</v>
+        <v>1.028593829963519</v>
       </c>
       <c r="J5">
-        <v>1.023150551317999</v>
+        <v>1.065033591438032</v>
       </c>
       <c r="K5">
-        <v>1.027217603028738</v>
+        <v>1.068867435932898</v>
       </c>
       <c r="L5">
-        <v>1.027690236861167</v>
+        <v>1.068258920549246</v>
       </c>
       <c r="M5">
-        <v>1.036171522852359</v>
+        <v>1.077748565600155</v>
       </c>
       <c r="N5">
-        <v>1.010288019168109</v>
+        <v>1.025215455204701</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004681381158102</v>
+        <v>1.060789714127703</v>
       </c>
       <c r="D6">
-        <v>1.017873553398733</v>
+        <v>1.066578981450272</v>
       </c>
       <c r="E6">
-        <v>1.018344270717741</v>
+        <v>1.065967447443734</v>
       </c>
       <c r="F6">
-        <v>1.026935627154503</v>
+        <v>1.075481729395417</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046817755048694</v>
+        <v>1.028593670253109</v>
       </c>
       <c r="J6">
-        <v>1.023438181052137</v>
+        <v>1.065095576414467</v>
       </c>
       <c r="K6">
-        <v>1.027504806225379</v>
+        <v>1.068929424151428</v>
       </c>
       <c r="L6">
-        <v>1.027970247888809</v>
+        <v>1.06831930678998</v>
       </c>
       <c r="M6">
-        <v>1.036466358966156</v>
+        <v>1.07781174392875</v>
       </c>
       <c r="N6">
-        <v>1.01039137361004</v>
+        <v>1.025236983306637</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002105798110623</v>
+        <v>1.060252768139541</v>
       </c>
       <c r="D7">
-        <v>1.015608666097025</v>
+        <v>1.066093512772802</v>
       </c>
       <c r="E7">
-        <v>1.016129865757434</v>
+        <v>1.065492982879125</v>
       </c>
       <c r="F7">
-        <v>1.024620833764861</v>
+        <v>1.074988574090334</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046664283662072</v>
+        <v>1.028594559896501</v>
       </c>
       <c r="J7">
-        <v>1.021449719289528</v>
+        <v>1.06466918799619</v>
       </c>
       <c r="K7">
-        <v>1.025519349201754</v>
+        <v>1.068503013207361</v>
       </c>
       <c r="L7">
-        <v>1.026034501118718</v>
+        <v>1.067903911717525</v>
       </c>
       <c r="M7">
-        <v>1.034428012950128</v>
+        <v>1.077377117474561</v>
       </c>
       <c r="N7">
-        <v>1.009676632870509</v>
+        <v>1.025088851279647</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9909858714922651</v>
+        <v>1.058004846463322</v>
       </c>
       <c r="D8">
-        <v>1.005841569522133</v>
+        <v>1.064061094847477</v>
       </c>
       <c r="E8">
-        <v>1.006581114590835</v>
+        <v>1.063506585660896</v>
       </c>
       <c r="F8">
-        <v>1.014635069750855</v>
+        <v>1.072923225147435</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045962183568933</v>
+        <v>1.028593085098482</v>
       </c>
       <c r="J8">
-        <v>1.012858825393566</v>
+        <v>1.062882708288527</v>
       </c>
       <c r="K8">
-        <v>1.016942990203423</v>
+        <v>1.066716434877347</v>
       </c>
       <c r="L8">
-        <v>1.017672672372543</v>
+        <v>1.066163388931907</v>
       </c>
       <c r="M8">
-        <v>1.025620382748613</v>
+        <v>1.075555401319762</v>
       </c>
       <c r="N8">
-        <v>1.006583259861916</v>
+        <v>1.024467154058374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9698521828440018</v>
+        <v>1.054029483172698</v>
       </c>
       <c r="D9">
-        <v>0.9873337290047489</v>
+        <v>1.060466887248644</v>
       </c>
       <c r="E9">
-        <v>0.9884904756095056</v>
+        <v>1.059993588063504</v>
       </c>
       <c r="F9">
-        <v>0.9957023367145971</v>
+        <v>1.069267973101042</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044484095532693</v>
+        <v>1.028570931177275</v>
       </c>
       <c r="J9">
-        <v>0.9965163743502391</v>
+        <v>1.059718114857391</v>
       </c>
       <c r="K9">
-        <v>1.000635705748918</v>
+        <v>1.063551663592841</v>
       </c>
       <c r="L9">
-        <v>1.001773088379225</v>
+        <v>1.063079832215952</v>
       </c>
       <c r="M9">
-        <v>1.008865527476315</v>
+        <v>1.072325713558483</v>
       </c>
       <c r="N9">
-        <v>1.00068036454746</v>
+        <v>1.023361914289677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.954499139863852</v>
+        <v>1.051368949510993</v>
       </c>
       <c r="D10">
-        <v>0.9739373707177233</v>
+        <v>1.058061537033398</v>
       </c>
       <c r="E10">
-        <v>0.9753995285356457</v>
+        <v>1.057642474583281</v>
       </c>
       <c r="F10">
-        <v>0.9819943928942941</v>
+        <v>1.066819905805024</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043322725116822</v>
+        <v>1.0285430309114</v>
       </c>
       <c r="J10">
-        <v>0.9846420365787506</v>
+        <v>1.057596681608843</v>
       </c>
       <c r="K10">
-        <v>0.9887936970264063</v>
+        <v>1.061430120880547</v>
       </c>
       <c r="L10">
-        <v>0.9902276265531367</v>
+        <v>1.061012488409351</v>
       </c>
       <c r="M10">
-        <v>0.9966965364594111</v>
+        <v>1.070158885610881</v>
       </c>
       <c r="N10">
-        <v>0.9963818074969515</v>
+        <v>1.022618361336561</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.947488768191446</v>
+        <v>1.050214307407181</v>
       </c>
       <c r="D11">
-        <v>0.9678352292428433</v>
+        <v>1.057017677333741</v>
       </c>
       <c r="E11">
-        <v>0.9694376084112296</v>
+        <v>1.056622127153141</v>
       </c>
       <c r="F11">
-        <v>0.9757501799651447</v>
+        <v>1.065757071181097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042774291324364</v>
+        <v>1.028527838144724</v>
       </c>
       <c r="J11">
-        <v>0.979221870616102</v>
+        <v>1.056675177927869</v>
       </c>
       <c r="K11">
-        <v>0.983390333103238</v>
+        <v>1.06050857455068</v>
       </c>
       <c r="L11">
-        <v>0.9849598565717093</v>
+        <v>1.060114427686257</v>
       </c>
       <c r="M11">
-        <v>0.9911443749394779</v>
+        <v>1.069217255880808</v>
       </c>
       <c r="N11">
-        <v>0.9944181970202015</v>
+        <v>1.022294757731598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9448239521162766</v>
+        <v>1.049785015355303</v>
       </c>
       <c r="D12">
-        <v>0.9655181868320125</v>
+        <v>1.056629580302067</v>
       </c>
       <c r="E12">
-        <v>0.9671740042315357</v>
+        <v>1.056242768105572</v>
       </c>
       <c r="F12">
-        <v>0.9733792499829403</v>
+        <v>1.065361854276611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042563346987203</v>
+        <v>1.028521727507451</v>
       </c>
       <c r="J12">
-        <v>0.9771620269265696</v>
+        <v>1.056332442636275</v>
       </c>
       <c r="K12">
-        <v>0.9813372249580696</v>
+        <v>1.060165824349746</v>
       </c>
       <c r="L12">
-        <v>0.9829583292380236</v>
+        <v>1.059780403970926</v>
       </c>
       <c r="M12">
-        <v>0.9890348723046208</v>
+        <v>1.068866974639479</v>
       </c>
       <c r="N12">
-        <v>0.9936718117516988</v>
+        <v>1.022174306880257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9453984324589572</v>
+        <v>1.049877118580464</v>
       </c>
       <c r="D13">
-        <v>0.9660175745127448</v>
+        <v>1.056712844956258</v>
       </c>
       <c r="E13">
-        <v>0.9676618651759001</v>
+        <v>1.056324158223907</v>
       </c>
       <c r="F13">
-        <v>0.9738902479342283</v>
+        <v>1.065446649412625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042608929415601</v>
+        <v>1.028523059407197</v>
       </c>
       <c r="J13">
-        <v>0.9776060611296141</v>
+        <v>1.056405980956925</v>
       </c>
       <c r="K13">
-        <v>0.9817797906533572</v>
+        <v>1.060239365822785</v>
       </c>
       <c r="L13">
-        <v>0.9833897732566681</v>
+        <v>1.059852073447548</v>
       </c>
       <c r="M13">
-        <v>0.989489586395476</v>
+        <v>1.068942134764822</v>
       </c>
       <c r="N13">
-        <v>0.9938327130939439</v>
+        <v>1.022200155371402</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9472697758817942</v>
+        <v>1.050178830367037</v>
       </c>
       <c r="D14">
-        <v>0.9676447634430009</v>
+        <v>1.056985604544096</v>
       </c>
       <c r="E14">
-        <v>0.9692515312198772</v>
+        <v>1.05659077655448</v>
       </c>
       <c r="F14">
-        <v>0.9755552828188028</v>
+        <v>1.065724411323504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042757004586009</v>
+        <v>1.028527342570952</v>
       </c>
       <c r="J14">
-        <v>0.9790525829618452</v>
+        <v>1.056646856519118</v>
       </c>
       <c r="K14">
-        <v>0.983221591648487</v>
+        <v>1.06048025188923</v>
       </c>
       <c r="L14">
-        <v>0.984795353147897</v>
+        <v>1.060086826298144</v>
       </c>
       <c r="M14">
-        <v>0.9909709950882519</v>
+        <v>1.069188312152337</v>
       </c>
       <c r="N14">
-        <v>0.994356858089792</v>
+        <v>1.022284806349033</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9484144991434633</v>
+        <v>1.050364670664108</v>
       </c>
       <c r="D15">
-        <v>0.9686404767790434</v>
+        <v>1.057153612540393</v>
       </c>
       <c r="E15">
-        <v>0.9702243099649739</v>
+        <v>1.056755001324087</v>
       </c>
       <c r="F15">
-        <v>0.9765741651258094</v>
+        <v>1.065895491912521</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042847267676791</v>
+        <v>1.028529919642658</v>
       </c>
       <c r="J15">
-        <v>0.9799375100803304</v>
+        <v>1.056795208242712</v>
       </c>
       <c r="K15">
-        <v>0.9841036780654114</v>
+        <v>1.060628610214948</v>
       </c>
       <c r="L15">
-        <v>0.9856552880132744</v>
+        <v>1.06023140613893</v>
       </c>
       <c r="M15">
-        <v>0.9918773348213581</v>
+        <v>1.069339921208573</v>
       </c>
       <c r="N15">
-        <v>0.9946774930933725</v>
+        <v>1.022336929364948</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9549562365884456</v>
+        <v>1.051445523056773</v>
       </c>
       <c r="D16">
-        <v>0.9743355780367247</v>
+        <v>1.05813076455982</v>
       </c>
       <c r="E16">
-        <v>0.9757886105468521</v>
+        <v>1.057710142286123</v>
       </c>
       <c r="F16">
-        <v>0.982401874891822</v>
+        <v>1.06689038256886</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04335813138143</v>
+        <v>1.028543973656391</v>
       </c>
       <c r="J16">
-        <v>0.984995502383751</v>
+        <v>1.057657776568101</v>
       </c>
       <c r="K16">
-        <v>0.9891461127491322</v>
+        <v>1.061491218788992</v>
       </c>
       <c r="L16">
-        <v>0.9905712058249191</v>
+        <v>1.061072028042838</v>
       </c>
       <c r="M16">
-        <v>0.9970586720409027</v>
+        <v>1.070221306400555</v>
       </c>
       <c r="N16">
-        <v>0.996509836056143</v>
+        <v>1.022639802974345</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9589584661457974</v>
+        <v>1.052122803720871</v>
       </c>
       <c r="D17">
-        <v>0.9778238786543725</v>
+        <v>1.05874307511953</v>
       </c>
       <c r="E17">
-        <v>0.9791971005208473</v>
+        <v>1.058308653483534</v>
       </c>
       <c r="F17">
-        <v>0.9859714143818431</v>
+        <v>1.06751369216146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043666131591263</v>
+        <v>1.028551956364952</v>
       </c>
       <c r="J17">
-        <v>0.9880905889995747</v>
+        <v>1.058198056497956</v>
       </c>
       <c r="K17">
-        <v>0.9922322386228088</v>
+        <v>1.062031525391502</v>
       </c>
       <c r="L17">
-        <v>0.9935799839298576</v>
+        <v>1.06159854779248</v>
       </c>
       <c r="M17">
-        <v>1.000229969328238</v>
+        <v>1.070773264110488</v>
       </c>
       <c r="N17">
-        <v>0.9976307457503241</v>
+        <v>1.022829345889021</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9612584160619656</v>
+        <v>1.052517598858631</v>
       </c>
       <c r="D18">
-        <v>0.9798298498794735</v>
+        <v>1.059100001748218</v>
       </c>
       <c r="E18">
-        <v>0.9811572773530897</v>
+        <v>1.058657533797221</v>
       </c>
       <c r="F18">
-        <v>0.9880240837112078</v>
+        <v>1.067876988199641</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043841416907769</v>
+        <v>1.028556312295539</v>
       </c>
       <c r="J18">
-        <v>0.9898693847591199</v>
+        <v>1.058512912686776</v>
       </c>
       <c r="K18">
-        <v>0.9940060725939335</v>
+        <v>1.062346397581523</v>
       </c>
       <c r="L18">
-        <v>0.9953093854652976</v>
+        <v>1.06190537997532</v>
       </c>
       <c r="M18">
-        <v>1.002052789456438</v>
+        <v>1.071094886394332</v>
       </c>
       <c r="N18">
-        <v>0.9982748060009266</v>
+        <v>1.022939745049706</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9620369685407826</v>
+        <v>1.052652171606764</v>
       </c>
       <c r="D19">
-        <v>0.9805091102364075</v>
+        <v>1.059221666894825</v>
       </c>
       <c r="E19">
-        <v>0.9818210472429287</v>
+        <v>1.058776455791733</v>
       </c>
       <c r="F19">
-        <v>0.9887191515508256</v>
+        <v>1.068000817321112</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043900454933677</v>
+        <v>1.028557746623221</v>
       </c>
       <c r="J19">
-        <v>0.990471541635169</v>
+        <v>1.058620223348649</v>
       </c>
       <c r="K19">
-        <v>0.9946065805443031</v>
+        <v>1.062453713767994</v>
       </c>
       <c r="L19">
-        <v>0.9958948552353378</v>
+        <v>1.062009954994304</v>
       </c>
       <c r="M19">
-        <v>1.00266988406953</v>
+        <v>1.071204496415807</v>
       </c>
       <c r="N19">
-        <v>0.9984928062996337</v>
+        <v>1.022977361617693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9585326744819851</v>
+        <v>1.052050164000306</v>
       </c>
       <c r="D20">
-        <v>0.9774526197152843</v>
+        <v>1.058677403218655</v>
       </c>
       <c r="E20">
-        <v>0.9788343250860166</v>
+        <v>1.058244461850063</v>
       </c>
       <c r="F20">
-        <v>0.9855915106420557</v>
+        <v>1.067446844940279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043633540289405</v>
+        <v>1.028551130950942</v>
       </c>
       <c r="J20">
-        <v>0.987761289805946</v>
+        <v>1.058140118609184</v>
       </c>
       <c r="K20">
-        <v>0.9919038729499039</v>
+        <v>1.061973584593557</v>
       </c>
       <c r="L20">
-        <v>0.9932598453664205</v>
+        <v>1.061542086022423</v>
       </c>
       <c r="M20">
-        <v>0.9998925375197043</v>
+        <v>1.070714077995352</v>
       </c>
       <c r="N20">
-        <v>0.9975115020091969</v>
+        <v>1.022809026098558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9467204485038931</v>
+        <v>1.050089995101464</v>
       </c>
       <c r="D21">
-        <v>0.9671670347022606</v>
+        <v>1.056905293703235</v>
       </c>
       <c r="E21">
-        <v>0.9687848132786122</v>
+        <v>1.056512274034207</v>
       </c>
       <c r="F21">
-        <v>0.97506644054378</v>
+        <v>1.065642629402842</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042713603192399</v>
+        <v>1.028526094186577</v>
       </c>
       <c r="J21">
-        <v>0.9786279451385943</v>
+        <v>1.056575937117797</v>
       </c>
       <c r="K21">
-        <v>0.9827983296830028</v>
+        <v>1.060409329367169</v>
       </c>
       <c r="L21">
-        <v>0.9843827226461324</v>
+        <v>1.060017709773102</v>
       </c>
       <c r="M21">
-        <v>0.9905361010326035</v>
+        <v>1.069115833431743</v>
       </c>
       <c r="N21">
-        <v>0.9942029946221352</v>
+        <v>1.022259885678345</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9389375570000109</v>
+        <v>1.048855199870325</v>
       </c>
       <c r="D22">
-        <v>0.960405069696732</v>
+        <v>1.05578900338318</v>
       </c>
       <c r="E22">
-        <v>0.9621792075670886</v>
+        <v>1.055421110174953</v>
       </c>
       <c r="F22">
-        <v>0.9681474220316028</v>
+        <v>1.064505737725501</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042093122189408</v>
+        <v>1.028507648590913</v>
       </c>
       <c r="J22">
-        <v>0.9726131733985374</v>
+        <v>1.055589877935013</v>
       </c>
       <c r="K22">
-        <v>0.976803946325943</v>
+        <v>1.059423229327683</v>
       </c>
       <c r="L22">
-        <v>0.9785390721551896</v>
+        <v>1.05905670008124</v>
       </c>
       <c r="M22">
-        <v>0.9843774420650541</v>
+        <v>1.068107951234081</v>
       </c>
       <c r="N22">
-        <v>0.9920233521098162</v>
+        <v>1.021913170680008</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9430995996489924</v>
+        <v>1.04951001649576</v>
       </c>
       <c r="D23">
-        <v>0.964019629423752</v>
+        <v>1.056380972403566</v>
       </c>
       <c r="E23">
-        <v>0.9657100671712592</v>
+        <v>1.055999756586743</v>
       </c>
       <c r="F23">
-        <v>0.9718458678451557</v>
+        <v>1.065108667223954</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042426186092958</v>
+        <v>1.028517683215221</v>
       </c>
       <c r="J23">
-        <v>0.9758293119234547</v>
+        <v>1.05611285626607</v>
       </c>
       <c r="K23">
-        <v>0.9800089724960053</v>
+        <v>1.059946228722676</v>
       </c>
       <c r="L23">
-        <v>0.981663465907324</v>
+        <v>1.059566396905651</v>
       </c>
       <c r="M23">
-        <v>0.9876701875160177</v>
+        <v>1.06864253674586</v>
       </c>
       <c r="N23">
-        <v>0.9931888705145046</v>
+        <v>1.022097109395787</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9587251774977256</v>
+        <v>1.052082987539527</v>
       </c>
       <c r="D24">
-        <v>0.9776204639477354</v>
+        <v>1.058707078215344</v>
       </c>
       <c r="E24">
-        <v>0.9789983336576497</v>
+        <v>1.058273467969542</v>
       </c>
       <c r="F24">
-        <v>0.9857632632083047</v>
+        <v>1.067477051156232</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043648280359482</v>
+        <v>1.028551504847877</v>
       </c>
       <c r="J24">
-        <v>0.9879101675320852</v>
+        <v>1.058166299112307</v>
       </c>
       <c r="K24">
-        <v>0.9920523280451059</v>
+        <v>1.061999766409856</v>
       </c>
       <c r="L24">
-        <v>0.993404580883625</v>
+        <v>1.061567599524648</v>
       </c>
       <c r="M24">
-        <v>1.000045091349574</v>
+        <v>1.070740822658447</v>
       </c>
       <c r="N24">
-        <v>0.9975654131244419</v>
+        <v>1.022818208225519</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9755197937802103</v>
+        <v>1.055058970748221</v>
       </c>
       <c r="D25">
-        <v>0.9922897447619077</v>
+        <v>1.061397656321672</v>
       </c>
       <c r="E25">
-        <v>0.9933342753002342</v>
+        <v>1.060903346754979</v>
       </c>
       <c r="F25">
-        <v>1.00077305420755</v>
+        <v>1.070214880295123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044896090882968</v>
+        <v>1.028578974076938</v>
       </c>
       <c r="J25">
-        <v>1.000900064924571</v>
+        <v>1.060538260329944</v>
       </c>
       <c r="K25">
-        <v>1.005008943430248</v>
+        <v>1.06437185431008</v>
       </c>
       <c r="L25">
-        <v>1.006036956956946</v>
+        <v>1.063879018378626</v>
       </c>
       <c r="M25">
-        <v>1.013359381346687</v>
+        <v>1.073163041229467</v>
       </c>
       <c r="N25">
-        <v>1.002265596182665</v>
+        <v>1.023648817187134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057425199387504</v>
+        <v>0.9880260939244709</v>
       </c>
       <c r="D2">
-        <v>1.063537018171536</v>
+        <v>1.003245105235456</v>
       </c>
       <c r="E2">
-        <v>1.062994363749441</v>
+        <v>1.004042888615075</v>
       </c>
       <c r="F2">
-        <v>1.072390465722183</v>
+        <v>1.011979683579378</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028591377447806</v>
+        <v>1.045765536479738</v>
       </c>
       <c r="J2">
-        <v>1.062421689620653</v>
+        <v>1.010570937448534</v>
       </c>
       <c r="K2">
-        <v>1.06625539010739</v>
+        <v>1.01465941496773</v>
       </c>
       <c r="L2">
-        <v>1.065714204136541</v>
+        <v>1.01544618546912</v>
       </c>
       <c r="M2">
-        <v>1.075085106733552</v>
+        <v>1.023274607630374</v>
       </c>
       <c r="N2">
-        <v>1.024306450101033</v>
+        <v>1.00575814689811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059139243157481</v>
+        <v>0.9966669999966189</v>
       </c>
       <c r="D3">
-        <v>1.065086739482378</v>
+        <v>1.01082918690743</v>
       </c>
       <c r="E3">
-        <v>1.064509015793468</v>
+        <v>1.011457095503239</v>
       </c>
       <c r="F3">
-        <v>1.07396563762599</v>
+        <v>1.019734995236378</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028594865478385</v>
+        <v>1.046328513327577</v>
       </c>
       <c r="J3">
-        <v>1.06378452191743</v>
+        <v>1.017248940189535</v>
       </c>
       <c r="K3">
-        <v>1.067618298971018</v>
+        <v>1.021325356261628</v>
       </c>
       <c r="L3">
-        <v>1.067042023848593</v>
+        <v>1.02194544978915</v>
       </c>
       <c r="M3">
-        <v>1.076475145401226</v>
+        <v>1.030121439787656</v>
       </c>
       <c r="N3">
-        <v>1.024781196286917</v>
+        <v>1.008165066392582</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060246551893071</v>
+        <v>1.002075803840624</v>
       </c>
       <c r="D4">
-        <v>1.066087892475023</v>
+        <v>1.015582295797888</v>
       </c>
       <c r="E4">
-        <v>1.065487489949915</v>
+        <v>1.016104083538359</v>
       </c>
       <c r="F4">
-        <v>1.074982864391474</v>
+        <v>1.024593880429322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028594567344161</v>
+        <v>1.046662474747893</v>
       </c>
       <c r="J4">
-        <v>1.064664250907067</v>
+        <v>1.021426558983168</v>
       </c>
       <c r="K4">
-        <v>1.068498075854485</v>
+        <v>1.025496224667963</v>
       </c>
       <c r="L4">
-        <v>1.067899101861595</v>
+        <v>1.026011955429639</v>
       </c>
       <c r="M4">
-        <v>1.077372084601603</v>
+        <v>1.034404270780987</v>
       </c>
       <c r="N4">
-        <v>1.025087135501995</v>
+        <v>1.009668305007685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060711646808538</v>
+        <v>1.004308776784228</v>
       </c>
       <c r="D5">
-        <v>1.066508398562654</v>
+        <v>1.01754583690344</v>
       </c>
       <c r="E5">
-        <v>1.065898464742028</v>
+        <v>1.018023855532917</v>
       </c>
       <c r="F5">
-        <v>1.075410033333853</v>
+        <v>1.026600710725959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028593829963519</v>
+        <v>1.046795783068185</v>
       </c>
       <c r="J5">
-        <v>1.065033591438032</v>
+        <v>1.023150551317999</v>
       </c>
       <c r="K5">
-        <v>1.068867435932898</v>
+        <v>1.027217603028738</v>
       </c>
       <c r="L5">
-        <v>1.068258920549246</v>
+        <v>1.027690236861167</v>
       </c>
       <c r="M5">
-        <v>1.077748565600155</v>
+        <v>1.036171522852359</v>
       </c>
       <c r="N5">
-        <v>1.025215455204701</v>
+        <v>1.01028801916811</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060789714127703</v>
+        <v>1.004681381158103</v>
       </c>
       <c r="D6">
-        <v>1.066578981450272</v>
+        <v>1.017873553398734</v>
       </c>
       <c r="E6">
-        <v>1.065967447443734</v>
+        <v>1.018344270717741</v>
       </c>
       <c r="F6">
-        <v>1.075481729395417</v>
+        <v>1.026935627154504</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028593670253109</v>
+        <v>1.046817755048694</v>
       </c>
       <c r="J6">
-        <v>1.065095576414467</v>
+        <v>1.023438181052137</v>
       </c>
       <c r="K6">
-        <v>1.068929424151428</v>
+        <v>1.02750480622538</v>
       </c>
       <c r="L6">
-        <v>1.06831930678998</v>
+        <v>1.02797024788881</v>
       </c>
       <c r="M6">
-        <v>1.07781174392875</v>
+        <v>1.036466358966156</v>
       </c>
       <c r="N6">
-        <v>1.025236983306637</v>
+        <v>1.01039137361004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060252768139541</v>
+        <v>1.002105798110622</v>
       </c>
       <c r="D7">
-        <v>1.066093512772802</v>
+        <v>1.015608666097025</v>
       </c>
       <c r="E7">
-        <v>1.065492982879125</v>
+        <v>1.016129865757434</v>
       </c>
       <c r="F7">
-        <v>1.074988574090334</v>
+        <v>1.024620833764861</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028594559896501</v>
+        <v>1.046664283662072</v>
       </c>
       <c r="J7">
-        <v>1.06466918799619</v>
+        <v>1.021449719289528</v>
       </c>
       <c r="K7">
-        <v>1.068503013207361</v>
+        <v>1.025519349201754</v>
       </c>
       <c r="L7">
-        <v>1.067903911717525</v>
+        <v>1.026034501118718</v>
       </c>
       <c r="M7">
-        <v>1.077377117474561</v>
+        <v>1.034428012950127</v>
       </c>
       <c r="N7">
-        <v>1.025088851279647</v>
+        <v>1.009676632870509</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058004846463322</v>
+        <v>0.9909858714922646</v>
       </c>
       <c r="D8">
-        <v>1.064061094847477</v>
+        <v>1.005841569522132</v>
       </c>
       <c r="E8">
-        <v>1.063506585660896</v>
+        <v>1.006581114590835</v>
       </c>
       <c r="F8">
-        <v>1.072923225147435</v>
+        <v>1.014635069750855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028593085098482</v>
+        <v>1.045962183568933</v>
       </c>
       <c r="J8">
-        <v>1.062882708288527</v>
+        <v>1.012858825393565</v>
       </c>
       <c r="K8">
-        <v>1.066716434877347</v>
+        <v>1.016942990203423</v>
       </c>
       <c r="L8">
-        <v>1.066163388931907</v>
+        <v>1.017672672372543</v>
       </c>
       <c r="M8">
-        <v>1.075555401319762</v>
+        <v>1.025620382748613</v>
       </c>
       <c r="N8">
-        <v>1.024467154058374</v>
+        <v>1.006583259861916</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054029483172698</v>
+        <v>0.9698521828440012</v>
       </c>
       <c r="D9">
-        <v>1.060466887248644</v>
+        <v>0.9873337290047484</v>
       </c>
       <c r="E9">
-        <v>1.059993588063504</v>
+        <v>0.9884904756095054</v>
       </c>
       <c r="F9">
-        <v>1.069267973101042</v>
+        <v>0.9957023367145965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028570931177275</v>
+        <v>1.044484095532693</v>
       </c>
       <c r="J9">
-        <v>1.059718114857391</v>
+        <v>0.9965163743502385</v>
       </c>
       <c r="K9">
-        <v>1.063551663592841</v>
+        <v>1.000635705748917</v>
       </c>
       <c r="L9">
-        <v>1.063079832215952</v>
+        <v>1.001773088379224</v>
       </c>
       <c r="M9">
-        <v>1.072325713558483</v>
+        <v>1.008865527476315</v>
       </c>
       <c r="N9">
-        <v>1.023361914289677</v>
+        <v>1.00068036454746</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051368949510993</v>
+        <v>0.9544991398638508</v>
       </c>
       <c r="D10">
-        <v>1.058061537033398</v>
+        <v>0.9739373707177225</v>
       </c>
       <c r="E10">
-        <v>1.057642474583281</v>
+        <v>0.9753995285356446</v>
       </c>
       <c r="F10">
-        <v>1.066819905805024</v>
+        <v>0.9819943928942931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0285430309114</v>
+        <v>1.043322725116822</v>
       </c>
       <c r="J10">
-        <v>1.057596681608843</v>
+        <v>0.9846420365787497</v>
       </c>
       <c r="K10">
-        <v>1.061430120880547</v>
+        <v>0.9887936970264053</v>
       </c>
       <c r="L10">
-        <v>1.061012488409351</v>
+        <v>0.9902276265531359</v>
       </c>
       <c r="M10">
-        <v>1.070158885610881</v>
+        <v>0.9966965364594101</v>
       </c>
       <c r="N10">
-        <v>1.022618361336561</v>
+        <v>0.9963818074969513</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050214307407181</v>
+        <v>0.947488768191444</v>
       </c>
       <c r="D11">
-        <v>1.057017677333741</v>
+        <v>0.9678352292428416</v>
       </c>
       <c r="E11">
-        <v>1.056622127153141</v>
+        <v>0.9694376084112278</v>
       </c>
       <c r="F11">
-        <v>1.065757071181097</v>
+        <v>0.9757501799651429</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028527838144724</v>
+        <v>1.042774291324364</v>
       </c>
       <c r="J11">
-        <v>1.056675177927869</v>
+        <v>0.9792218706161001</v>
       </c>
       <c r="K11">
-        <v>1.06050857455068</v>
+        <v>0.9833903331032363</v>
       </c>
       <c r="L11">
-        <v>1.060114427686257</v>
+        <v>0.9849598565717073</v>
       </c>
       <c r="M11">
-        <v>1.069217255880808</v>
+        <v>0.9911443749394764</v>
       </c>
       <c r="N11">
-        <v>1.022294757731598</v>
+        <v>0.994418197020201</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049785015355303</v>
+        <v>0.944823952116277</v>
       </c>
       <c r="D12">
-        <v>1.056629580302067</v>
+        <v>0.965518186832013</v>
       </c>
       <c r="E12">
-        <v>1.056242768105572</v>
+        <v>0.9671740042315354</v>
       </c>
       <c r="F12">
-        <v>1.065361854276611</v>
+        <v>0.9733792499829401</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028521727507451</v>
+        <v>1.042563346987203</v>
       </c>
       <c r="J12">
-        <v>1.056332442636275</v>
+        <v>0.9771620269265698</v>
       </c>
       <c r="K12">
-        <v>1.060165824349746</v>
+        <v>0.9813372249580699</v>
       </c>
       <c r="L12">
-        <v>1.059780403970926</v>
+        <v>0.9829583292380237</v>
       </c>
       <c r="M12">
-        <v>1.068866974639479</v>
+        <v>0.9890348723046208</v>
       </c>
       <c r="N12">
-        <v>1.022174306880257</v>
+        <v>0.9936718117516991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049877118580464</v>
+        <v>0.9453984324589566</v>
       </c>
       <c r="D13">
-        <v>1.056712844956258</v>
+        <v>0.9660175745127441</v>
       </c>
       <c r="E13">
-        <v>1.056324158223907</v>
+        <v>0.9676618651758996</v>
       </c>
       <c r="F13">
-        <v>1.065446649412625</v>
+        <v>0.9738902479342275</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028523059407197</v>
+        <v>1.042608929415601</v>
       </c>
       <c r="J13">
-        <v>1.056405980956925</v>
+        <v>0.9776060611296133</v>
       </c>
       <c r="K13">
-        <v>1.060239365822785</v>
+        <v>0.9817797906533566</v>
       </c>
       <c r="L13">
-        <v>1.059852073447548</v>
+        <v>0.9833897732566677</v>
       </c>
       <c r="M13">
-        <v>1.068942134764822</v>
+        <v>0.9894895863954751</v>
       </c>
       <c r="N13">
-        <v>1.022200155371402</v>
+        <v>0.9938327130939437</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050178830367037</v>
+        <v>0.9472697758817915</v>
       </c>
       <c r="D14">
-        <v>1.056985604544096</v>
+        <v>0.9676447634429984</v>
       </c>
       <c r="E14">
-        <v>1.05659077655448</v>
+        <v>0.9692515312198747</v>
       </c>
       <c r="F14">
-        <v>1.065724411323504</v>
+        <v>0.9755552828188003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028527342570952</v>
+        <v>1.042757004586008</v>
       </c>
       <c r="J14">
-        <v>1.056646856519118</v>
+        <v>0.9790525829618428</v>
       </c>
       <c r="K14">
-        <v>1.06048025188923</v>
+        <v>0.9832215916484847</v>
       </c>
       <c r="L14">
-        <v>1.060086826298144</v>
+        <v>0.9847953531478945</v>
       </c>
       <c r="M14">
-        <v>1.069188312152337</v>
+        <v>0.9909709950882495</v>
       </c>
       <c r="N14">
-        <v>1.022284806349033</v>
+        <v>0.9943568580897912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050364670664108</v>
+        <v>0.9484144991434614</v>
       </c>
       <c r="D15">
-        <v>1.057153612540393</v>
+        <v>0.9686404767790411</v>
       </c>
       <c r="E15">
-        <v>1.056755001324087</v>
+        <v>0.9702243099649721</v>
       </c>
       <c r="F15">
-        <v>1.065895491912521</v>
+        <v>0.9765741651258072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028529919642658</v>
+        <v>1.042847267676791</v>
       </c>
       <c r="J15">
-        <v>1.056795208242712</v>
+        <v>0.9799375100803283</v>
       </c>
       <c r="K15">
-        <v>1.060628610214948</v>
+        <v>0.9841036780654092</v>
       </c>
       <c r="L15">
-        <v>1.06023140613893</v>
+        <v>0.9856552880132727</v>
       </c>
       <c r="M15">
-        <v>1.069339921208573</v>
+        <v>0.9918773348213561</v>
       </c>
       <c r="N15">
-        <v>1.022336929364948</v>
+        <v>0.9946774930933718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051445523056773</v>
+        <v>0.9549562365884476</v>
       </c>
       <c r="D16">
-        <v>1.05813076455982</v>
+        <v>0.9743355780367264</v>
       </c>
       <c r="E16">
-        <v>1.057710142286123</v>
+        <v>0.9757886105468542</v>
       </c>
       <c r="F16">
-        <v>1.06689038256886</v>
+        <v>0.9824018748918237</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028543973656391</v>
+        <v>1.04335813138143</v>
       </c>
       <c r="J16">
-        <v>1.057657776568101</v>
+        <v>0.9849955023837528</v>
       </c>
       <c r="K16">
-        <v>1.061491218788992</v>
+        <v>0.989146112749134</v>
       </c>
       <c r="L16">
-        <v>1.061072028042838</v>
+        <v>0.9905712058249209</v>
       </c>
       <c r="M16">
-        <v>1.070221306400555</v>
+        <v>0.9970586720409045</v>
       </c>
       <c r="N16">
-        <v>1.022639802974345</v>
+        <v>0.9965098360561435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052122803720871</v>
+        <v>0.9589584661457966</v>
       </c>
       <c r="D17">
-        <v>1.05874307511953</v>
+        <v>0.9778238786543716</v>
       </c>
       <c r="E17">
-        <v>1.058308653483534</v>
+        <v>0.9791971005208464</v>
       </c>
       <c r="F17">
-        <v>1.06751369216146</v>
+        <v>0.9859714143818425</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028551956364952</v>
+        <v>1.043666131591262</v>
       </c>
       <c r="J17">
-        <v>1.058198056497956</v>
+        <v>0.9880905889995738</v>
       </c>
       <c r="K17">
-        <v>1.062031525391502</v>
+        <v>0.9922322386228081</v>
       </c>
       <c r="L17">
-        <v>1.06159854779248</v>
+        <v>0.9935799839298567</v>
       </c>
       <c r="M17">
-        <v>1.070773264110488</v>
+        <v>1.000229969328238</v>
       </c>
       <c r="N17">
-        <v>1.022829345889021</v>
+        <v>0.9976307457503238</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052517598858631</v>
+        <v>0.9612584160619636</v>
       </c>
       <c r="D18">
-        <v>1.059100001748218</v>
+        <v>0.9798298498794715</v>
       </c>
       <c r="E18">
-        <v>1.058657533797221</v>
+        <v>0.9811572773530878</v>
       </c>
       <c r="F18">
-        <v>1.067876988199641</v>
+        <v>0.988024083711206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028556312295539</v>
+        <v>1.043841416907769</v>
       </c>
       <c r="J18">
-        <v>1.058512912686776</v>
+        <v>0.989869384759118</v>
       </c>
       <c r="K18">
-        <v>1.062346397581523</v>
+        <v>0.9940060725939315</v>
       </c>
       <c r="L18">
-        <v>1.06190537997532</v>
+        <v>0.9953093854652956</v>
       </c>
       <c r="M18">
-        <v>1.071094886394332</v>
+        <v>1.002052789456436</v>
       </c>
       <c r="N18">
-        <v>1.022939745049706</v>
+        <v>0.9982748060009259</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052652171606764</v>
+        <v>0.9620369685407817</v>
       </c>
       <c r="D19">
-        <v>1.059221666894825</v>
+        <v>0.9805091102364064</v>
       </c>
       <c r="E19">
-        <v>1.058776455791733</v>
+        <v>0.9818210472429277</v>
       </c>
       <c r="F19">
-        <v>1.068000817321112</v>
+        <v>0.9887191515508245</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028557746623221</v>
+        <v>1.043900454933677</v>
       </c>
       <c r="J19">
-        <v>1.058620223348649</v>
+        <v>0.990471541635168</v>
       </c>
       <c r="K19">
-        <v>1.062453713767994</v>
+        <v>0.9946065805443023</v>
       </c>
       <c r="L19">
-        <v>1.062009954994304</v>
+        <v>0.9958948552353369</v>
       </c>
       <c r="M19">
-        <v>1.071204496415807</v>
+        <v>1.002669884069529</v>
       </c>
       <c r="N19">
-        <v>1.022977361617693</v>
+        <v>0.9984928062996332</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052050164000306</v>
+        <v>0.9585326744819848</v>
       </c>
       <c r="D20">
-        <v>1.058677403218655</v>
+        <v>0.9774526197152841</v>
       </c>
       <c r="E20">
-        <v>1.058244461850063</v>
+        <v>0.9788343250860164</v>
       </c>
       <c r="F20">
-        <v>1.067446844940279</v>
+        <v>0.9855915106420553</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028551130950942</v>
+        <v>1.043633540289405</v>
       </c>
       <c r="J20">
-        <v>1.058140118609184</v>
+        <v>0.987761289805946</v>
       </c>
       <c r="K20">
-        <v>1.061973584593557</v>
+        <v>0.9919038729499036</v>
       </c>
       <c r="L20">
-        <v>1.061542086022423</v>
+        <v>0.9932598453664203</v>
       </c>
       <c r="M20">
-        <v>1.070714077995352</v>
+        <v>0.9998925375197039</v>
       </c>
       <c r="N20">
-        <v>1.022809026098558</v>
+        <v>0.9975115020091968</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050089995101464</v>
+        <v>0.9467204485038927</v>
       </c>
       <c r="D21">
-        <v>1.056905293703235</v>
+        <v>0.96716703470226</v>
       </c>
       <c r="E21">
-        <v>1.056512274034207</v>
+        <v>0.9687848132786117</v>
       </c>
       <c r="F21">
-        <v>1.065642629402842</v>
+        <v>0.9750664405437793</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028526094186577</v>
+        <v>1.042713603192398</v>
       </c>
       <c r="J21">
-        <v>1.056575937117797</v>
+        <v>0.9786279451385937</v>
       </c>
       <c r="K21">
-        <v>1.060409329367169</v>
+        <v>0.9827983296830023</v>
       </c>
       <c r="L21">
-        <v>1.060017709773102</v>
+        <v>0.9843827226461317</v>
       </c>
       <c r="M21">
-        <v>1.069115833431743</v>
+        <v>0.9905361010326029</v>
       </c>
       <c r="N21">
-        <v>1.022259885678345</v>
+        <v>0.9942029946221351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048855199870325</v>
+        <v>0.938937557000008</v>
       </c>
       <c r="D22">
-        <v>1.05578900338318</v>
+        <v>0.9604050696967292</v>
       </c>
       <c r="E22">
-        <v>1.055421110174953</v>
+        <v>0.9621792075670864</v>
       </c>
       <c r="F22">
-        <v>1.064505737725501</v>
+        <v>0.9681474220316</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028507648590913</v>
+        <v>1.042093122189407</v>
       </c>
       <c r="J22">
-        <v>1.055589877935013</v>
+        <v>0.9726131733985348</v>
       </c>
       <c r="K22">
-        <v>1.059423229327683</v>
+        <v>0.9768039463259406</v>
       </c>
       <c r="L22">
-        <v>1.05905670008124</v>
+        <v>0.9785390721551871</v>
       </c>
       <c r="M22">
-        <v>1.068107951234081</v>
+        <v>0.9843774420650513</v>
       </c>
       <c r="N22">
-        <v>1.021913170680008</v>
+        <v>0.9920233521098153</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04951001649576</v>
+        <v>0.9430995996489909</v>
       </c>
       <c r="D23">
-        <v>1.056380972403566</v>
+        <v>0.9640196294237504</v>
       </c>
       <c r="E23">
-        <v>1.055999756586743</v>
+        <v>0.9657100671712574</v>
       </c>
       <c r="F23">
-        <v>1.065108667223954</v>
+        <v>0.9718458678451541</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028517683215221</v>
+        <v>1.042426186092958</v>
       </c>
       <c r="J23">
-        <v>1.05611285626607</v>
+        <v>0.9758293119234532</v>
       </c>
       <c r="K23">
-        <v>1.059946228722676</v>
+        <v>0.9800089724960037</v>
       </c>
       <c r="L23">
-        <v>1.059566396905651</v>
+        <v>0.9816634659073223</v>
       </c>
       <c r="M23">
-        <v>1.06864253674586</v>
+        <v>0.987670187516016</v>
       </c>
       <c r="N23">
-        <v>1.022097109395787</v>
+        <v>0.993188870514504</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C24">
-        <v>1.052082987539527</v>
+        <v>0.9587251774977256</v>
       </c>
       <c r="D24">
-        <v>1.058707078215344</v>
+        <v>0.9776204639477353</v>
       </c>
       <c r="E24">
-        <v>1.058273467969542</v>
+        <v>0.9789983336576497</v>
       </c>
       <c r="F24">
-        <v>1.067477051156232</v>
+        <v>0.9857632632083045</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028551504847877</v>
+        <v>1.043648280359483</v>
       </c>
       <c r="J24">
-        <v>1.058166299112307</v>
+        <v>0.987910167532085</v>
       </c>
       <c r="K24">
-        <v>1.061999766409856</v>
+        <v>0.992052328045106</v>
       </c>
       <c r="L24">
-        <v>1.061567599524648</v>
+        <v>0.993404580883625</v>
       </c>
       <c r="M24">
-        <v>1.070740822658447</v>
+        <v>1.000045091349574</v>
       </c>
       <c r="N24">
-        <v>1.022818208225519</v>
+        <v>0.9975654131244419</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055058970748221</v>
+        <v>0.9755197937802101</v>
       </c>
       <c r="D25">
-        <v>1.061397656321672</v>
+        <v>0.9922897447619072</v>
       </c>
       <c r="E25">
-        <v>1.060903346754979</v>
+        <v>0.9933342753002338</v>
       </c>
       <c r="F25">
-        <v>1.070214880295123</v>
+        <v>1.000773054207549</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028578974076938</v>
+        <v>1.044896090882968</v>
       </c>
       <c r="J25">
-        <v>1.060538260329944</v>
+        <v>1.000900064924571</v>
       </c>
       <c r="K25">
-        <v>1.06437185431008</v>
+        <v>1.005008943430247</v>
       </c>
       <c r="L25">
-        <v>1.063879018378626</v>
+        <v>1.006036956956945</v>
       </c>
       <c r="M25">
-        <v>1.073163041229467</v>
+        <v>1.013359381346687</v>
       </c>
       <c r="N25">
-        <v>1.023648817187134</v>
+        <v>1.002265596182665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9880260939244709</v>
+        <v>1.022532418432848</v>
       </c>
       <c r="D2">
-        <v>1.003245105235456</v>
+        <v>1.037008295944414</v>
       </c>
       <c r="E2">
-        <v>1.004042888615075</v>
+        <v>1.035195130623705</v>
       </c>
       <c r="F2">
-        <v>1.011979683579378</v>
+        <v>1.044696544176973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045765536479738</v>
+        <v>1.051817043495542</v>
       </c>
       <c r="J2">
-        <v>1.010570937448534</v>
+        <v>1.044059458975534</v>
       </c>
       <c r="K2">
-        <v>1.01465941496773</v>
+        <v>1.047975043439892</v>
       </c>
       <c r="L2">
-        <v>1.01544618546912</v>
+        <v>1.046184986095437</v>
       </c>
       <c r="M2">
-        <v>1.023274607630374</v>
+        <v>1.055566419237134</v>
       </c>
       <c r="N2">
-        <v>1.00575814689811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018039332017733</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.052549385267882</v>
+      </c>
+      <c r="Q2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R2">
+        <v>1.044992773444407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +486,105 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9966669999966189</v>
+        <v>1.026674194440273</v>
       </c>
       <c r="D3">
-        <v>1.01082918690743</v>
+        <v>1.040089896051657</v>
       </c>
       <c r="E3">
-        <v>1.011457095503239</v>
+        <v>1.038444487907268</v>
       </c>
       <c r="F3">
-        <v>1.019734995236378</v>
+        <v>1.04775885672818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046328513327577</v>
+        <v>1.052604239548659</v>
       </c>
       <c r="J3">
-        <v>1.017248940189535</v>
+        <v>1.046463194422916</v>
       </c>
       <c r="K3">
-        <v>1.021325356261628</v>
+        <v>1.050234282303729</v>
       </c>
       <c r="L3">
-        <v>1.02194544978915</v>
+        <v>1.048608005146632</v>
       </c>
       <c r="M3">
-        <v>1.030121439787656</v>
+        <v>1.057815054763089</v>
       </c>
       <c r="N3">
-        <v>1.008165066392582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.0188867656808</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.054328998312499</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046587585136191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.002075803840624</v>
+        <v>1.02930585202651</v>
       </c>
       <c r="D4">
-        <v>1.015582295797888</v>
+        <v>1.042054394789106</v>
       </c>
       <c r="E4">
-        <v>1.016104083538359</v>
+        <v>1.040514905551481</v>
       </c>
       <c r="F4">
-        <v>1.024593880429322</v>
+        <v>1.049711383948836</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046662474747893</v>
+        <v>1.053093554340381</v>
       </c>
       <c r="J4">
-        <v>1.021426558983168</v>
+        <v>1.04798849980602</v>
       </c>
       <c r="K4">
-        <v>1.025496224667963</v>
+        <v>1.051670431913938</v>
       </c>
       <c r="L4">
-        <v>1.026011955429639</v>
+        <v>1.050147756728665</v>
       </c>
       <c r="M4">
-        <v>1.034404270780987</v>
+        <v>1.059244690378853</v>
       </c>
       <c r="N4">
-        <v>1.009668305007685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01942411330632</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055460437032044</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047603935535745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004308776784228</v>
+        <v>1.030406481248389</v>
       </c>
       <c r="D5">
-        <v>1.01754583690344</v>
+        <v>1.042880029546836</v>
       </c>
       <c r="E5">
-        <v>1.018023855532917</v>
+        <v>1.041382913288722</v>
       </c>
       <c r="F5">
-        <v>1.026600710725959</v>
+        <v>1.050530400619426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046795783068185</v>
+        <v>1.05329684815667</v>
       </c>
       <c r="J5">
-        <v>1.023150551317999</v>
+        <v>1.048628091445456</v>
       </c>
       <c r="K5">
-        <v>1.027217603028738</v>
+        <v>1.052274740197969</v>
       </c>
       <c r="L5">
-        <v>1.027690236861167</v>
+        <v>1.050793537511045</v>
       </c>
       <c r="M5">
-        <v>1.036171522852359</v>
+        <v>1.059844656785672</v>
       </c>
       <c r="N5">
-        <v>1.01028801916811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01964992976352</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055935260475502</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048038318419495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004681381158103</v>
+        <v>1.030597328707316</v>
       </c>
       <c r="D6">
-        <v>1.017873553398734</v>
+        <v>1.043026318653385</v>
       </c>
       <c r="E6">
-        <v>1.018344270717741</v>
+        <v>1.041534408839366</v>
       </c>
       <c r="F6">
-        <v>1.026935627154504</v>
+        <v>1.050673517100444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046817755048694</v>
+        <v>1.053333531568408</v>
       </c>
       <c r="J6">
-        <v>1.023438181052137</v>
+        <v>1.048741617761158</v>
       </c>
       <c r="K6">
-        <v>1.02750480622538</v>
+        <v>1.052383832230836</v>
       </c>
       <c r="L6">
-        <v>1.02797024788881</v>
+        <v>1.050907707510008</v>
       </c>
       <c r="M6">
-        <v>1.036466358966156</v>
+        <v>1.059950979108128</v>
       </c>
       <c r="N6">
-        <v>1.01039137361004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019690729968115</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056019405707917</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048124104413497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002105798110622</v>
+        <v>1.029338724651329</v>
       </c>
       <c r="D7">
-        <v>1.015608666097025</v>
+        <v>1.042087191135817</v>
       </c>
       <c r="E7">
-        <v>1.016129865757434</v>
+        <v>1.040543277632898</v>
       </c>
       <c r="F7">
-        <v>1.024620833764861</v>
+        <v>1.049738548491084</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046664283662072</v>
+        <v>1.053103943191954</v>
       </c>
       <c r="J7">
-        <v>1.021449719289528</v>
+        <v>1.048014767002998</v>
       </c>
       <c r="K7">
-        <v>1.025519349201754</v>
+        <v>1.051700030636569</v>
       </c>
       <c r="L7">
-        <v>1.026034501118718</v>
+        <v>1.050172972685999</v>
       </c>
       <c r="M7">
-        <v>1.034428012950127</v>
+        <v>1.059268751407422</v>
       </c>
       <c r="N7">
-        <v>1.009676632870509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019435364757341</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05547947933796</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047644765066514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9909858714922646</v>
+        <v>1.023965560303818</v>
       </c>
       <c r="D8">
-        <v>1.005841569522132</v>
+        <v>1.038083440978528</v>
       </c>
       <c r="E8">
-        <v>1.006581114590835</v>
+        <v>1.036321469062284</v>
       </c>
       <c r="F8">
-        <v>1.014635069750855</v>
+        <v>1.045758211577413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045962183568933</v>
+        <v>1.052097086804505</v>
       </c>
       <c r="J8">
-        <v>1.012858825393565</v>
+        <v>1.044900698835653</v>
       </c>
       <c r="K8">
-        <v>1.016942990203423</v>
+        <v>1.048771121863574</v>
       </c>
       <c r="L8">
-        <v>1.017672672372543</v>
+        <v>1.047030931904884</v>
       </c>
       <c r="M8">
-        <v>1.025620382748613</v>
+        <v>1.056352078515437</v>
       </c>
       <c r="N8">
-        <v>1.006583259861916</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018338601709369</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053171171482637</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045578357810972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9698521828440012</v>
+        <v>1.014080034345055</v>
       </c>
       <c r="D9">
-        <v>0.9873337290047484</v>
+        <v>1.030757184128717</v>
       </c>
       <c r="E9">
-        <v>0.9884904756095054</v>
+        <v>1.028597879226476</v>
       </c>
       <c r="F9">
-        <v>0.9957023367145965</v>
+        <v>1.038486282197484</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044484095532693</v>
+        <v>1.050153312608482</v>
       </c>
       <c r="J9">
-        <v>0.9965163743502385</v>
+        <v>1.039145203197962</v>
       </c>
       <c r="K9">
-        <v>1.000635705748917</v>
+        <v>1.043370206456868</v>
       </c>
       <c r="L9">
-        <v>1.001773088379224</v>
+        <v>1.04124341018959</v>
       </c>
       <c r="M9">
-        <v>1.008865527476315</v>
+        <v>1.05098434926551</v>
       </c>
       <c r="N9">
-        <v>1.00068036454746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016305215337072</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048923034648285</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041756451061127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9544991398638508</v>
+        <v>1.007293193560719</v>
       </c>
       <c r="D10">
-        <v>0.9739373707177225</v>
+        <v>1.025789251651368</v>
       </c>
       <c r="E10">
-        <v>0.9753995285356446</v>
+        <v>1.023356558268597</v>
       </c>
       <c r="F10">
-        <v>0.9819943928942931</v>
+        <v>1.033588088318581</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043322725116822</v>
+        <v>1.048787231520526</v>
       </c>
       <c r="J10">
-        <v>0.9846420365787497</v>
+        <v>1.03522040863202</v>
       </c>
       <c r="K10">
-        <v>0.9887936970264053</v>
+        <v>1.039707978451089</v>
       </c>
       <c r="L10">
-        <v>0.9902276265531359</v>
+        <v>1.037316530806912</v>
       </c>
       <c r="M10">
-        <v>0.9966965364594101</v>
+        <v>1.047376272848193</v>
       </c>
       <c r="N10">
-        <v>0.9963818074969513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014926865493717</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046118477337786</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039183761816397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.947488768191444</v>
+        <v>1.004987853269815</v>
       </c>
       <c r="D11">
-        <v>0.9678352292428416</v>
+        <v>1.02429244646638</v>
       </c>
       <c r="E11">
-        <v>0.9694376084112278</v>
+        <v>1.021796583567272</v>
       </c>
       <c r="F11">
-        <v>0.9757501799651429</v>
+        <v>1.032365772369064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042774291324364</v>
+        <v>1.048487756930295</v>
       </c>
       <c r="J11">
-        <v>0.9792218706161001</v>
+        <v>1.034154593851818</v>
       </c>
       <c r="K11">
-        <v>0.9833903331032363</v>
+        <v>1.03877033678548</v>
       </c>
       <c r="L11">
-        <v>0.9849598565717073</v>
+        <v>1.036318830834304</v>
       </c>
       <c r="M11">
-        <v>0.9911443749394764</v>
+        <v>1.046702083158113</v>
       </c>
       <c r="N11">
-        <v>0.994418197020201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014633627388792</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046017382715233</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038553496264841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.944823952116277</v>
+        <v>1.004385823509234</v>
       </c>
       <c r="D12">
-        <v>0.965518186832013</v>
+        <v>1.023984489987233</v>
       </c>
       <c r="E12">
-        <v>0.9671740042315354</v>
+        <v>1.021493704107466</v>
       </c>
       <c r="F12">
-        <v>0.9733792499829401</v>
+        <v>1.032254088271769</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042563346987203</v>
+        <v>1.04849441038998</v>
       </c>
       <c r="J12">
-        <v>0.9771620269265698</v>
+        <v>1.034005720307035</v>
       </c>
       <c r="K12">
-        <v>0.9813372249580699</v>
+        <v>1.038666172493234</v>
       </c>
       <c r="L12">
-        <v>0.9829583292380237</v>
+        <v>1.036220387370424</v>
       </c>
       <c r="M12">
-        <v>0.9890348723046208</v>
+        <v>1.046788384194077</v>
       </c>
       <c r="N12">
-        <v>0.9936718117516991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014646329267597</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046409471697302</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038479849402728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9453984324589566</v>
+        <v>1.005080725258862</v>
       </c>
       <c r="D13">
-        <v>0.9660175745127441</v>
+        <v>1.024600182601433</v>
       </c>
       <c r="E13">
-        <v>0.9676618651758996</v>
+        <v>1.022161999566657</v>
       </c>
       <c r="F13">
-        <v>0.9738902479342275</v>
+        <v>1.033019368564888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042608929415601</v>
+        <v>1.048752351383802</v>
       </c>
       <c r="J13">
-        <v>0.9776060611296133</v>
+        <v>1.034579764733321</v>
       </c>
       <c r="K13">
-        <v>0.9817797906533566</v>
+        <v>1.03922828057598</v>
       </c>
       <c r="L13">
-        <v>0.9833897732566677</v>
+        <v>1.036833929302436</v>
       </c>
       <c r="M13">
-        <v>0.9894895863954751</v>
+        <v>1.047498174296383</v>
       </c>
       <c r="N13">
-        <v>0.9938327130939437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014907342717472</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047245398583281</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038874794439736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9472697758817915</v>
+        <v>1.006156562808803</v>
       </c>
       <c r="D14">
-        <v>0.9676447634429984</v>
+        <v>1.025452394548988</v>
       </c>
       <c r="E14">
-        <v>0.9692515312198747</v>
+        <v>1.023071164995915</v>
       </c>
       <c r="F14">
-        <v>0.9755552828188003</v>
+        <v>1.033954039653154</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042757004586008</v>
+        <v>1.049047115312222</v>
       </c>
       <c r="J14">
-        <v>0.9790525829618428</v>
+        <v>1.035310737105641</v>
       </c>
       <c r="K14">
-        <v>0.9832215916484847</v>
+        <v>1.039926126629987</v>
       </c>
       <c r="L14">
-        <v>0.9847953531478945</v>
+        <v>1.03758714133251</v>
       </c>
       <c r="M14">
-        <v>0.9909709950882495</v>
+        <v>1.048279002076619</v>
       </c>
       <c r="N14">
-        <v>0.9943568580897912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015203277401284</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048034856971185</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039369606897503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9484144991434614</v>
+        <v>1.006708673621355</v>
       </c>
       <c r="D15">
-        <v>0.9686404767790411</v>
+        <v>1.02587195452263</v>
       </c>
       <c r="E15">
-        <v>0.9702243099649721</v>
+        <v>1.023513896284993</v>
       </c>
       <c r="F15">
-        <v>0.9765741651258072</v>
+        <v>1.034386742640269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042847267676791</v>
+        <v>1.049177565449666</v>
       </c>
       <c r="J15">
-        <v>0.9799375100803283</v>
+        <v>1.035655585738285</v>
       </c>
       <c r="K15">
-        <v>0.9841036780654092</v>
+        <v>1.040252605349581</v>
       </c>
       <c r="L15">
-        <v>0.9856552880132727</v>
+        <v>1.037936049831585</v>
       </c>
       <c r="M15">
-        <v>0.9918773348213561</v>
+        <v>1.048619566285788</v>
       </c>
       <c r="N15">
-        <v>0.9946774930933718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015333360565744</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04834135745248</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03960627352061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9549562365884476</v>
+        <v>1.009452957269981</v>
       </c>
       <c r="D16">
-        <v>0.9743355780367264</v>
+        <v>1.027863795050556</v>
       </c>
       <c r="E16">
-        <v>0.9757886105468542</v>
+        <v>1.025609437009758</v>
       </c>
       <c r="F16">
-        <v>0.9824018748918237</v>
+        <v>1.036337271541836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04335813138143</v>
+        <v>1.049722735914968</v>
       </c>
       <c r="J16">
-        <v>0.9849955023837528</v>
+        <v>1.03722087791356</v>
       </c>
       <c r="K16">
-        <v>0.989146112749134</v>
+        <v>1.041712291437626</v>
       </c>
       <c r="L16">
-        <v>0.9905712058249209</v>
+        <v>1.039495837061344</v>
       </c>
       <c r="M16">
-        <v>0.9970586720409045</v>
+        <v>1.050045195661985</v>
       </c>
       <c r="N16">
-        <v>0.9965098360561435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015871594603946</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049429702914555</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040641455460744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9589584661457966</v>
+        <v>1.010995781617021</v>
       </c>
       <c r="D17">
-        <v>0.9778238786543716</v>
+        <v>1.028946890635447</v>
       </c>
       <c r="E17">
-        <v>0.9791971005208464</v>
+        <v>1.026741883461022</v>
       </c>
       <c r="F17">
-        <v>0.9859714143818425</v>
+        <v>1.037341295935043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043666131591262</v>
+        <v>1.049983724771859</v>
       </c>
       <c r="J17">
-        <v>0.9880905889995738</v>
+        <v>1.0380378688538</v>
       </c>
       <c r="K17">
-        <v>0.9922322386228081</v>
+        <v>1.042465723475648</v>
       </c>
       <c r="L17">
-        <v>0.9935799839298567</v>
+        <v>1.04029673262049</v>
       </c>
       <c r="M17">
-        <v>1.000229969328238</v>
+        <v>1.050724811402168</v>
       </c>
       <c r="N17">
-        <v>0.9976307457503238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016129071666529</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049838729177934</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041176722157337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9612584160619636</v>
+        <v>1.011630446337207</v>
       </c>
       <c r="D18">
-        <v>0.9798298498794715</v>
+        <v>1.029318763576334</v>
       </c>
       <c r="E18">
-        <v>0.9811572773530878</v>
+        <v>1.027122557849458</v>
       </c>
       <c r="F18">
-        <v>0.988024083711206</v>
+        <v>1.037582391026316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043841416907769</v>
+        <v>1.050015107506432</v>
       </c>
       <c r="J18">
-        <v>0.989869384759118</v>
+        <v>1.038261157247264</v>
       </c>
       <c r="K18">
-        <v>0.9940060725939315</v>
+        <v>1.042649905571523</v>
       </c>
       <c r="L18">
-        <v>0.9953093854652956</v>
+        <v>1.040488986581973</v>
       </c>
       <c r="M18">
-        <v>1.002052789456436</v>
+        <v>1.050782472717442</v>
       </c>
       <c r="N18">
-        <v>0.9982748060009259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016157315244967</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049648456703347</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04129538349373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9620369685407817</v>
+        <v>1.011482035603263</v>
       </c>
       <c r="D19">
-        <v>0.9805091102364064</v>
+        <v>1.029088522456569</v>
       </c>
       <c r="E19">
-        <v>0.9818210472429277</v>
+        <v>1.026857245782656</v>
       </c>
       <c r="F19">
-        <v>0.9887191515508245</v>
+        <v>1.037164121055958</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043900454933677</v>
+        <v>1.049858827619396</v>
       </c>
       <c r="J19">
-        <v>0.990471541635168</v>
+        <v>1.037986040143171</v>
       </c>
       <c r="K19">
-        <v>0.9946065805443023</v>
+        <v>1.042361398638366</v>
       </c>
       <c r="L19">
-        <v>0.9958948552353369</v>
+        <v>1.040165803316669</v>
       </c>
       <c r="M19">
-        <v>1.002669884069529</v>
+        <v>1.050309497869399</v>
       </c>
       <c r="N19">
-        <v>0.9984928062996332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015999706532858</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048951811800921</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041097756466848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9585326744819848</v>
+        <v>1.009105487957006</v>
       </c>
       <c r="D20">
-        <v>0.9774526197152841</v>
+        <v>1.027135217095802</v>
       </c>
       <c r="E20">
-        <v>0.9788343250860164</v>
+        <v>1.024762277234143</v>
       </c>
       <c r="F20">
-        <v>0.9855915106420553</v>
+        <v>1.034903665348589</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043633540289405</v>
+        <v>1.049168089231607</v>
       </c>
       <c r="J20">
-        <v>0.987761289805946</v>
+        <v>1.036289865156386</v>
       </c>
       <c r="K20">
-        <v>0.9919038729499036</v>
+        <v>1.040717137206341</v>
       </c>
       <c r="L20">
-        <v>0.9932598453664203</v>
+        <v>1.038383251658224</v>
       </c>
       <c r="M20">
-        <v>0.9998925375197039</v>
+        <v>1.048359338395523</v>
       </c>
       <c r="N20">
-        <v>0.9975115020091968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015309013436928</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046886010235402</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039939119910327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9467204485038927</v>
+        <v>1.003870596999107</v>
       </c>
       <c r="D21">
-        <v>0.96716703470226</v>
+        <v>1.023279156295774</v>
       </c>
       <c r="E21">
-        <v>0.9687848132786117</v>
+        <v>1.020691149454149</v>
       </c>
       <c r="F21">
-        <v>0.9750664405437793</v>
+        <v>1.031055468340537</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042713603192398</v>
+        <v>1.048062113552633</v>
       </c>
       <c r="J21">
-        <v>0.9786279451385937</v>
+        <v>1.033207376805532</v>
       </c>
       <c r="K21">
-        <v>0.9827983296830023</v>
+        <v>1.037832523566099</v>
       </c>
       <c r="L21">
-        <v>0.9843827226461317</v>
+        <v>1.03529084596681</v>
       </c>
       <c r="M21">
-        <v>0.9905361010326029</v>
+        <v>1.045471440541013</v>
       </c>
       <c r="N21">
-        <v>0.9942029946221351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014210809999986</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044559974360714</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037902835314872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.938937557000008</v>
+        <v>1.000531149964118</v>
       </c>
       <c r="D22">
-        <v>0.9604050696967292</v>
+        <v>1.020830501551538</v>
       </c>
       <c r="E22">
-        <v>0.9621792075670864</v>
+        <v>1.018112166739166</v>
       </c>
       <c r="F22">
-        <v>0.9681474220316</v>
+        <v>1.028633974264365</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042093122189407</v>
+        <v>1.047351716160107</v>
       </c>
       <c r="J22">
-        <v>0.9726131733985348</v>
+        <v>1.031248047872104</v>
       </c>
       <c r="K22">
-        <v>0.9768039463259406</v>
+        <v>1.036000296599937</v>
       </c>
       <c r="L22">
-        <v>0.9785390721551871</v>
+        <v>1.033333159180539</v>
       </c>
       <c r="M22">
-        <v>0.9843774420650513</v>
+        <v>1.043658756566698</v>
       </c>
       <c r="N22">
-        <v>0.9920233521098153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01351444324918</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043125363143999</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036593935391284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,81 +1546,105 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9430995996489909</v>
+        <v>1.002289238669169</v>
       </c>
       <c r="D23">
-        <v>0.9640196294237504</v>
+        <v>1.022111153690034</v>
       </c>
       <c r="E23">
-        <v>0.9657100671712574</v>
+        <v>1.019466283056457</v>
       </c>
       <c r="F23">
-        <v>0.9718458678451541</v>
+        <v>1.029905056197315</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042426186092958</v>
+        <v>1.047722679663098</v>
       </c>
       <c r="J23">
-        <v>0.9758293119234532</v>
+        <v>1.03227260316811</v>
       </c>
       <c r="K23">
-        <v>0.9800089724960037</v>
+        <v>1.036953978244862</v>
       </c>
       <c r="L23">
-        <v>0.9816634659073223</v>
+        <v>1.034357609481545</v>
       </c>
       <c r="M23">
-        <v>0.987670187516016</v>
+        <v>1.044606837165529</v>
       </c>
       <c r="N23">
-        <v>0.993188870514504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013876366985123</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043875702264594</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037258622633631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9587251774977256</v>
+        <v>1.00909691325036</v>
       </c>
       <c r="D24">
-        <v>0.9776204639477353</v>
+        <v>1.027100168338441</v>
       </c>
       <c r="E24">
-        <v>0.9789983336576497</v>
+        <v>1.024731236183611</v>
       </c>
       <c r="F24">
-        <v>0.9857632632083045</v>
+        <v>1.034850873112422</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043648280359483</v>
+        <v>1.049143982051191</v>
       </c>
       <c r="J24">
-        <v>0.987910167532085</v>
+        <v>1.036249226593399</v>
       </c>
       <c r="K24">
-        <v>0.992052328045106</v>
+        <v>1.040667521110932</v>
       </c>
       <c r="L24">
-        <v>0.993404580883625</v>
+        <v>1.038337530642023</v>
       </c>
       <c r="M24">
-        <v>1.000045091349574</v>
+        <v>1.048292414380261</v>
       </c>
       <c r="N24">
-        <v>0.9975654131244419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015284246617019</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046792570132978</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039876782927836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9755197937802101</v>
+        <v>1.016714738579078</v>
       </c>
       <c r="D25">
-        <v>0.9922897447619072</v>
+        <v>1.032716304953239</v>
       </c>
       <c r="E25">
-        <v>0.9933342753002338</v>
+        <v>1.030654844836242</v>
       </c>
       <c r="F25">
-        <v>1.000773054207549</v>
+        <v>1.040422148410237</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044896090882968</v>
+        <v>1.050687902688702</v>
       </c>
       <c r="J25">
-        <v>1.000900064924571</v>
+        <v>1.040692387930819</v>
       </c>
       <c r="K25">
-        <v>1.005008943430247</v>
+        <v>1.044827117079327</v>
       </c>
       <c r="L25">
-        <v>1.006036956956945</v>
+        <v>1.042795217309015</v>
       </c>
       <c r="M25">
-        <v>1.013359381346687</v>
+        <v>1.052423772827116</v>
       </c>
       <c r="N25">
-        <v>1.002265596182665</v>
+        <v>1.016855657161649</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.050062227904077</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042814946474965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022532418432848</v>
+        <v>1.021165868730735</v>
       </c>
       <c r="D2">
-        <v>1.037008295944414</v>
+        <v>1.034821067325565</v>
       </c>
       <c r="E2">
-        <v>1.035195130623705</v>
+        <v>1.033996818610628</v>
       </c>
       <c r="F2">
-        <v>1.044696544176973</v>
+        <v>1.04333851797901</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051817043495542</v>
+        <v>1.05140356300646</v>
       </c>
       <c r="J2">
-        <v>1.044059458975534</v>
+        <v>1.042731430490079</v>
       </c>
       <c r="K2">
-        <v>1.047975043439892</v>
+        <v>1.045815702656959</v>
       </c>
       <c r="L2">
-        <v>1.046184986095437</v>
+        <v>1.045002001622068</v>
       </c>
       <c r="M2">
-        <v>1.055566419237134</v>
+        <v>1.05422537481813</v>
       </c>
       <c r="N2">
-        <v>1.018039332017733</v>
+        <v>1.018176854767179</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052549385267882</v>
+        <v>1.051488055135586</v>
       </c>
       <c r="Q2">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044992773444407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043474659926984</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023948376029655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,105 +501,123 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026674194440273</v>
+        <v>1.025033832554363</v>
       </c>
       <c r="D3">
-        <v>1.040089896051657</v>
+        <v>1.037569484970538</v>
       </c>
       <c r="E3">
-        <v>1.038444487907268</v>
+        <v>1.03700087830084</v>
       </c>
       <c r="F3">
-        <v>1.04775885672818</v>
+        <v>1.046160060879602</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052604239548659</v>
+        <v>1.052086926250148</v>
       </c>
       <c r="J3">
-        <v>1.046463194422916</v>
+        <v>1.044864558400084</v>
       </c>
       <c r="K3">
-        <v>1.050234282303729</v>
+        <v>1.047743206341901</v>
       </c>
       <c r="L3">
-        <v>1.048608005146632</v>
+        <v>1.047181242083035</v>
       </c>
       <c r="M3">
-        <v>1.057815054763089</v>
+        <v>1.056234512410802</v>
       </c>
       <c r="N3">
-        <v>1.0188867656808</v>
+        <v>1.01876977307611</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054328998312499</v>
+        <v>1.053078127386313</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046587585136191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044834631613753</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024386778154806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02930585202651</v>
+        <v>1.027493875825076</v>
       </c>
       <c r="D4">
-        <v>1.042054394789106</v>
+        <v>1.039323809641063</v>
       </c>
       <c r="E4">
-        <v>1.040514905551481</v>
+        <v>1.038917346713529</v>
       </c>
       <c r="F4">
-        <v>1.049711383948836</v>
+        <v>1.047961223547958</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053093554340381</v>
+        <v>1.052511007039114</v>
       </c>
       <c r="J4">
-        <v>1.04798849980602</v>
+        <v>1.046219506963695</v>
       </c>
       <c r="K4">
-        <v>1.051670431913938</v>
+        <v>1.048969711752886</v>
       </c>
       <c r="L4">
-        <v>1.050147756728665</v>
+        <v>1.04856771088513</v>
       </c>
       <c r="M4">
-        <v>1.059244690378853</v>
+        <v>1.057513309130342</v>
       </c>
       <c r="N4">
-        <v>1.01942411330632</v>
+        <v>1.0191462621967</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055460437032044</v>
+        <v>1.054090191306759</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047603935535745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045702830981881</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024663317948664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030406481248389</v>
+        <v>1.028523056342007</v>
       </c>
       <c r="D5">
-        <v>1.042880029546836</v>
+        <v>1.040061762433413</v>
       </c>
       <c r="E5">
-        <v>1.041382913288722</v>
+        <v>1.039721209520905</v>
       </c>
       <c r="F5">
-        <v>1.050530400619426</v>
+        <v>1.048717152244157</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05329684815667</v>
+        <v>1.052687082194027</v>
       </c>
       <c r="J5">
-        <v>1.048628091445456</v>
+        <v>1.046788014529055</v>
       </c>
       <c r="K5">
-        <v>1.052274740197969</v>
+        <v>1.04948647640257</v>
       </c>
       <c r="L5">
-        <v>1.050793537511045</v>
+        <v>1.049149562511333</v>
       </c>
       <c r="M5">
-        <v>1.059844656785672</v>
+        <v>1.058050347593147</v>
       </c>
       <c r="N5">
-        <v>1.01964992976352</v>
+        <v>1.019304628699554</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055935260475502</v>
+        <v>1.05451521330407</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048038318419495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046076030317394</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024779955980201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030597328707316</v>
+        <v>1.028701280660637</v>
       </c>
       <c r="D6">
-        <v>1.043026318653385</v>
+        <v>1.040192703342117</v>
       </c>
       <c r="E6">
-        <v>1.041534408839366</v>
+        <v>1.039861359758853</v>
       </c>
       <c r="F6">
-        <v>1.050673517100444</v>
+        <v>1.048849157475151</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053333531568408</v>
+        <v>1.052718921709459</v>
       </c>
       <c r="J6">
-        <v>1.048741617761158</v>
+        <v>1.046888984313137</v>
       </c>
       <c r="K6">
-        <v>1.052383832230836</v>
+        <v>1.04958024520502</v>
       </c>
       <c r="L6">
-        <v>1.050907707510008</v>
+        <v>1.049252426005243</v>
       </c>
       <c r="M6">
-        <v>1.059950979108128</v>
+        <v>1.058145587558685</v>
       </c>
       <c r="N6">
-        <v>1.019690729968115</v>
+        <v>1.019333279299048</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056019405707917</v>
+        <v>1.054590587918402</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048124104413497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046151856667757</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024801949887734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029338724651329</v>
+        <v>1.027533223805905</v>
       </c>
       <c r="D7">
-        <v>1.042087191135817</v>
+        <v>1.039360965862994</v>
       </c>
       <c r="E7">
-        <v>1.040543277632898</v>
+        <v>1.038951232001213</v>
       </c>
       <c r="F7">
-        <v>1.049738548491084</v>
+        <v>1.047992728908373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053103943191954</v>
+        <v>1.052524080525167</v>
       </c>
       <c r="J7">
-        <v>1.048014767002998</v>
+        <v>1.04625207632538</v>
       </c>
       <c r="K7">
-        <v>1.051700030636569</v>
+        <v>1.04900361029187</v>
       </c>
       <c r="L7">
-        <v>1.050172972685999</v>
+        <v>1.048598372523754</v>
       </c>
       <c r="M7">
-        <v>1.059268751407422</v>
+        <v>1.057541656901741</v>
       </c>
       <c r="N7">
-        <v>1.019435364757341</v>
+        <v>1.01918295870156</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05547947933796</v>
+        <v>1.054112626254077</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047644765066514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04574871301353</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024674269694277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023965560303818</v>
+        <v>1.022531674717576</v>
       </c>
       <c r="D8">
-        <v>1.038083440978528</v>
+        <v>1.035803039051427</v>
       </c>
       <c r="E8">
-        <v>1.036321469062284</v>
+        <v>1.035062138795998</v>
       </c>
       <c r="F8">
-        <v>1.045758211577413</v>
+        <v>1.044336804760464</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052097086804505</v>
+        <v>1.051659094463126</v>
       </c>
       <c r="J8">
-        <v>1.044900698835653</v>
+        <v>1.043505875450389</v>
       </c>
       <c r="K8">
-        <v>1.048771121863574</v>
+        <v>1.04651892843254</v>
       </c>
       <c r="L8">
-        <v>1.047030931904884</v>
+        <v>1.045787226409574</v>
       </c>
       <c r="M8">
-        <v>1.056352078515437</v>
+        <v>1.054947917248864</v>
       </c>
       <c r="N8">
-        <v>1.018338601709369</v>
+        <v>1.018473816094097</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053171171482637</v>
+        <v>1.052059890260723</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045578357810972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043996869314916</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024114852963527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014080034345055</v>
+        <v>1.01331994571042</v>
       </c>
       <c r="D9">
-        <v>1.030757184128717</v>
+        <v>1.02928580655599</v>
       </c>
       <c r="E9">
-        <v>1.028597879226476</v>
+        <v>1.027940668264398</v>
       </c>
       <c r="F9">
-        <v>1.038486282197484</v>
+        <v>1.037653620361546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050153312608482</v>
+        <v>1.049970122459972</v>
       </c>
       <c r="J9">
-        <v>1.039145203197962</v>
+        <v>1.038410954148227</v>
       </c>
       <c r="K9">
-        <v>1.043370206456868</v>
+        <v>1.041920961825379</v>
       </c>
       <c r="L9">
-        <v>1.04124341018959</v>
+        <v>1.040596128163356</v>
       </c>
       <c r="M9">
-        <v>1.05098434926551</v>
+        <v>1.05016396708624</v>
       </c>
       <c r="N9">
-        <v>1.016305215337072</v>
+        <v>1.017065340797149</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048923034648285</v>
+        <v>1.048273764346878</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041756451061127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040742420380753</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023053551487696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007293193560719</v>
+        <v>1.007045974519464</v>
       </c>
       <c r="D10">
-        <v>1.025789251651368</v>
+        <v>1.024910024783511</v>
       </c>
       <c r="E10">
-        <v>1.023356558268597</v>
+        <v>1.023154554409116</v>
       </c>
       <c r="F10">
-        <v>1.033588088318581</v>
+        <v>1.033194725757291</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048787231520526</v>
+        <v>1.048797755528051</v>
       </c>
       <c r="J10">
-        <v>1.03522040863202</v>
+        <v>1.034982801896408</v>
       </c>
       <c r="K10">
-        <v>1.039707978451089</v>
+        <v>1.038843629505148</v>
       </c>
       <c r="L10">
-        <v>1.037316530806912</v>
+        <v>1.037117963262963</v>
       </c>
       <c r="M10">
-        <v>1.047376272848193</v>
+        <v>1.046989433894731</v>
       </c>
       <c r="N10">
-        <v>1.014926865493717</v>
+        <v>1.016236774084393</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046118477337786</v>
+        <v>1.045812341285045</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039183761816397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038584975090065</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022344377376118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004987853269815</v>
+        <v>1.004921832698754</v>
       </c>
       <c r="D11">
-        <v>1.02429244646638</v>
+        <v>1.023610941259391</v>
       </c>
       <c r="E11">
-        <v>1.021796583567272</v>
+        <v>1.021749144883543</v>
       </c>
       <c r="F11">
-        <v>1.032365772369064</v>
+        <v>1.032120849769344</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048487756930295</v>
+        <v>1.048561946472159</v>
       </c>
       <c r="J11">
-        <v>1.034154593851818</v>
+        <v>1.034091281491594</v>
       </c>
       <c r="K11">
-        <v>1.03877033678548</v>
+        <v>1.038100915562763</v>
       </c>
       <c r="L11">
-        <v>1.036318830834304</v>
+        <v>1.03627223796425</v>
       </c>
       <c r="M11">
-        <v>1.046702083158113</v>
+        <v>1.046461413527706</v>
       </c>
       <c r="N11">
-        <v>1.014633627388792</v>
+        <v>1.016276735205718</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046017382715233</v>
+        <v>1.045827016031267</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038553496264841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038095748894657</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022246722845777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004385823509234</v>
+        <v>1.004346442823626</v>
       </c>
       <c r="D12">
-        <v>1.023984489987233</v>
+        <v>1.023333598511987</v>
       </c>
       <c r="E12">
-        <v>1.021493704107466</v>
+        <v>1.021464909356455</v>
       </c>
       <c r="F12">
-        <v>1.032254088271769</v>
+        <v>1.032029532869969</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04849441038998</v>
+        <v>1.048573260322667</v>
       </c>
       <c r="J12">
-        <v>1.034005720307035</v>
+        <v>1.033967985732693</v>
       </c>
       <c r="K12">
-        <v>1.038666172493234</v>
+        <v>1.038027013118524</v>
       </c>
       <c r="L12">
-        <v>1.036220387370424</v>
+        <v>1.03619211452007</v>
       </c>
       <c r="M12">
-        <v>1.046788384194077</v>
+        <v>1.046567790521995</v>
       </c>
       <c r="N12">
-        <v>1.014646329267597</v>
+        <v>1.016388312305139</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046409471697302</v>
+        <v>1.046235042986582</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038479849402728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038043498970624</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022283818033915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005080725258862</v>
+        <v>1.00493363815478</v>
       </c>
       <c r="D13">
-        <v>1.024600182601433</v>
+        <v>1.02383902043765</v>
       </c>
       <c r="E13">
-        <v>1.022161999566657</v>
+        <v>1.022033776122768</v>
       </c>
       <c r="F13">
-        <v>1.033019368564888</v>
+        <v>1.032705355051352</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048752351383802</v>
+        <v>1.048783946770474</v>
       </c>
       <c r="J13">
-        <v>1.034579764733321</v>
+        <v>1.034438792291573</v>
       </c>
       <c r="K13">
-        <v>1.03922828057598</v>
+        <v>1.03848077287385</v>
       </c>
       <c r="L13">
-        <v>1.036833929302436</v>
+        <v>1.036708018484486</v>
       </c>
       <c r="M13">
-        <v>1.047498174296383</v>
+        <v>1.047189672356623</v>
       </c>
       <c r="N13">
-        <v>1.014907342717472</v>
+        <v>1.016533091396497</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047245398583281</v>
+        <v>1.047001519161004</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038874794439736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038361590124767</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022433767757335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006156562808803</v>
+        <v>1.005874261968244</v>
       </c>
       <c r="D14">
-        <v>1.025452394548988</v>
+        <v>1.024551143665092</v>
       </c>
       <c r="E14">
-        <v>1.023071164995915</v>
+        <v>1.022821023839006</v>
       </c>
       <c r="F14">
-        <v>1.033954039653154</v>
+        <v>1.033528605551249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049047115312222</v>
+        <v>1.049022866725477</v>
       </c>
       <c r="J14">
-        <v>1.035310737105641</v>
+        <v>1.035039998277421</v>
       </c>
       <c r="K14">
-        <v>1.039926126629987</v>
+        <v>1.039040834444052</v>
       </c>
       <c r="L14">
-        <v>1.03758714133251</v>
+        <v>1.037341452628965</v>
       </c>
       <c r="M14">
-        <v>1.048279002076619</v>
+        <v>1.047860937337903</v>
       </c>
       <c r="N14">
-        <v>1.015203277401284</v>
+        <v>1.016651700253168</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048034856971185</v>
+        <v>1.047704409193955</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039369606897503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038759116425874</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022591171072401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006708673621355</v>
+        <v>1.006364536582323</v>
       </c>
       <c r="D15">
-        <v>1.02587195452263</v>
+        <v>1.024905900552433</v>
       </c>
       <c r="E15">
-        <v>1.023513896284993</v>
+        <v>1.023208739357576</v>
       </c>
       <c r="F15">
-        <v>1.034386742640269</v>
+        <v>1.033910481261974</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049177565449666</v>
+        <v>1.04912873496252</v>
       </c>
       <c r="J15">
-        <v>1.035655585738285</v>
+        <v>1.035325417609834</v>
       </c>
       <c r="K15">
-        <v>1.040252605349581</v>
+        <v>1.039303524362892</v>
       </c>
       <c r="L15">
-        <v>1.037936049831585</v>
+        <v>1.037636281910829</v>
       </c>
       <c r="M15">
-        <v>1.048619566285788</v>
+        <v>1.04815149027813</v>
       </c>
       <c r="N15">
-        <v>1.015333360565744</v>
+        <v>1.016693904113133</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04834135745248</v>
+        <v>1.047971389277813</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03960627352061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038951251085286</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022657933149635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009452957269981</v>
+        <v>1.008847674983663</v>
       </c>
       <c r="D16">
-        <v>1.027863795050556</v>
+        <v>1.026616539462725</v>
       </c>
       <c r="E16">
-        <v>1.025609437009758</v>
+        <v>1.025075353922767</v>
       </c>
       <c r="F16">
-        <v>1.036337271541836</v>
+        <v>1.035645700243876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049722735914968</v>
+        <v>1.049575175665473</v>
       </c>
       <c r="J16">
-        <v>1.03722087791356</v>
+        <v>1.036638925029321</v>
       </c>
       <c r="K16">
-        <v>1.041712291437626</v>
+        <v>1.040485980061949</v>
       </c>
       <c r="L16">
-        <v>1.039495837061344</v>
+        <v>1.038970765297313</v>
       </c>
       <c r="M16">
-        <v>1.050045195661985</v>
+        <v>1.049364986428235</v>
       </c>
       <c r="N16">
-        <v>1.015871594603946</v>
+        <v>1.016839703089804</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049429702914555</v>
+        <v>1.048892048904892</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040641455460744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039790719532304</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022919129390708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010995781617021</v>
+        <v>1.010272007601661</v>
       </c>
       <c r="D17">
-        <v>1.028946890635447</v>
+        <v>1.027565921489486</v>
       </c>
       <c r="E17">
-        <v>1.026741883461022</v>
+        <v>1.026105249060348</v>
       </c>
       <c r="F17">
-        <v>1.037341295935043</v>
+        <v>1.03655068800999</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049983724771859</v>
+        <v>1.049793805988393</v>
       </c>
       <c r="J17">
-        <v>1.0380378688538</v>
+        <v>1.037341091384119</v>
       </c>
       <c r="K17">
-        <v>1.042465723475648</v>
+        <v>1.041107287662304</v>
       </c>
       <c r="L17">
-        <v>1.04029673262049</v>
+        <v>1.039670533957616</v>
       </c>
       <c r="M17">
-        <v>1.050724811402168</v>
+        <v>1.04994682817753</v>
       </c>
       <c r="N17">
-        <v>1.016129071666529</v>
+        <v>1.016919262909035</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049838729177934</v>
+        <v>1.049223731559899</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041176722157337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040232817162875</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023038989185689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011630446337207</v>
+        <v>1.010888035768579</v>
       </c>
       <c r="D18">
-        <v>1.029318763576334</v>
+        <v>1.027910159277639</v>
       </c>
       <c r="E18">
-        <v>1.027122557849458</v>
+        <v>1.026472466583796</v>
       </c>
       <c r="F18">
-        <v>1.037582391026316</v>
+        <v>1.036775299930488</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050015107506432</v>
+        <v>1.049822516486895</v>
       </c>
       <c r="J18">
-        <v>1.038261157247264</v>
+        <v>1.037545924272502</v>
       </c>
       <c r="K18">
-        <v>1.042649905571523</v>
+        <v>1.041263911263755</v>
       </c>
       <c r="L18">
-        <v>1.040488986581973</v>
+        <v>1.039849377592688</v>
       </c>
       <c r="M18">
-        <v>1.050782472717442</v>
+        <v>1.049988064196735</v>
       </c>
       <c r="N18">
-        <v>1.016157315244967</v>
+        <v>1.016901434549837</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049648456703347</v>
+        <v>1.049020345775255</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04129538349373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04033085551197</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023035021935489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011482035603263</v>
+        <v>1.010796845023807</v>
       </c>
       <c r="D19">
-        <v>1.029088522456569</v>
+        <v>1.027735957384003</v>
       </c>
       <c r="E19">
-        <v>1.026857245782656</v>
+        <v>1.026261438573632</v>
       </c>
       <c r="F19">
-        <v>1.037164121055958</v>
+        <v>1.03640422605033</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049858827619396</v>
+        <v>1.049693282851364</v>
       </c>
       <c r="J19">
-        <v>1.037986040143171</v>
+        <v>1.037325794557557</v>
       </c>
       <c r="K19">
-        <v>1.042361398638366</v>
+        <v>1.04103043933309</v>
       </c>
       <c r="L19">
-        <v>1.040165803316669</v>
+        <v>1.039579557595877</v>
       </c>
       <c r="M19">
-        <v>1.050309497869399</v>
+        <v>1.04956149194021</v>
       </c>
       <c r="N19">
-        <v>1.015999706532858</v>
+        <v>1.016788792309198</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048951811800921</v>
+        <v>1.048360199749176</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041097756466848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040172767335517</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022931873504408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009105487957006</v>
+        <v>1.008690671725091</v>
       </c>
       <c r="D20">
-        <v>1.027135217095802</v>
+        <v>1.026073627613112</v>
       </c>
       <c r="E20">
-        <v>1.024762277234143</v>
+        <v>1.024411710389204</v>
       </c>
       <c r="F20">
-        <v>1.034903665348589</v>
+        <v>1.034370466470232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049168089231607</v>
+        <v>1.04911373389835</v>
       </c>
       <c r="J20">
-        <v>1.036289865156386</v>
+        <v>1.035890644844705</v>
       </c>
       <c r="K20">
-        <v>1.040717137206341</v>
+        <v>1.039672990851403</v>
       </c>
       <c r="L20">
-        <v>1.038383251658224</v>
+        <v>1.038038474251657</v>
       </c>
       <c r="M20">
-        <v>1.048359338395523</v>
+        <v>1.047834726890672</v>
       </c>
       <c r="N20">
-        <v>1.015309013436928</v>
+        <v>1.016391940953861</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046886010235402</v>
+        <v>1.046470839112539</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039939119910327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039217311567488</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022540179373253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003870596999107</v>
+        <v>1.004000111178891</v>
       </c>
       <c r="D21">
-        <v>1.023279156295774</v>
+        <v>1.022794817055137</v>
       </c>
       <c r="E21">
-        <v>1.020691149454149</v>
+        <v>1.020823243718274</v>
       </c>
       <c r="F21">
-        <v>1.031055468340537</v>
+        <v>1.030971419219248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048062113552633</v>
+        <v>1.048221348338654</v>
       </c>
       <c r="J21">
-        <v>1.033207376805532</v>
+        <v>1.033331536213112</v>
       </c>
       <c r="K21">
-        <v>1.037832523566099</v>
+        <v>1.037356831575244</v>
       </c>
       <c r="L21">
-        <v>1.03529084596681</v>
+        <v>1.035420568152147</v>
       </c>
       <c r="M21">
-        <v>1.045471440541013</v>
+        <v>1.04538886208082</v>
       </c>
       <c r="N21">
-        <v>1.014210809999986</v>
+        <v>1.016101571941305</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044559974360714</v>
+        <v>1.04449461940869</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037902835314872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037583277197865</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022004647226935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000531149964118</v>
+        <v>1.001009060623522</v>
       </c>
       <c r="D22">
-        <v>1.020830501551538</v>
+        <v>1.020714641932805</v>
       </c>
       <c r="E22">
-        <v>1.018112166739166</v>
+        <v>1.018553295285291</v>
       </c>
       <c r="F22">
-        <v>1.028633974264365</v>
+        <v>1.028837515269775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047351716160107</v>
+        <v>1.047648160854278</v>
       </c>
       <c r="J22">
-        <v>1.031248047872104</v>
+        <v>1.031705028661513</v>
       </c>
       <c r="K22">
-        <v>1.036000296599937</v>
+        <v>1.03588661182745</v>
       </c>
       <c r="L22">
-        <v>1.033333159180539</v>
+        <v>1.033765955194337</v>
       </c>
       <c r="M22">
-        <v>1.043658756566698</v>
+        <v>1.043858553498906</v>
       </c>
       <c r="N22">
-        <v>1.01351444324918</v>
+        <v>1.015912145777413</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043125363143999</v>
+        <v>1.043283488429474</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036593935391284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036529037017139</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021664711178113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002289238669169</v>
+        <v>1.002568060659296</v>
       </c>
       <c r="D23">
-        <v>1.022111153690034</v>
+        <v>1.021788524177034</v>
       </c>
       <c r="E23">
-        <v>1.019466283056457</v>
+        <v>1.019730844993875</v>
       </c>
       <c r="F23">
-        <v>1.029905056197315</v>
+        <v>1.029945535598453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047722679663098</v>
+        <v>1.047940026051679</v>
       </c>
       <c r="J23">
-        <v>1.03227260316811</v>
+        <v>1.032539578066411</v>
       </c>
       <c r="K23">
-        <v>1.036953978244862</v>
+        <v>1.036637247632967</v>
       </c>
       <c r="L23">
-        <v>1.034357609481545</v>
+        <v>1.034617305104988</v>
       </c>
       <c r="M23">
-        <v>1.044606837165529</v>
+        <v>1.044646591262595</v>
       </c>
       <c r="N23">
-        <v>1.013876366985123</v>
+        <v>1.015962522723361</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043875702264594</v>
+        <v>1.043907164819862</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037258622633631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037049218946277</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021833970299669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00909691325036</v>
+        <v>1.008689037654661</v>
       </c>
       <c r="D24">
-        <v>1.027100168338441</v>
+        <v>1.026045089383288</v>
       </c>
       <c r="E24">
-        <v>1.024731236183611</v>
+        <v>1.024387369364387</v>
       </c>
       <c r="F24">
-        <v>1.034850873112422</v>
+        <v>1.034323403027851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049143982051191</v>
+        <v>1.049093052296844</v>
       </c>
       <c r="J24">
-        <v>1.036249226593399</v>
+        <v>1.035856664702693</v>
       </c>
       <c r="K24">
-        <v>1.040667521110932</v>
+        <v>1.039629757505986</v>
       </c>
       <c r="L24">
-        <v>1.038337530642023</v>
+        <v>1.037999335737918</v>
       </c>
       <c r="M24">
-        <v>1.048292414380261</v>
+        <v>1.047773429611069</v>
       </c>
       <c r="N24">
-        <v>1.015284246617019</v>
+        <v>1.016371427328827</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046792570132978</v>
+        <v>1.046381831915687</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039876782927836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039156811593782</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022520411826517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016714738579078</v>
+        <v>1.015759437052865</v>
       </c>
       <c r="D25">
-        <v>1.032716304953239</v>
+        <v>1.031017376217865</v>
       </c>
       <c r="E25">
-        <v>1.030654844836242</v>
+        <v>1.029823612499649</v>
       </c>
       <c r="F25">
-        <v>1.040422148410237</v>
+        <v>1.039421278083643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050687902688702</v>
+        <v>1.050430403208101</v>
       </c>
       <c r="J25">
-        <v>1.040692387930819</v>
+        <v>1.039767828960329</v>
       </c>
       <c r="K25">
-        <v>1.044827117079327</v>
+        <v>1.043152539317138</v>
       </c>
       <c r="L25">
-        <v>1.042795217309015</v>
+        <v>1.041975946856332</v>
       </c>
       <c r="M25">
-        <v>1.052423772827116</v>
+        <v>1.051436968718562</v>
       </c>
       <c r="N25">
-        <v>1.016855657161649</v>
+        <v>1.017412118419475</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050062227904077</v>
+        <v>1.049281248389226</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042814946474965</v>
+        <v>1.041644403073861</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023342640770089</v>
       </c>
     </row>
   </sheetData>
